--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_15_39.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_15_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2547098.416868868</v>
+        <v>2546343.623885748</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2896994.290843038</v>
+        <v>2896994.29084304</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736556</v>
+        <v>504792.029273655</v>
       </c>
     </row>
     <row r="9">
@@ -1151,40 +1151,40 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>10.00967878293136</v>
+      </c>
+      <c r="T8" t="n">
         <v>8.816525072005941</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>10.00967878293136</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>8.816525072005941</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1221,61 +1221,61 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G9" t="n">
-        <v>8.816525072005941</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="S9" t="n">
-        <v>10.00967878293136</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1303,49 +1303,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
       <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
         <v>8.816525072005941</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="T10" t="n">
-        <v>10.00967878293136</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1370,10 +1370,10 @@
         <v>287.4621822983378</v>
       </c>
       <c r="C11" t="n">
-        <v>275.4734992560195</v>
+        <v>160.1128255217522</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>266.4548033005475</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>307.3687569584301</v>
       </c>
       <c r="G11" t="n">
-        <v>308.7702359084508</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>221.4059562765829</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>47.9463115840788</v>
+        <v>47.94631158407879</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1430,10 +1430,10 @@
         <v>230.9685595385169</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>256.2686590164737</v>
       </c>
       <c r="X11" t="n">
-        <v>152.755513646941</v>
+        <v>275.5689172492204</v>
       </c>
       <c r="Y11" t="n">
         <v>286.9655150454191</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>41.5204726364653</v>
+        <v>41.52047263646529</v>
       </c>
       <c r="S12" t="n">
         <v>145.9864318313356</v>
@@ -1543,10 +1543,10 @@
         <v>64.35108710701115</v>
       </c>
       <c r="H13" t="n">
-        <v>53.01713980218874</v>
+        <v>53.01713980218875</v>
       </c>
       <c r="I13" t="n">
-        <v>32.94647717468528</v>
+        <v>32.94647717468527</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1604,22 +1604,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>287.4621822983377</v>
+        <v>287.4621822983378</v>
       </c>
       <c r="C14" t="n">
-        <v>275.4734992560195</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>218.6752396455291</v>
       </c>
       <c r="E14" t="n">
         <v>288.196940870453</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>307.3687569584301</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>308.7702359084508</v>
       </c>
       <c r="H14" t="n">
         <v>221.4059562765828</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.59762315252743</v>
+        <v>70.59762315252746</v>
       </c>
       <c r="T14" t="n">
         <v>117.1465288645459</v>
       </c>
       <c r="U14" t="n">
-        <v>146.4593189446059</v>
+        <v>149.6530179828526</v>
       </c>
       <c r="V14" t="n">
-        <v>230.9685595385168</v>
+        <v>230.9685595385169</v>
       </c>
       <c r="W14" t="n">
         <v>256.2686590164737</v>
       </c>
       <c r="X14" t="n">
-        <v>275.5689172492204</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>286.9655150454191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>96.19049711964605</v>
       </c>
       <c r="I15" t="n">
-        <v>57.90206971882206</v>
+        <v>57.90206971882208</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>41.52047263646527</v>
+        <v>41.52047263646529</v>
       </c>
       <c r="S15" t="n">
         <v>145.9864318313356</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>79.07889317303481</v>
+        <v>79.07889317303483</v>
       </c>
       <c r="C16" t="n">
-        <v>65.2788880184353</v>
+        <v>65.27888801843531</v>
       </c>
       <c r="D16" t="n">
-        <v>48.90025241601369</v>
+        <v>48.9002524160137</v>
       </c>
       <c r="E16" t="n">
-        <v>47.84800227179313</v>
+        <v>47.84800227179315</v>
       </c>
       <c r="F16" t="n">
-        <v>48.31492659997944</v>
+        <v>48.31492659997946</v>
       </c>
       <c r="G16" t="n">
-        <v>64.35108710701114</v>
+        <v>64.35108710701115</v>
       </c>
       <c r="H16" t="n">
-        <v>53.01713980218873</v>
+        <v>53.01713980218874</v>
       </c>
       <c r="I16" t="n">
-        <v>32.94647717468526</v>
+        <v>32.94647717468527</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.65991636537674</v>
+        <v>34.65991636537677</v>
       </c>
       <c r="S16" t="n">
         <v>104.7746029199932</v>
@@ -1819,13 +1819,13 @@
         <v>127.1870160031714</v>
       </c>
       <c r="U16" t="n">
-        <v>181.6644038977817</v>
+        <v>181.6644038977818</v>
       </c>
       <c r="V16" t="n">
         <v>155.4870295726604</v>
       </c>
       <c r="W16" t="n">
-        <v>180.6539156432736</v>
+        <v>180.6539156432737</v>
       </c>
       <c r="X16" t="n">
         <v>126.2990176390768</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>224.1916469265037</v>
+        <v>224.1916469265036</v>
       </c>
       <c r="C17" t="n">
-        <v>212.2029638841855</v>
+        <v>212.2029638841854</v>
       </c>
       <c r="D17" t="n">
         <v>203.1842679287134</v>
       </c>
       <c r="E17" t="n">
-        <v>224.926405498619</v>
+        <v>224.9264054986189</v>
       </c>
       <c r="F17" t="n">
         <v>244.0982215865961</v>
       </c>
       <c r="G17" t="n">
-        <v>245.4997005366168</v>
+        <v>245.4997005366167</v>
       </c>
       <c r="H17" t="n">
-        <v>158.1354209047488</v>
+        <v>158.1354209047487</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>7.327087780693366</v>
+        <v>7.327087780693347</v>
       </c>
       <c r="T17" t="n">
-        <v>53.87599349271187</v>
+        <v>53.87599349271179</v>
       </c>
       <c r="U17" t="n">
-        <v>86.38248261101853</v>
+        <v>86.38248261101845</v>
       </c>
       <c r="V17" t="n">
         <v>167.6980241666828</v>
@@ -1907,10 +1907,10 @@
         <v>192.9981236446397</v>
       </c>
       <c r="X17" t="n">
-        <v>212.2983818773864</v>
+        <v>212.2983818773863</v>
       </c>
       <c r="Y17" t="n">
-        <v>223.6949796735851</v>
+        <v>223.694979673585</v>
       </c>
     </row>
     <row r="18">
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.8083578012008</v>
+        <v>15.80835780120071</v>
       </c>
       <c r="C19" t="n">
-        <v>2.008352646601281</v>
+        <v>2.008352646601196</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>154.2454182866677</v>
+        <v>1.080551735177038</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>41.50406754815915</v>
+        <v>194.6689340996505</v>
       </c>
       <c r="T19" t="n">
-        <v>63.91648063133739</v>
+        <v>63.91648063133731</v>
       </c>
       <c r="U19" t="n">
         <v>118.3938685259477</v>
       </c>
       <c r="V19" t="n">
-        <v>92.21649420082639</v>
+        <v>92.2164942008263</v>
       </c>
       <c r="W19" t="n">
         <v>117.3833802714396</v>
       </c>
       <c r="X19" t="n">
-        <v>63.02848226724277</v>
+        <v>63.02848226724268</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.90335002331045</v>
+        <v>53.90335002331037</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>224.1916469265037</v>
+        <v>224.1916469265036</v>
       </c>
       <c r="C20" t="n">
-        <v>212.2029638841855</v>
+        <v>212.2029638841854</v>
       </c>
       <c r="D20" t="n">
         <v>203.1842679287134</v>
       </c>
       <c r="E20" t="n">
-        <v>224.926405498619</v>
+        <v>224.9264054986189</v>
       </c>
       <c r="F20" t="n">
         <v>244.0982215865961</v>
       </c>
       <c r="G20" t="n">
-        <v>245.4997005366168</v>
+        <v>245.4997005366167</v>
       </c>
       <c r="H20" t="n">
-        <v>158.1354209047488</v>
+        <v>158.1354209047487</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>7.327087780693427</v>
+        <v>7.327087780693342</v>
       </c>
       <c r="T20" t="n">
-        <v>53.87599349271187</v>
+        <v>53.87599349271179</v>
       </c>
       <c r="U20" t="n">
-        <v>86.38248261101853</v>
+        <v>86.38248261101845</v>
       </c>
       <c r="V20" t="n">
         <v>167.6980241666828</v>
@@ -2144,10 +2144,10 @@
         <v>192.9981236446397</v>
       </c>
       <c r="X20" t="n">
-        <v>212.2983818773864</v>
+        <v>212.2983818773863</v>
       </c>
       <c r="Y20" t="n">
-        <v>223.6949796735851</v>
+        <v>223.694979673585</v>
       </c>
     </row>
     <row r="21">
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15.8083578012008</v>
+        <v>15.80835780120071</v>
       </c>
       <c r="C22" t="n">
-        <v>2.008352646601281</v>
+        <v>2.008352646601196</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>154.2454182866677</v>
+        <v>1.080551735177038</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>41.50406754815915</v>
+        <v>194.6689340996505</v>
       </c>
       <c r="T22" t="n">
-        <v>63.91648063133739</v>
+        <v>63.91648063133731</v>
       </c>
       <c r="U22" t="n">
         <v>118.3938685259477</v>
       </c>
       <c r="V22" t="n">
-        <v>92.21649420082639</v>
+        <v>92.2164942008263</v>
       </c>
       <c r="W22" t="n">
         <v>117.3833802714396</v>
       </c>
       <c r="X22" t="n">
-        <v>63.02848226724277</v>
+        <v>63.02848226724268</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.90335002331045</v>
+        <v>53.90335002331037</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>224.1916469265038</v>
+        <v>224.1916469265036</v>
       </c>
       <c r="C23" t="n">
-        <v>212.2029638841855</v>
+        <v>212.2029638841854</v>
       </c>
       <c r="D23" t="n">
-        <v>203.1842679287135</v>
+        <v>203.1842679287134</v>
       </c>
       <c r="E23" t="n">
-        <v>224.926405498619</v>
+        <v>224.9264054986189</v>
       </c>
       <c r="F23" t="n">
-        <v>244.0982215865962</v>
+        <v>244.0982215865961</v>
       </c>
       <c r="G23" t="n">
-        <v>245.4997005366168</v>
+        <v>245.4997005366167</v>
       </c>
       <c r="H23" t="n">
-        <v>158.1354209047488</v>
+        <v>158.1354209047487</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>7.327087780693455</v>
+        <v>7.327087780693342</v>
       </c>
       <c r="T23" t="n">
-        <v>53.8759934927119</v>
+        <v>53.87599349271179</v>
       </c>
       <c r="U23" t="n">
-        <v>86.38248261101856</v>
+        <v>86.38248261101845</v>
       </c>
       <c r="V23" t="n">
-        <v>167.6980241666829</v>
+        <v>167.6980241666828</v>
       </c>
       <c r="W23" t="n">
-        <v>192.9981236446398</v>
+        <v>192.9981236446397</v>
       </c>
       <c r="X23" t="n">
-        <v>212.2983818773864</v>
+        <v>212.2983818773863</v>
       </c>
       <c r="Y23" t="n">
-        <v>223.6949796735852</v>
+        <v>223.694979673585</v>
       </c>
     </row>
     <row r="24">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.80835780120083</v>
+        <v>15.80835780120071</v>
       </c>
       <c r="C25" t="n">
-        <v>2.00835264660131</v>
+        <v>2.008352646601196</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.080551735177152</v>
+        <v>1.080551735177038</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>41.50406754815918</v>
+        <v>41.50406754815906</v>
       </c>
       <c r="T25" t="n">
-        <v>217.0813471828278</v>
+        <v>63.91648063133731</v>
       </c>
       <c r="U25" t="n">
-        <v>118.3938685259478</v>
+        <v>118.3938685259477</v>
       </c>
       <c r="V25" t="n">
-        <v>92.21649420082642</v>
+        <v>92.2164942008263</v>
       </c>
       <c r="W25" t="n">
-        <v>117.3833802714397</v>
+        <v>270.548246822931</v>
       </c>
       <c r="X25" t="n">
-        <v>63.02848226724279</v>
+        <v>63.02848226724268</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.90335002331048</v>
+        <v>53.90335002331037</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>221.4059562765828</v>
       </c>
       <c r="I26" t="n">
-        <v>47.94631158407871</v>
+        <v>47.94631158407873</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.5976231525274</v>
+        <v>70.59762315252742</v>
       </c>
       <c r="T26" t="n">
         <v>117.1465288645459</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>41.52047263646528</v>
+        <v>41.52047263646527</v>
       </c>
       <c r="S27" t="n">
         <v>145.9864318313356</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.07889317303479</v>
+        <v>79.0788931730348</v>
       </c>
       <c r="C28" t="n">
-        <v>65.27888801843527</v>
+        <v>65.27888801843528</v>
       </c>
       <c r="D28" t="n">
-        <v>48.90025241601366</v>
+        <v>48.90025241601367</v>
       </c>
       <c r="E28" t="n">
-        <v>47.84800227179311</v>
+        <v>47.84800227179312</v>
       </c>
       <c r="F28" t="n">
-        <v>48.31492659997942</v>
+        <v>48.31492659997943</v>
       </c>
       <c r="G28" t="n">
-        <v>64.35108710701111</v>
+        <v>64.35108710701112</v>
       </c>
       <c r="H28" t="n">
-        <v>53.0171398021887</v>
+        <v>53.01713980218872</v>
       </c>
       <c r="I28" t="n">
-        <v>32.94647717468523</v>
+        <v>32.94647717468524</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.65991636537672</v>
+        <v>34.65991636537673</v>
       </c>
       <c r="S28" t="n">
         <v>104.7746029199931</v>
@@ -2779,7 +2779,7 @@
         <v>126.2990176390768</v>
       </c>
       <c r="Y28" t="n">
-        <v>117.1738853951444</v>
+        <v>117.1738853951445</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>221.4059562765828</v>
       </c>
       <c r="I29" t="n">
-        <v>47.94631158407874</v>
+        <v>47.94631158407876</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>96.19049711964605</v>
       </c>
       <c r="I30" t="n">
-        <v>57.90206971882206</v>
+        <v>57.90206971882208</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>41.52047263646528</v>
+        <v>41.52047263646529</v>
       </c>
       <c r="S30" t="n">
         <v>145.9864318313356</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.07889317303481</v>
+        <v>79.0788931730348</v>
       </c>
       <c r="C31" t="n">
-        <v>65.2788880184353</v>
+        <v>65.27888801843528</v>
       </c>
       <c r="D31" t="n">
-        <v>48.90025241601369</v>
+        <v>48.90025241601367</v>
       </c>
       <c r="E31" t="n">
-        <v>47.84800227179313</v>
+        <v>47.84800227179312</v>
       </c>
       <c r="F31" t="n">
-        <v>48.31492659997944</v>
+        <v>48.31492659997943</v>
       </c>
       <c r="G31" t="n">
-        <v>64.35108710701114</v>
+        <v>64.35108710701112</v>
       </c>
       <c r="H31" t="n">
-        <v>53.01713980218873</v>
+        <v>53.01713980218872</v>
       </c>
       <c r="I31" t="n">
-        <v>32.94647717468526</v>
+        <v>32.94647717468524</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>34.65991636537674</v>
       </c>
       <c r="S31" t="n">
-        <v>104.7746029199932</v>
+        <v>104.7746029199931</v>
       </c>
       <c r="T31" t="n">
         <v>127.1870160031714</v>
@@ -3029,25 +3029,25 @@
         <v>284.8724782036177</v>
       </c>
       <c r="C32" t="n">
-        <v>272.8837951612995</v>
+        <v>272.8837951612994</v>
       </c>
       <c r="D32" t="n">
         <v>263.8650992058274</v>
       </c>
       <c r="E32" t="n">
-        <v>285.607236775733</v>
+        <v>285.6072367757329</v>
       </c>
       <c r="F32" t="n">
         <v>304.7790528637101</v>
       </c>
       <c r="G32" t="n">
-        <v>306.1805318137308</v>
+        <v>306.1805318137307</v>
       </c>
       <c r="H32" t="n">
         <v>218.8162521818628</v>
       </c>
       <c r="I32" t="n">
-        <v>45.35660748935872</v>
+        <v>45.35660748935869</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>68.0079190578074</v>
+        <v>68.00791905780737</v>
       </c>
       <c r="T32" t="n">
-        <v>114.5568247698259</v>
+        <v>114.5568247698258</v>
       </c>
       <c r="U32" t="n">
         <v>147.0633138881325</v>
       </c>
       <c r="V32" t="n">
-        <v>228.3788554437969</v>
+        <v>228.3788554437968</v>
       </c>
       <c r="W32" t="n">
-        <v>253.6789549217538</v>
+        <v>253.6789549217537</v>
       </c>
       <c r="X32" t="n">
-        <v>272.9792131545004</v>
+        <v>272.9792131545003</v>
       </c>
       <c r="Y32" t="n">
         <v>284.3758109506991</v>
@@ -3126,7 +3126,7 @@
         <v>96.19049711964605</v>
       </c>
       <c r="I33" t="n">
-        <v>57.90206971882206</v>
+        <v>57.90206971882208</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>41.52047263646528</v>
+        <v>41.52047263646529</v>
       </c>
       <c r="S33" t="n">
         <v>145.9864318313356</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>76.48918907831479</v>
+        <v>76.48918907831474</v>
       </c>
       <c r="C34" t="n">
-        <v>62.68918392371528</v>
+        <v>62.68918392371522</v>
       </c>
       <c r="D34" t="n">
-        <v>46.31054832129367</v>
+        <v>46.31054832129361</v>
       </c>
       <c r="E34" t="n">
-        <v>45.25829817707312</v>
+        <v>45.25829817707306</v>
       </c>
       <c r="F34" t="n">
-        <v>45.72522250525942</v>
+        <v>45.72522250525937</v>
       </c>
       <c r="G34" t="n">
-        <v>61.76138301229112</v>
+        <v>61.76138301229106</v>
       </c>
       <c r="H34" t="n">
-        <v>50.42743570746871</v>
+        <v>50.42743570746865</v>
       </c>
       <c r="I34" t="n">
-        <v>30.35677307996524</v>
+        <v>30.35677307996518</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,25 +3232,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>32.07021227065673</v>
+        <v>32.07021227065668</v>
       </c>
       <c r="S34" t="n">
         <v>102.1848988252731</v>
       </c>
       <c r="T34" t="n">
-        <v>124.5973119084514</v>
+        <v>124.5973119084513</v>
       </c>
       <c r="U34" t="n">
         <v>179.0746998030617</v>
       </c>
       <c r="V34" t="n">
-        <v>152.8973254779404</v>
+        <v>152.8973254779403</v>
       </c>
       <c r="W34" t="n">
-        <v>178.0642115485537</v>
+        <v>178.0642115485536</v>
       </c>
       <c r="X34" t="n">
-        <v>123.7093135443568</v>
+        <v>123.7093135443567</v>
       </c>
       <c r="Y34" t="n">
         <v>114.5841813004244</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>236.9374148203187</v>
+        <v>236.9374148203186</v>
       </c>
       <c r="C35" t="n">
         <v>224.9487317780004</v>
       </c>
       <c r="D35" t="n">
-        <v>215.9300358225284</v>
+        <v>215.9300358225283</v>
       </c>
       <c r="E35" t="n">
         <v>237.6721733924339</v>
       </c>
       <c r="F35" t="n">
-        <v>256.8439894804111</v>
+        <v>256.843989480411</v>
       </c>
       <c r="G35" t="n">
         <v>258.2454684304317</v>
       </c>
       <c r="H35" t="n">
-        <v>170.8811887985638</v>
+        <v>170.8811887985637</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>20.07285567450836</v>
+        <v>20.07285567450833</v>
       </c>
       <c r="T35" t="n">
-        <v>66.62176138652683</v>
+        <v>66.62176138652677</v>
       </c>
       <c r="U35" t="n">
-        <v>99.12825050483349</v>
+        <v>99.12825050483343</v>
       </c>
       <c r="V35" t="n">
-        <v>180.4437920604978</v>
+        <v>180.4437920604977</v>
       </c>
       <c r="W35" t="n">
-        <v>205.7438915384547</v>
+        <v>205.7438915384546</v>
       </c>
       <c r="X35" t="n">
         <v>225.0441497712013</v>
       </c>
       <c r="Y35" t="n">
-        <v>236.4407475674001</v>
+        <v>236.4407475674</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>96.19049711964605</v>
       </c>
       <c r="I36" t="n">
-        <v>57.90206971882206</v>
+        <v>57.90206971882208</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>41.52047263646528</v>
+        <v>41.52047263646529</v>
       </c>
       <c r="S36" t="n">
         <v>145.9864318313356</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>28.55412569501576</v>
+        <v>28.5541256950157</v>
       </c>
       <c r="C37" t="n">
-        <v>14.75412054041624</v>
+        <v>14.75412054041618</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>13.82631962899208</v>
+        <v>13.82631962899202</v>
       </c>
       <c r="H37" t="n">
-        <v>2.492372324169671</v>
+        <v>2.492372324169617</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>54.2498354419741</v>
+        <v>54.24983544197405</v>
       </c>
       <c r="T37" t="n">
-        <v>99.87706381432379</v>
+        <v>76.66224852515229</v>
       </c>
       <c r="U37" t="n">
-        <v>131.1396364197627</v>
+        <v>131.1396364197626</v>
       </c>
       <c r="V37" t="n">
         <v>104.9622620946413</v>
       </c>
       <c r="W37" t="n">
-        <v>130.1291481652546</v>
+        <v>130.1291481652545</v>
       </c>
       <c r="X37" t="n">
-        <v>75.77425016105772</v>
+        <v>75.77425016105767</v>
       </c>
       <c r="Y37" t="n">
-        <v>66.64911791712541</v>
+        <v>89.86393320629736</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>236.9374148203187</v>
+        <v>236.9374148203186</v>
       </c>
       <c r="C38" t="n">
         <v>224.9487317780004</v>
       </c>
       <c r="D38" t="n">
-        <v>215.9300358225284</v>
+        <v>215.9300358225283</v>
       </c>
       <c r="E38" t="n">
         <v>237.6721733924339</v>
       </c>
       <c r="F38" t="n">
-        <v>256.8439894804111</v>
+        <v>256.843989480411</v>
       </c>
       <c r="G38" t="n">
         <v>258.2454684304317</v>
       </c>
       <c r="H38" t="n">
-        <v>170.8811887985638</v>
+        <v>170.8811887985637</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>20.07285567450838</v>
+        <v>20.07285567450833</v>
       </c>
       <c r="T38" t="n">
-        <v>66.62176138652683</v>
+        <v>66.62176138652677</v>
       </c>
       <c r="U38" t="n">
-        <v>99.12825050483349</v>
+        <v>99.12825050483343</v>
       </c>
       <c r="V38" t="n">
-        <v>180.4437920604978</v>
+        <v>180.4437920604977</v>
       </c>
       <c r="W38" t="n">
-        <v>205.7438915384547</v>
+        <v>205.7438915384546</v>
       </c>
       <c r="X38" t="n">
         <v>225.0441497712013</v>
       </c>
       <c r="Y38" t="n">
-        <v>236.4407475674001</v>
+        <v>236.4407475674</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>96.19049711964605</v>
       </c>
       <c r="I39" t="n">
-        <v>57.90206971882206</v>
+        <v>57.90206971882208</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>41.52047263646528</v>
+        <v>41.52047263646529</v>
       </c>
       <c r="S39" t="n">
         <v>145.9864318313356</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>28.55412569501576</v>
+        <v>28.5541256950157</v>
       </c>
       <c r="C40" t="n">
-        <v>14.75412054041624</v>
+        <v>14.75412054041618</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>37.04113491816348</v>
+        <v>13.82631962899202</v>
       </c>
       <c r="H40" t="n">
-        <v>2.492372324169671</v>
+        <v>2.492372324169617</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3703,31 +3703,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>18.17731033224803</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>54.2498354419741</v>
+        <v>54.24983544197405</v>
       </c>
       <c r="T40" t="n">
-        <v>76.66224852515235</v>
+        <v>81.69975348207622</v>
       </c>
       <c r="U40" t="n">
-        <v>131.1396364197627</v>
+        <v>131.1396364197626</v>
       </c>
       <c r="V40" t="n">
         <v>104.9622620946413</v>
       </c>
       <c r="W40" t="n">
-        <v>130.1291481652546</v>
+        <v>130.1291481652545</v>
       </c>
       <c r="X40" t="n">
-        <v>75.77425016105772</v>
+        <v>75.77425016105767</v>
       </c>
       <c r="Y40" t="n">
-        <v>66.64911791712541</v>
+        <v>66.64911791712535</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>257.8872195726047</v>
+        <v>257.8872195726044</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>245.8985365302862</v>
       </c>
       <c r="D41" t="n">
-        <v>236.8798405748144</v>
+        <v>236.8798405748141</v>
       </c>
       <c r="E41" t="n">
-        <v>258.6219781447199</v>
+        <v>258.6219781447197</v>
       </c>
       <c r="F41" t="n">
-        <v>230.3950642309802</v>
+        <v>263.691800883413</v>
       </c>
       <c r="G41" t="n">
-        <v>279.1952731827178</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>191.8309935508498</v>
+        <v>191.8309935508495</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>41.02266042679439</v>
+        <v>41.02266042679412</v>
       </c>
       <c r="T41" t="n">
-        <v>87.57156613881284</v>
+        <v>87.57156613881256</v>
       </c>
       <c r="U41" t="n">
-        <v>120.0780552571195</v>
+        <v>120.0780552571192</v>
       </c>
       <c r="V41" t="n">
-        <v>201.3935968127838</v>
+        <v>201.3935968127835</v>
       </c>
       <c r="W41" t="n">
-        <v>226.6936962907407</v>
+        <v>226.6936962907404</v>
       </c>
       <c r="X41" t="n">
-        <v>245.9939545234873</v>
+        <v>245.993954523487</v>
       </c>
       <c r="Y41" t="n">
-        <v>257.3905523196861</v>
+        <v>257.3905523196858</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>96.19049711964605</v>
       </c>
       <c r="I42" t="n">
-        <v>57.90206971882206</v>
+        <v>57.90206971882208</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>41.52047263646528</v>
+        <v>41.52047263646529</v>
       </c>
       <c r="S42" t="n">
         <v>145.9864318313356</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>49.50393044730177</v>
+        <v>49.50393044730149</v>
       </c>
       <c r="C43" t="n">
-        <v>35.70392529270225</v>
+        <v>35.70392529270197</v>
       </c>
       <c r="D43" t="n">
-        <v>19.32528969028064</v>
+        <v>19.32528969028036</v>
       </c>
       <c r="E43" t="n">
-        <v>18.27303954606009</v>
+        <v>18.27303954605981</v>
       </c>
       <c r="F43" t="n">
-        <v>18.7399638742464</v>
+        <v>18.73996387424611</v>
       </c>
       <c r="G43" t="n">
-        <v>34.77612438127809</v>
+        <v>34.77612438127781</v>
       </c>
       <c r="H43" t="n">
-        <v>23.44217707645569</v>
+        <v>23.4421770764554</v>
       </c>
       <c r="I43" t="n">
-        <v>3.37151444895221</v>
+        <v>3.371514448951931</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>5.084953639643704</v>
+        <v>5.084953639643429</v>
       </c>
       <c r="S43" t="n">
-        <v>75.19964019426011</v>
+        <v>75.19964019425983</v>
       </c>
       <c r="T43" t="n">
-        <v>97.61205327743836</v>
+        <v>97.61205327743808</v>
       </c>
       <c r="U43" t="n">
-        <v>152.0894411720487</v>
+        <v>152.0894411720484</v>
       </c>
       <c r="V43" t="n">
-        <v>125.9120668469274</v>
+        <v>125.9120668469271</v>
       </c>
       <c r="W43" t="n">
-        <v>151.0789529175406</v>
+        <v>151.0789529175403</v>
       </c>
       <c r="X43" t="n">
-        <v>96.72405491334374</v>
+        <v>96.72405491334345</v>
       </c>
       <c r="Y43" t="n">
-        <v>87.59892266941142</v>
+        <v>87.59892266941114</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>257.8872195726047</v>
+        <v>257.8872195726044</v>
       </c>
       <c r="C44" t="n">
-        <v>201.2735518210092</v>
+        <v>245.8985365302862</v>
       </c>
       <c r="D44" t="n">
-        <v>236.8798405748144</v>
+        <v>236.8798405748141</v>
       </c>
       <c r="E44" t="n">
-        <v>258.6219781447199</v>
+        <v>244.5199847954356</v>
       </c>
       <c r="F44" t="n">
-        <v>277.7937942326971</v>
+        <v>277.7937942326968</v>
       </c>
       <c r="G44" t="n">
-        <v>279.1952731827178</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>191.8309935508498</v>
+        <v>191.8309935508495</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>41.02266042679411</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>87.57156613881256</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>120.0780552571192</v>
       </c>
       <c r="V44" t="n">
-        <v>201.3935968127838</v>
+        <v>201.3935968127835</v>
       </c>
       <c r="W44" t="n">
-        <v>226.6936962907407</v>
+        <v>226.6936962907404</v>
       </c>
       <c r="X44" t="n">
-        <v>245.9939545234873</v>
+        <v>245.993954523487</v>
       </c>
       <c r="Y44" t="n">
-        <v>257.3905523196861</v>
+        <v>257.3905523196858</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>96.19049711964605</v>
       </c>
       <c r="I45" t="n">
-        <v>57.90206971882206</v>
+        <v>57.90206971882208</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>41.52047263646528</v>
+        <v>41.52047263646529</v>
       </c>
       <c r="S45" t="n">
         <v>145.9864318313356</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>49.50393044730177</v>
+        <v>49.50393044730149</v>
       </c>
       <c r="C46" t="n">
-        <v>35.70392529270225</v>
+        <v>35.70392529270197</v>
       </c>
       <c r="D46" t="n">
-        <v>19.32528969028064</v>
+        <v>19.32528969028036</v>
       </c>
       <c r="E46" t="n">
-        <v>18.27303954606009</v>
+        <v>18.27303954605981</v>
       </c>
       <c r="F46" t="n">
-        <v>18.7399638742464</v>
+        <v>18.73996387424611</v>
       </c>
       <c r="G46" t="n">
-        <v>34.77612438127809</v>
+        <v>34.77612438127781</v>
       </c>
       <c r="H46" t="n">
-        <v>23.44217707645569</v>
+        <v>23.4421770764554</v>
       </c>
       <c r="I46" t="n">
-        <v>3.37151444895221</v>
+        <v>3.371514448951931</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>5.084953639643704</v>
+        <v>5.084953639643429</v>
       </c>
       <c r="S46" t="n">
-        <v>75.19964019426011</v>
+        <v>75.19964019425983</v>
       </c>
       <c r="T46" t="n">
-        <v>97.61205327743836</v>
+        <v>97.61205327743808</v>
       </c>
       <c r="U46" t="n">
-        <v>152.0894411720487</v>
+        <v>152.0894411720484</v>
       </c>
       <c r="V46" t="n">
-        <v>125.9120668469274</v>
+        <v>125.9120668469271</v>
       </c>
       <c r="W46" t="n">
-        <v>151.0789529175406</v>
+        <v>151.0789529175403</v>
       </c>
       <c r="X46" t="n">
-        <v>96.72405491334374</v>
+        <v>96.72405491334345</v>
       </c>
       <c r="Y46" t="n">
-        <v>87.59892266941142</v>
+        <v>87.59892266941114</v>
       </c>
     </row>
   </sheetData>
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>29.92792848229982</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="C8" t="n">
-        <v>29.92792848229982</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="D8" t="n">
-        <v>29.92792848229982</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="E8" t="n">
-        <v>29.92792848229982</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="F8" t="n">
-        <v>19.81714183287421</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="G8" t="n">
-        <v>9.70635518344859</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="H8" t="n">
-        <v>9.70635518344859</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="I8" t="n">
         <v>0.8007743026345088</v>
@@ -4805,49 +4805,49 @@
         <v>10.71035629773655</v>
       </c>
       <c r="K8" t="n">
-        <v>20.21955114152135</v>
+        <v>20.6199382928386</v>
       </c>
       <c r="L8" t="n">
-        <v>20.21955114152135</v>
+        <v>20.6199382928386</v>
       </c>
       <c r="M8" t="n">
-        <v>20.21955114152135</v>
+        <v>20.6199382928386</v>
       </c>
       <c r="N8" t="n">
-        <v>20.21955114152135</v>
+        <v>20.6199382928386</v>
       </c>
       <c r="O8" t="n">
-        <v>20.21955114152135</v>
+        <v>30.52952028794065</v>
       </c>
       <c r="P8" t="n">
-        <v>30.12913313662339</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="Q8" t="n">
         <v>40.03871513172544</v>
       </c>
       <c r="R8" t="n">
-        <v>29.92792848229982</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="S8" t="n">
         <v>29.92792848229982</v>
       </c>
       <c r="T8" t="n">
-        <v>29.92792848229982</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="U8" t="n">
-        <v>29.92792848229982</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="V8" t="n">
-        <v>29.92792848229982</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="W8" t="n">
-        <v>29.92792848229982</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="X8" t="n">
-        <v>29.92792848229982</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="Y8" t="n">
-        <v>29.92792848229982</v>
+        <v>21.02234760148574</v>
       </c>
     </row>
     <row r="9">
@@ -4860,43 +4860,43 @@
         <v>19.81714183287421</v>
       </c>
       <c r="C9" t="n">
-        <v>19.81714183287421</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="D9" t="n">
-        <v>19.81714183287421</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="E9" t="n">
-        <v>19.81714183287421</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="F9" t="n">
-        <v>19.81714183287421</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="G9" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="H9" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="I9" t="n">
         <v>0.8007743026345088</v>
       </c>
       <c r="J9" t="n">
+        <v>0.8007743026345088</v>
+      </c>
+      <c r="K9" t="n">
         <v>10.71035629773655</v>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
+        <v>10.71035629773655</v>
+      </c>
+      <c r="M9" t="n">
+        <v>10.71035629773655</v>
+      </c>
+      <c r="N9" t="n">
         <v>20.6199382928386</v>
       </c>
-      <c r="L9" t="n">
-        <v>30.12913313662339</v>
-      </c>
-      <c r="M9" t="n">
-        <v>30.12913313662339</v>
-      </c>
-      <c r="N9" t="n">
-        <v>30.12913313662339</v>
-      </c>
       <c r="O9" t="n">
-        <v>40.03871513172544</v>
+        <v>30.52952028794065</v>
       </c>
       <c r="P9" t="n">
         <v>40.03871513172544</v>
@@ -4905,22 +4905,22 @@
         <v>40.03871513172544</v>
       </c>
       <c r="R9" t="n">
+        <v>40.03871513172544</v>
+      </c>
+      <c r="S9" t="n">
+        <v>40.03871513172544</v>
+      </c>
+      <c r="T9" t="n">
         <v>29.92792848229982</v>
       </c>
-      <c r="S9" t="n">
-        <v>19.81714183287421</v>
-      </c>
-      <c r="T9" t="n">
-        <v>19.81714183287421</v>
-      </c>
       <c r="U9" t="n">
-        <v>19.81714183287421</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="V9" t="n">
-        <v>19.81714183287421</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="W9" t="n">
-        <v>19.81714183287421</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="X9" t="n">
         <v>19.81714183287421</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="C10" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="D10" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="E10" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="F10" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="G10" t="n">
         <v>0.8007743026345088</v>
@@ -4963,16 +4963,16 @@
         <v>0.8007743026345088</v>
       </c>
       <c r="K10" t="n">
+        <v>0.8007743026345088</v>
+      </c>
+      <c r="L10" t="n">
         <v>10.71035629773655</v>
       </c>
-      <c r="L10" t="n">
-        <v>20.6199382928386</v>
-      </c>
       <c r="M10" t="n">
-        <v>30.12913313662339</v>
+        <v>20.21955114152135</v>
       </c>
       <c r="N10" t="n">
-        <v>30.12913313662339</v>
+        <v>20.21955114152135</v>
       </c>
       <c r="O10" t="n">
         <v>30.12913313662339</v>
@@ -4981,16 +4981,16 @@
         <v>40.03871513172544</v>
       </c>
       <c r="Q10" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="R10" t="n">
-        <v>31.13313425091136</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="S10" t="n">
         <v>21.02234760148574</v>
       </c>
       <c r="T10" t="n">
-        <v>10.91156095206012</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="U10" t="n">
         <v>10.91156095206012</v>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1223.331002673825</v>
+        <v>840.4198283114476</v>
       </c>
       <c r="C11" t="n">
-        <v>945.0749428192596</v>
+        <v>678.689701521799</v>
       </c>
       <c r="D11" t="n">
-        <v>945.0749428192596</v>
+        <v>409.54343556165</v>
       </c>
       <c r="E11" t="n">
-        <v>945.0749428192596</v>
+        <v>409.54343556165</v>
       </c>
       <c r="F11" t="n">
-        <v>634.6014509420575</v>
+        <v>99.06994368444782</v>
       </c>
       <c r="G11" t="n">
-        <v>322.7123237618042</v>
+        <v>99.06994368444782</v>
       </c>
       <c r="H11" t="n">
         <v>99.06994368444782</v>
@@ -5039,13 +5039,13 @@
         <v>50.63932592275207</v>
       </c>
       <c r="J11" t="n">
-        <v>167.3214431483647</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="K11" t="n">
-        <v>474.4309080280418</v>
+        <v>357.7487908024292</v>
       </c>
       <c r="L11" t="n">
-        <v>905.397362586943</v>
+        <v>788.7152453613304</v>
       </c>
       <c r="M11" t="n">
         <v>1210.837057653636</v>
@@ -5078,13 +5078,13 @@
         <v>1957.859498624025</v>
       </c>
       <c r="W11" t="n">
-        <v>1957.859498624025</v>
+        <v>1699.002267294253</v>
       </c>
       <c r="X11" t="n">
-        <v>1803.560999990751</v>
+        <v>1420.649825628374</v>
       </c>
       <c r="Y11" t="n">
-        <v>1513.696843379216</v>
+        <v>1130.785669016839</v>
       </c>
     </row>
     <row r="12">
@@ -5097,16 +5097,16 @@
         <v>916.993594840569</v>
       </c>
       <c r="C12" t="n">
-        <v>755.2899220815237</v>
+        <v>755.2899220815239</v>
       </c>
       <c r="D12" t="n">
-        <v>616.4512850717358</v>
+        <v>616.451285071736</v>
       </c>
       <c r="E12" t="n">
-        <v>469.4232751286071</v>
+        <v>469.4232751286072</v>
       </c>
       <c r="F12" t="n">
-        <v>334.7294770784815</v>
+        <v>334.7294770784816</v>
       </c>
       <c r="G12" t="n">
         <v>206.2883833353462</v>
@@ -5121,22 +5121,22 @@
         <v>137.5067023934301</v>
       </c>
       <c r="K12" t="n">
-        <v>412.4835038098271</v>
+        <v>311.0993713378281</v>
       </c>
       <c r="L12" t="n">
-        <v>839.4672239188729</v>
+        <v>738.0830914468741</v>
       </c>
       <c r="M12" t="n">
-        <v>1395.87360066356</v>
+        <v>1294.489468191562</v>
       </c>
       <c r="N12" t="n">
-        <v>1980.401301569101</v>
+        <v>1879.017169097102</v>
       </c>
       <c r="O12" t="n">
-        <v>1982.351834253086</v>
+        <v>2338.237587102991</v>
       </c>
       <c r="P12" t="n">
-        <v>2338.23758710299</v>
+        <v>2338.237587102991</v>
       </c>
       <c r="Q12" t="n">
         <v>2531.966296137603</v>
@@ -5145,19 +5145,19 @@
         <v>2490.026424787638</v>
       </c>
       <c r="S12" t="n">
-        <v>2342.565382533763</v>
+        <v>2342.565382533764</v>
       </c>
       <c r="T12" t="n">
-        <v>2155.038727509661</v>
+        <v>2155.038727509662</v>
       </c>
       <c r="U12" t="n">
-        <v>1936.562843412812</v>
+        <v>1936.562843412813</v>
       </c>
       <c r="V12" t="n">
-        <v>1708.167220861146</v>
+        <v>1708.167220861147</v>
       </c>
       <c r="W12" t="n">
-        <v>1466.851352094456</v>
+        <v>1466.851352094457</v>
       </c>
       <c r="X12" t="n">
         <v>1268.934363972251</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>414.93909702387</v>
+        <v>414.9390970238697</v>
       </c>
       <c r="C13" t="n">
-        <v>349.0008262981778</v>
+        <v>349.0008262981775</v>
       </c>
       <c r="D13" t="n">
-        <v>299.6066319385679</v>
+        <v>299.6066319385678</v>
       </c>
       <c r="E13" t="n">
-        <v>251.2753165125143</v>
+        <v>251.2753165125141</v>
       </c>
       <c r="F13" t="n">
-        <v>202.4723603509188</v>
+        <v>202.4723603509187</v>
       </c>
       <c r="G13" t="n">
-        <v>137.4712622630288</v>
+        <v>137.4712622630286</v>
       </c>
       <c r="H13" t="n">
-        <v>83.91859579617147</v>
+        <v>83.91859579617133</v>
       </c>
       <c r="I13" t="n">
         <v>50.63932592275207</v>
       </c>
       <c r="J13" t="n">
-        <v>110.0880241976687</v>
+        <v>110.0880241976684</v>
       </c>
       <c r="K13" t="n">
-        <v>272.7438500392109</v>
+        <v>272.7438500392105</v>
       </c>
       <c r="L13" t="n">
-        <v>510.0755164020621</v>
+        <v>510.0755164020619</v>
       </c>
       <c r="M13" t="n">
         <v>766.7021857489991</v>
@@ -5218,13 +5218,13 @@
         <v>1449.480405090492</v>
       </c>
       <c r="Q13" t="n">
-        <v>1533.099380467822</v>
+        <v>1533.099380467823</v>
       </c>
       <c r="R13" t="n">
         <v>1498.089363937139</v>
       </c>
       <c r="S13" t="n">
-        <v>1392.256431694721</v>
+        <v>1392.256431694722</v>
       </c>
       <c r="T13" t="n">
         <v>1263.784698358185</v>
@@ -5233,16 +5233,16 @@
         <v>1080.285300481638</v>
       </c>
       <c r="V13" t="n">
-        <v>923.227694852688</v>
+        <v>923.2276948526876</v>
       </c>
       <c r="W13" t="n">
-        <v>740.7489921827146</v>
+        <v>740.7489921827142</v>
       </c>
       <c r="X13" t="n">
-        <v>613.1742268907178</v>
+        <v>613.1742268907175</v>
       </c>
       <c r="Y13" t="n">
-        <v>494.8167668956224</v>
+        <v>494.816766895622</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>843.6457869359393</v>
+        <v>1408.636426588859</v>
       </c>
       <c r="C14" t="n">
-        <v>565.3897270813741</v>
+        <v>1408.636426588859</v>
       </c>
       <c r="D14" t="n">
-        <v>565.3897270813741</v>
+        <v>1187.75234613883</v>
       </c>
       <c r="E14" t="n">
-        <v>274.2817060001084</v>
+        <v>896.6443250575639</v>
       </c>
       <c r="F14" t="n">
-        <v>274.2817060001084</v>
+        <v>586.1708331803618</v>
       </c>
       <c r="G14" t="n">
         <v>274.2817060001084</v>
       </c>
       <c r="H14" t="n">
-        <v>50.63932592275206</v>
+        <v>50.63932592275201</v>
       </c>
       <c r="I14" t="n">
-        <v>50.63932592275206</v>
+        <v>50.63932592275201</v>
       </c>
       <c r="J14" t="n">
-        <v>50.63932592275206</v>
+        <v>167.3214431483646</v>
       </c>
       <c r="K14" t="n">
-        <v>357.7487908024293</v>
+        <v>474.4309080280418</v>
       </c>
       <c r="L14" t="n">
-        <v>788.7152453613305</v>
+        <v>905.397362586943</v>
       </c>
       <c r="M14" t="n">
-        <v>1274.398122764799</v>
+        <v>1391.080239990411</v>
       </c>
       <c r="N14" t="n">
-        <v>1746.669028496232</v>
+        <v>1863.351145721844</v>
       </c>
       <c r="O14" t="n">
-        <v>2140.378063430514</v>
+        <v>2257.060180656125</v>
       </c>
       <c r="P14" t="n">
-        <v>2380.681090994256</v>
+        <v>2380.681090994254</v>
       </c>
       <c r="Q14" t="n">
-        <v>2531.966296137603</v>
+        <v>2531.966296137601</v>
       </c>
       <c r="R14" t="n">
-        <v>2531.966296137603</v>
+        <v>2531.966296137601</v>
       </c>
       <c r="S14" t="n">
-        <v>2460.655565680504</v>
+        <v>2460.655565680503</v>
       </c>
       <c r="T14" t="n">
-        <v>2342.3257385446</v>
+        <v>2342.325738544598</v>
       </c>
       <c r="U14" t="n">
-        <v>2194.387032539947</v>
+        <v>2191.161073915453</v>
       </c>
       <c r="V14" t="n">
-        <v>1961.085457248516</v>
+        <v>1957.859498624022</v>
       </c>
       <c r="W14" t="n">
-        <v>1702.228225918745</v>
+        <v>1699.002267294251</v>
       </c>
       <c r="X14" t="n">
-        <v>1423.875784252866</v>
+        <v>1699.002267294251</v>
       </c>
       <c r="Y14" t="n">
-        <v>1134.011627641331</v>
+        <v>1699.002267294251</v>
       </c>
     </row>
     <row r="15">
@@ -5352,19 +5352,19 @@
         <v>109.1262650326733</v>
       </c>
       <c r="I15" t="n">
-        <v>50.63932592275206</v>
+        <v>50.63932592275201</v>
       </c>
       <c r="J15" t="n">
-        <v>50.63932592275206</v>
+        <v>50.63932592275201</v>
       </c>
       <c r="K15" t="n">
-        <v>325.6161273391491</v>
+        <v>325.616127339149</v>
       </c>
       <c r="L15" t="n">
-        <v>752.5998474481951</v>
+        <v>752.599847448195</v>
       </c>
       <c r="M15" t="n">
-        <v>1309.006224192883</v>
+        <v>938.603715341656</v>
       </c>
       <c r="N15" t="n">
         <v>1523.131416247197</v>
@@ -5413,43 +5413,43 @@
         <v>414.93909702387</v>
       </c>
       <c r="C16" t="n">
-        <v>349.0008262981778</v>
+        <v>349.0008262981777</v>
       </c>
       <c r="D16" t="n">
-        <v>299.606631938568</v>
+        <v>299.6066319385679</v>
       </c>
       <c r="E16" t="n">
         <v>251.2753165125143</v>
       </c>
       <c r="F16" t="n">
-        <v>202.4723603509189</v>
+        <v>202.4723603509188</v>
       </c>
       <c r="G16" t="n">
         <v>137.4712622630288</v>
       </c>
       <c r="H16" t="n">
-        <v>83.9185957961715</v>
+        <v>83.91859579617147</v>
       </c>
       <c r="I16" t="n">
-        <v>50.63932592275206</v>
+        <v>50.63932592275201</v>
       </c>
       <c r="J16" t="n">
         <v>110.0880241976686</v>
       </c>
       <c r="K16" t="n">
-        <v>272.7438500392109</v>
+        <v>272.7438500392108</v>
       </c>
       <c r="L16" t="n">
-        <v>510.0755164020622</v>
+        <v>510.0755164020621</v>
       </c>
       <c r="M16" t="n">
-        <v>766.7021857489992</v>
+        <v>766.702185748999</v>
       </c>
       <c r="N16" t="n">
         <v>1022.877469947108</v>
       </c>
       <c r="O16" t="n">
-        <v>1256.335318182741</v>
+        <v>1256.33531818274</v>
       </c>
       <c r="P16" t="n">
         <v>1449.480405090492</v>
@@ -5473,13 +5473,13 @@
         <v>923.227694852688</v>
       </c>
       <c r="W16" t="n">
-        <v>740.7489921827147</v>
+        <v>740.7489921827146</v>
       </c>
       <c r="X16" t="n">
         <v>613.1742268907178</v>
       </c>
       <c r="Y16" t="n">
-        <v>494.8167668956224</v>
+        <v>494.8167668956223</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1351.696881821217</v>
+        <v>1351.696881821215</v>
       </c>
       <c r="C17" t="n">
-        <v>1137.350453655373</v>
+        <v>1137.350453655371</v>
       </c>
       <c r="D17" t="n">
-        <v>932.1138193839455</v>
+        <v>932.113819383944</v>
       </c>
       <c r="E17" t="n">
-        <v>704.9154299914011</v>
+        <v>704.9154299913996</v>
       </c>
       <c r="F17" t="n">
-        <v>458.35156980292</v>
+        <v>458.3515698029189</v>
       </c>
       <c r="G17" t="n">
-        <v>210.3720743113872</v>
+        <v>210.3720743113871</v>
       </c>
       <c r="H17" t="n">
-        <v>50.63932592275206</v>
+        <v>50.63932592275201</v>
       </c>
       <c r="I17" t="n">
-        <v>50.63932592275206</v>
+        <v>50.63932592275201</v>
       </c>
       <c r="J17" t="n">
-        <v>50.63932592275206</v>
+        <v>167.3214431483646</v>
       </c>
       <c r="K17" t="n">
-        <v>357.7487908024292</v>
+        <v>474.4309080280418</v>
       </c>
       <c r="L17" t="n">
-        <v>788.7152453613304</v>
+        <v>905.397362586943</v>
       </c>
       <c r="M17" t="n">
-        <v>1274.398122764798</v>
+        <v>1391.080239990411</v>
       </c>
       <c r="N17" t="n">
-        <v>1746.669028496231</v>
+        <v>1683.107963385067</v>
       </c>
       <c r="O17" t="n">
-        <v>2140.378063430513</v>
+        <v>2076.816998319348</v>
       </c>
       <c r="P17" t="n">
-        <v>2380.681090994256</v>
+        <v>2380.681090994254</v>
       </c>
       <c r="Q17" t="n">
-        <v>2531.966296137603</v>
+        <v>2531.966296137601</v>
       </c>
       <c r="R17" t="n">
-        <v>2531.966296137603</v>
+        <v>2531.966296137601</v>
       </c>
       <c r="S17" t="n">
-        <v>2524.565197369226</v>
+        <v>2524.565197369223</v>
       </c>
       <c r="T17" t="n">
-        <v>2470.145001922043</v>
+        <v>2470.14500192204</v>
       </c>
       <c r="U17" t="n">
-        <v>2382.889968981619</v>
+        <v>2382.889968981617</v>
       </c>
       <c r="V17" t="n">
-        <v>2213.498025378909</v>
+        <v>2213.498025378907</v>
       </c>
       <c r="W17" t="n">
-        <v>2018.550425737859</v>
+        <v>2018.550425737857</v>
       </c>
       <c r="X17" t="n">
-        <v>1804.107615760701</v>
+        <v>1804.107615760699</v>
       </c>
       <c r="Y17" t="n">
-        <v>1578.153090837888</v>
+        <v>1578.153090837886</v>
       </c>
     </row>
     <row r="18">
@@ -5580,16 +5580,16 @@
         <v>469.4232751286071</v>
       </c>
       <c r="F18" t="n">
-        <v>334.7294770784815</v>
+        <v>334.7294770784814</v>
       </c>
       <c r="G18" t="n">
-        <v>206.2883833353462</v>
+        <v>206.2883833353461</v>
       </c>
       <c r="H18" t="n">
-        <v>109.1262650326734</v>
+        <v>109.1262650326733</v>
       </c>
       <c r="I18" t="n">
-        <v>50.63932592275206</v>
+        <v>50.63932592275201</v>
       </c>
       <c r="J18" t="n">
         <v>137.5067023934301</v>
@@ -5601,7 +5601,7 @@
         <v>839.4672239188731</v>
       </c>
       <c r="M18" t="n">
-        <v>938.603715341656</v>
+        <v>1395.873600663561</v>
       </c>
       <c r="N18" t="n">
         <v>1523.131416247197</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>208.4714177745389</v>
+        <v>53.75943135889165</v>
       </c>
       <c r="C19" t="n">
-        <v>206.4427787375679</v>
+        <v>51.73079232192074</v>
       </c>
       <c r="D19" t="n">
-        <v>206.4427787375679</v>
+        <v>51.73079232192074</v>
       </c>
       <c r="E19" t="n">
-        <v>206.4427787375679</v>
+        <v>51.73079232192074</v>
       </c>
       <c r="F19" t="n">
-        <v>206.4427787375679</v>
+        <v>51.73079232192074</v>
       </c>
       <c r="G19" t="n">
-        <v>50.63932592275206</v>
+        <v>50.63932592275201</v>
       </c>
       <c r="H19" t="n">
-        <v>50.63932592275206</v>
+        <v>50.63932592275201</v>
       </c>
       <c r="I19" t="n">
-        <v>50.63932592275206</v>
+        <v>50.63932592275201</v>
       </c>
       <c r="J19" t="n">
-        <v>50.63932592275206</v>
+        <v>50.63932592275201</v>
       </c>
       <c r="K19" t="n">
-        <v>111.6806391580381</v>
+        <v>111.680639158038</v>
       </c>
       <c r="L19" t="n">
         <v>247.3977929146332</v>
       </c>
       <c r="M19" t="n">
-        <v>402.409949655314</v>
+        <v>402.4099496553139</v>
       </c>
       <c r="N19" t="n">
-        <v>556.9707212471669</v>
+        <v>556.9707212471668</v>
       </c>
       <c r="O19" t="n">
-        <v>688.814056876543</v>
+        <v>688.8140568765428</v>
       </c>
       <c r="P19" t="n">
-        <v>780.3446311780383</v>
+        <v>780.3446311780382</v>
       </c>
       <c r="Q19" t="n">
-        <v>780.3446311780383</v>
+        <v>780.3446311780382</v>
       </c>
       <c r="R19" t="n">
-        <v>780.3446311780383</v>
+        <v>780.3446311780382</v>
       </c>
       <c r="S19" t="n">
-        <v>738.4213306243422</v>
+        <v>583.7093442086942</v>
       </c>
       <c r="T19" t="n">
-        <v>673.8592289765267</v>
+        <v>519.1472425608788</v>
       </c>
       <c r="U19" t="n">
-        <v>554.2694627887006</v>
+        <v>399.5574763730529</v>
       </c>
       <c r="V19" t="n">
-        <v>461.1214888484719</v>
+        <v>306.4095024328243</v>
       </c>
       <c r="W19" t="n">
-        <v>342.5524178672197</v>
+        <v>187.8404314515722</v>
       </c>
       <c r="X19" t="n">
-        <v>278.8872842639442</v>
+        <v>124.1752978482968</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.43945595757</v>
+        <v>69.72746954192267</v>
       </c>
     </row>
     <row r="20">
@@ -5726,31 +5726,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1351.696881821217</v>
+        <v>1351.696881821216</v>
       </c>
       <c r="C20" t="n">
-        <v>1137.350453655373</v>
+        <v>1137.350453655372</v>
       </c>
       <c r="D20" t="n">
-        <v>932.1138193839456</v>
+        <v>932.1138193839442</v>
       </c>
       <c r="E20" t="n">
-        <v>704.9154299914012</v>
+        <v>704.9154299914001</v>
       </c>
       <c r="F20" t="n">
-        <v>458.3515698029203</v>
+        <v>458.3515698029195</v>
       </c>
       <c r="G20" t="n">
-        <v>210.3720743113872</v>
+        <v>210.3720743113871</v>
       </c>
       <c r="H20" t="n">
-        <v>50.63932592275206</v>
+        <v>50.63932592275201</v>
       </c>
       <c r="I20" t="n">
-        <v>50.63932592275206</v>
+        <v>50.63932592275201</v>
       </c>
       <c r="J20" t="n">
-        <v>167.3214431483647</v>
+        <v>167.3214431483646</v>
       </c>
       <c r="K20" t="n">
         <v>474.4309080280418</v>
@@ -5759,43 +5759,43 @@
         <v>905.397362586943</v>
       </c>
       <c r="M20" t="n">
-        <v>1210.837057653636</v>
+        <v>1210.837057653634</v>
       </c>
       <c r="N20" t="n">
-        <v>1683.107963385069</v>
+        <v>1683.107963385067</v>
       </c>
       <c r="O20" t="n">
-        <v>2076.81699831935</v>
+        <v>2076.816998319348</v>
       </c>
       <c r="P20" t="n">
-        <v>2380.681090994256</v>
+        <v>2380.681090994254</v>
       </c>
       <c r="Q20" t="n">
-        <v>2531.966296137603</v>
+        <v>2531.966296137601</v>
       </c>
       <c r="R20" t="n">
-        <v>2531.966296137603</v>
+        <v>2531.966296137601</v>
       </c>
       <c r="S20" t="n">
-        <v>2524.565197369225</v>
+        <v>2524.565197369223</v>
       </c>
       <c r="T20" t="n">
-        <v>2470.145001922042</v>
+        <v>2470.14500192204</v>
       </c>
       <c r="U20" t="n">
-        <v>2382.889968981619</v>
+        <v>2382.889968981617</v>
       </c>
       <c r="V20" t="n">
-        <v>2213.498025378909</v>
+        <v>2213.498025378907</v>
       </c>
       <c r="W20" t="n">
-        <v>2018.550425737859</v>
+        <v>2018.550425737857</v>
       </c>
       <c r="X20" t="n">
-        <v>1804.107615760701</v>
+        <v>1804.107615760699</v>
       </c>
       <c r="Y20" t="n">
-        <v>1578.153090837888</v>
+        <v>1578.153090837886</v>
       </c>
     </row>
     <row r="21">
@@ -5817,16 +5817,16 @@
         <v>469.4232751286071</v>
       </c>
       <c r="F21" t="n">
-        <v>334.7294770784815</v>
+        <v>334.7294770784814</v>
       </c>
       <c r="G21" t="n">
-        <v>206.2883833353462</v>
+        <v>206.2883833353461</v>
       </c>
       <c r="H21" t="n">
-        <v>109.1262650326734</v>
+        <v>109.1262650326733</v>
       </c>
       <c r="I21" t="n">
-        <v>50.63932592275206</v>
+        <v>50.63932592275201</v>
       </c>
       <c r="J21" t="n">
         <v>137.5067023934301</v>
@@ -5838,16 +5838,16 @@
         <v>839.4672239188731</v>
       </c>
       <c r="M21" t="n">
-        <v>1395.873600663561</v>
+        <v>938.603715341656</v>
       </c>
       <c r="N21" t="n">
-        <v>1716.860125281809</v>
+        <v>1523.131416247197</v>
       </c>
       <c r="O21" t="n">
-        <v>2176.080543287698</v>
+        <v>1982.351834253086</v>
       </c>
       <c r="P21" t="n">
-        <v>2531.966296137603</v>
+        <v>2338.23758710299</v>
       </c>
       <c r="Q21" t="n">
         <v>2531.966296137603</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>208.4714177745389</v>
+        <v>53.75943135889165</v>
       </c>
       <c r="C22" t="n">
-        <v>206.4427787375679</v>
+        <v>51.73079232192074</v>
       </c>
       <c r="D22" t="n">
-        <v>206.4427787375679</v>
+        <v>51.73079232192074</v>
       </c>
       <c r="E22" t="n">
-        <v>206.4427787375679</v>
+        <v>51.73079232192074</v>
       </c>
       <c r="F22" t="n">
-        <v>206.4427787375679</v>
+        <v>51.73079232192074</v>
       </c>
       <c r="G22" t="n">
-        <v>50.63932592275206</v>
+        <v>50.63932592275201</v>
       </c>
       <c r="H22" t="n">
-        <v>50.63932592275206</v>
+        <v>50.63932592275201</v>
       </c>
       <c r="I22" t="n">
-        <v>50.63932592275206</v>
+        <v>50.63932592275201</v>
       </c>
       <c r="J22" t="n">
-        <v>50.63932592275206</v>
+        <v>50.63932592275201</v>
       </c>
       <c r="K22" t="n">
-        <v>111.6806391580381</v>
+        <v>111.680639158038</v>
       </c>
       <c r="L22" t="n">
         <v>247.3977929146332</v>
       </c>
       <c r="M22" t="n">
-        <v>402.409949655314</v>
+        <v>402.4099496553139</v>
       </c>
       <c r="N22" t="n">
-        <v>556.9707212471669</v>
+        <v>556.9707212471668</v>
       </c>
       <c r="O22" t="n">
-        <v>688.814056876543</v>
+        <v>688.8140568765428</v>
       </c>
       <c r="P22" t="n">
-        <v>780.3446311780383</v>
+        <v>780.3446311780382</v>
       </c>
       <c r="Q22" t="n">
-        <v>780.3446311780383</v>
+        <v>780.3446311780382</v>
       </c>
       <c r="R22" t="n">
-        <v>780.3446311780383</v>
+        <v>780.3446311780382</v>
       </c>
       <c r="S22" t="n">
-        <v>738.4213306243422</v>
+        <v>583.7093442086942</v>
       </c>
       <c r="T22" t="n">
-        <v>673.8592289765267</v>
+        <v>519.1472425608788</v>
       </c>
       <c r="U22" t="n">
-        <v>554.2694627887006</v>
+        <v>399.5574763730529</v>
       </c>
       <c r="V22" t="n">
-        <v>461.1214888484719</v>
+        <v>306.4095024328243</v>
       </c>
       <c r="W22" t="n">
-        <v>342.5524178672197</v>
+        <v>187.8404314515722</v>
       </c>
       <c r="X22" t="n">
-        <v>278.8872842639442</v>
+        <v>124.1752978482968</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.43945595757</v>
+        <v>69.72746954192267</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1351.696881821217</v>
+        <v>1351.696881821216</v>
       </c>
       <c r="C23" t="n">
-        <v>1137.350453655373</v>
+        <v>1137.350453655372</v>
       </c>
       <c r="D23" t="n">
-        <v>932.1138193839452</v>
+        <v>932.1138193839446</v>
       </c>
       <c r="E23" t="n">
-        <v>704.9154299914007</v>
+        <v>704.9154299914003</v>
       </c>
       <c r="F23" t="n">
-        <v>458.3515698029197</v>
+        <v>458.3515698029195</v>
       </c>
       <c r="G23" t="n">
-        <v>210.3720743113873</v>
+        <v>210.3720743113871</v>
       </c>
       <c r="H23" t="n">
-        <v>50.63932592275207</v>
+        <v>50.63932592275201</v>
       </c>
       <c r="I23" t="n">
-        <v>50.63932592275207</v>
+        <v>50.63932592275201</v>
       </c>
       <c r="J23" t="n">
-        <v>50.63932592275207</v>
+        <v>167.3214431483646</v>
       </c>
       <c r="K23" t="n">
-        <v>294.1877256912671</v>
+        <v>474.4309080280418</v>
       </c>
       <c r="L23" t="n">
-        <v>725.1541802501683</v>
+        <v>905.397362586943</v>
       </c>
       <c r="M23" t="n">
-        <v>1210.837057653636</v>
+        <v>1391.080239990411</v>
       </c>
       <c r="N23" t="n">
-        <v>1683.10796338507</v>
+        <v>1683.107963385067</v>
       </c>
       <c r="O23" t="n">
-        <v>2076.816998319351</v>
+        <v>2076.816998319348</v>
       </c>
       <c r="P23" t="n">
-        <v>2380.681090994256</v>
+        <v>2380.681090994254</v>
       </c>
       <c r="Q23" t="n">
-        <v>2531.966296137603</v>
+        <v>2531.966296137601</v>
       </c>
       <c r="R23" t="n">
-        <v>2531.966296137603</v>
+        <v>2531.966296137601</v>
       </c>
       <c r="S23" t="n">
-        <v>2524.565197369226</v>
+        <v>2524.565197369223</v>
       </c>
       <c r="T23" t="n">
-        <v>2470.145001922042</v>
+        <v>2470.14500192204</v>
       </c>
       <c r="U23" t="n">
-        <v>2382.889968981619</v>
+        <v>2382.889968981618</v>
       </c>
       <c r="V23" t="n">
-        <v>2213.498025378909</v>
+        <v>2213.498025378908</v>
       </c>
       <c r="W23" t="n">
-        <v>2018.550425737859</v>
+        <v>2018.550425737857</v>
       </c>
       <c r="X23" t="n">
-        <v>1804.107615760701</v>
+        <v>1804.1076157607</v>
       </c>
       <c r="Y23" t="n">
-        <v>1578.153090837887</v>
+        <v>1578.153090837886</v>
       </c>
     </row>
     <row r="24">
@@ -6045,31 +6045,31 @@
         <v>916.993594840569</v>
       </c>
       <c r="C24" t="n">
-        <v>755.2899220815239</v>
+        <v>755.2899220815237</v>
       </c>
       <c r="D24" t="n">
-        <v>616.451285071736</v>
+        <v>616.4512850717358</v>
       </c>
       <c r="E24" t="n">
-        <v>469.4232751286072</v>
+        <v>469.4232751286071</v>
       </c>
       <c r="F24" t="n">
-        <v>334.7294770784816</v>
+        <v>334.7294770784814</v>
       </c>
       <c r="G24" t="n">
-        <v>206.2883833353464</v>
+        <v>206.2883833353461</v>
       </c>
       <c r="H24" t="n">
-        <v>109.1262650326734</v>
+        <v>109.1262650326733</v>
       </c>
       <c r="I24" t="n">
-        <v>50.63932592275207</v>
+        <v>50.63932592275201</v>
       </c>
       <c r="J24" t="n">
         <v>137.5067023934301</v>
       </c>
       <c r="K24" t="n">
-        <v>412.4835038098272</v>
+        <v>412.4835038098271</v>
       </c>
       <c r="L24" t="n">
         <v>839.4672239188731</v>
@@ -6081,10 +6081,10 @@
         <v>1523.131416247197</v>
       </c>
       <c r="O24" t="n">
-        <v>1982.351834253087</v>
+        <v>1982.351834253086</v>
       </c>
       <c r="P24" t="n">
-        <v>2338.237587102991</v>
+        <v>2338.23758710299</v>
       </c>
       <c r="Q24" t="n">
         <v>2531.966296137603</v>
@@ -6093,19 +6093,19 @@
         <v>2490.026424787638</v>
       </c>
       <c r="S24" t="n">
-        <v>2342.565382533764</v>
+        <v>2342.565382533763</v>
       </c>
       <c r="T24" t="n">
-        <v>2155.038727509662</v>
+        <v>2155.038727509661</v>
       </c>
       <c r="U24" t="n">
-        <v>1936.562843412813</v>
+        <v>1936.562843412812</v>
       </c>
       <c r="V24" t="n">
-        <v>1708.167220861147</v>
+        <v>1708.167220861146</v>
       </c>
       <c r="W24" t="n">
-        <v>1466.851352094457</v>
+        <v>1466.851352094456</v>
       </c>
       <c r="X24" t="n">
         <v>1268.934363972251</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.75943135889193</v>
+        <v>53.75943135889165</v>
       </c>
       <c r="C25" t="n">
-        <v>51.73079232192091</v>
+        <v>51.73079232192074</v>
       </c>
       <c r="D25" t="n">
-        <v>51.73079232192091</v>
+        <v>51.73079232192074</v>
       </c>
       <c r="E25" t="n">
-        <v>51.73079232192091</v>
+        <v>51.73079232192074</v>
       </c>
       <c r="F25" t="n">
-        <v>51.73079232192091</v>
+        <v>51.73079232192074</v>
       </c>
       <c r="G25" t="n">
-        <v>50.63932592275207</v>
+        <v>50.63932592275201</v>
       </c>
       <c r="H25" t="n">
-        <v>50.63932592275207</v>
+        <v>50.63932592275201</v>
       </c>
       <c r="I25" t="n">
-        <v>50.63932592275207</v>
+        <v>50.63932592275201</v>
       </c>
       <c r="J25" t="n">
-        <v>50.63932592275207</v>
+        <v>50.63932592275201</v>
       </c>
       <c r="K25" t="n">
-        <v>111.6806391580381</v>
+        <v>111.680639158038</v>
       </c>
       <c r="L25" t="n">
         <v>247.3977929146332</v>
       </c>
       <c r="M25" t="n">
-        <v>402.409949655314</v>
+        <v>402.4099496553139</v>
       </c>
       <c r="N25" t="n">
-        <v>556.9707212471669</v>
+        <v>556.9707212471668</v>
       </c>
       <c r="O25" t="n">
-        <v>688.814056876543</v>
+        <v>688.8140568765428</v>
       </c>
       <c r="P25" t="n">
-        <v>780.3446311780383</v>
+        <v>780.3446311780382</v>
       </c>
       <c r="Q25" t="n">
-        <v>780.3446311780383</v>
+        <v>780.3446311780382</v>
       </c>
       <c r="R25" t="n">
-        <v>780.3446311780383</v>
+        <v>780.3446311780382</v>
       </c>
       <c r="S25" t="n">
         <v>738.4213306243422</v>
       </c>
       <c r="T25" t="n">
-        <v>519.1472425608798</v>
+        <v>673.8592289765268</v>
       </c>
       <c r="U25" t="n">
-        <v>399.5574763730538</v>
+        <v>554.2694627887008</v>
       </c>
       <c r="V25" t="n">
-        <v>306.4095024328251</v>
+        <v>461.1214888484722</v>
       </c>
       <c r="W25" t="n">
-        <v>187.8404314515729</v>
+        <v>187.8404314515722</v>
       </c>
       <c r="X25" t="n">
-        <v>124.1752978482973</v>
+        <v>124.1752978482968</v>
       </c>
       <c r="Y25" t="n">
-        <v>69.72746954192307</v>
+        <v>69.72746954192267</v>
       </c>
     </row>
     <row r="26">
@@ -6209,52 +6209,52 @@
         <v>1255.431238623052</v>
       </c>
       <c r="E26" t="n">
-        <v>964.323217541786</v>
+        <v>964.3232175417864</v>
       </c>
       <c r="F26" t="n">
-        <v>653.8497256645837</v>
+        <v>653.8497256645843</v>
       </c>
       <c r="G26" t="n">
-        <v>341.9605984843306</v>
+        <v>341.9605984843309</v>
       </c>
       <c r="H26" t="n">
         <v>118.3182184069741</v>
       </c>
       <c r="I26" t="n">
-        <v>69.88760064527843</v>
+        <v>69.88760064527844</v>
       </c>
       <c r="J26" t="n">
-        <v>288.1842304771473</v>
+        <v>192.3395430980096</v>
       </c>
       <c r="K26" t="n">
-        <v>696.9082079630807</v>
+        <v>601.063520583943</v>
       </c>
       <c r="L26" t="n">
-        <v>1133.6444877491</v>
+        <v>1133.644487749101</v>
       </c>
       <c r="M26" t="n">
-        <v>1720.941877758824</v>
+        <v>1720.941877758825</v>
       </c>
       <c r="N26" t="n">
-        <v>2294.827296096514</v>
+        <v>2294.827296096515</v>
       </c>
       <c r="O26" t="n">
-        <v>2790.150843637051</v>
+        <v>2790.150843637052</v>
       </c>
       <c r="P26" t="n">
-        <v>3195.629448918213</v>
+        <v>3195.629448918214</v>
       </c>
       <c r="Q26" t="n">
         <v>3448.529166667817</v>
       </c>
       <c r="R26" t="n">
-        <v>3494.380032263921</v>
+        <v>3494.380032263922</v>
       </c>
       <c r="S26" t="n">
-        <v>3423.069301806823</v>
+        <v>3423.069301806824</v>
       </c>
       <c r="T26" t="n">
-        <v>3304.739474670918</v>
+        <v>3304.739474670919</v>
       </c>
       <c r="U26" t="n">
         <v>3153.574810041774</v>
@@ -6300,19 +6300,19 @@
         <v>128.3745397551997</v>
       </c>
       <c r="I27" t="n">
-        <v>69.88760064527843</v>
+        <v>69.88760064527844</v>
       </c>
       <c r="J27" t="n">
         <v>156.7549771159565</v>
       </c>
       <c r="K27" t="n">
-        <v>431.7317785323535</v>
+        <v>431.7317785323536</v>
       </c>
       <c r="L27" t="n">
-        <v>858.7154986413994</v>
+        <v>858.7154986413996</v>
       </c>
       <c r="M27" t="n">
-        <v>957.8519900641826</v>
+        <v>1415.121875386087</v>
       </c>
       <c r="N27" t="n">
         <v>1542.379690969723</v>
@@ -6358,58 +6358,58 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>434.1873717463965</v>
+        <v>434.1873717463958</v>
       </c>
       <c r="C28" t="n">
-        <v>368.2491010207043</v>
+        <v>368.2491010207036</v>
       </c>
       <c r="D28" t="n">
-        <v>318.8549066610946</v>
+        <v>318.8549066610939</v>
       </c>
       <c r="E28" t="n">
-        <v>270.5235912350409</v>
+        <v>270.5235912350402</v>
       </c>
       <c r="F28" t="n">
-        <v>221.7206350734455</v>
+        <v>221.7206350734448</v>
       </c>
       <c r="G28" t="n">
-        <v>156.7195369855555</v>
+        <v>156.7195369855548</v>
       </c>
       <c r="H28" t="n">
-        <v>103.1668705186983</v>
+        <v>103.1668705186975</v>
       </c>
       <c r="I28" t="n">
-        <v>69.88760064527843</v>
+        <v>69.88760064527844</v>
       </c>
       <c r="J28" t="n">
         <v>129.336298920195</v>
       </c>
       <c r="K28" t="n">
-        <v>291.9921247617373</v>
+        <v>291.9921247617367</v>
       </c>
       <c r="L28" t="n">
-        <v>529.3237911245886</v>
+        <v>529.3237911245881</v>
       </c>
       <c r="M28" t="n">
-        <v>785.9504604715256</v>
+        <v>785.950460471525</v>
       </c>
       <c r="N28" t="n">
-        <v>1042.125744669635</v>
+        <v>1042.125744669634</v>
       </c>
       <c r="O28" t="n">
-        <v>1275.583592905267</v>
+        <v>1275.583592905266</v>
       </c>
       <c r="P28" t="n">
-        <v>1468.728679813019</v>
+        <v>1468.728679813018</v>
       </c>
       <c r="Q28" t="n">
-        <v>1552.347655190349</v>
+        <v>1552.347655190348</v>
       </c>
       <c r="R28" t="n">
-        <v>1517.337638659666</v>
+        <v>1517.337638659665</v>
       </c>
       <c r="S28" t="n">
-        <v>1411.504706417248</v>
+        <v>1411.504706417247</v>
       </c>
       <c r="T28" t="n">
         <v>1283.032973080711</v>
@@ -6418,16 +6418,16 @@
         <v>1099.533575204164</v>
       </c>
       <c r="V28" t="n">
-        <v>942.4759695752143</v>
+        <v>942.4759695752136</v>
       </c>
       <c r="W28" t="n">
-        <v>759.997266905241</v>
+        <v>759.9972669052403</v>
       </c>
       <c r="X28" t="n">
-        <v>632.4225016132442</v>
+        <v>632.4225016132435</v>
       </c>
       <c r="Y28" t="n">
-        <v>514.0650416181488</v>
+        <v>514.0650416181481</v>
       </c>
     </row>
     <row r="29">
@@ -6446,13 +6446,13 @@
         <v>1255.431238623052</v>
       </c>
       <c r="E29" t="n">
-        <v>964.3232175417861</v>
+        <v>964.3232175417864</v>
       </c>
       <c r="F29" t="n">
-        <v>653.849725664584</v>
+        <v>653.8497256645842</v>
       </c>
       <c r="G29" t="n">
-        <v>341.9605984843306</v>
+        <v>341.9605984843311</v>
       </c>
       <c r="H29" t="n">
         <v>118.3182184069741</v>
@@ -6464,22 +6464,22 @@
         <v>288.1842304771473</v>
       </c>
       <c r="K29" t="n">
-        <v>696.9082079630807</v>
+        <v>696.9082079630806</v>
       </c>
       <c r="L29" t="n">
         <v>1229.489175128238</v>
       </c>
       <c r="M29" t="n">
-        <v>1816.786565137962</v>
+        <v>1720.941877758825</v>
       </c>
       <c r="N29" t="n">
-        <v>2390.671983475652</v>
+        <v>2294.827296096515</v>
       </c>
       <c r="O29" t="n">
-        <v>2885.995531016189</v>
+        <v>2790.150843637052</v>
       </c>
       <c r="P29" t="n">
-        <v>3291.474136297351</v>
+        <v>3195.629448918214</v>
       </c>
       <c r="Q29" t="n">
         <v>3448.529166667817</v>
@@ -6488,13 +6488,13 @@
         <v>3494.380032263921</v>
       </c>
       <c r="S29" t="n">
-        <v>3423.069301806823</v>
+        <v>3423.069301806824</v>
       </c>
       <c r="T29" t="n">
-        <v>3304.739474670918</v>
+        <v>3304.739474670919</v>
       </c>
       <c r="U29" t="n">
-        <v>3153.574810041774</v>
+        <v>3153.574810041775</v>
       </c>
       <c r="V29" t="n">
         <v>2920.273234750343</v>
@@ -6503,10 +6503,10 @@
         <v>2661.416003420572</v>
       </c>
       <c r="X29" t="n">
-        <v>2383.063561754692</v>
+        <v>2383.063561754693</v>
       </c>
       <c r="Y29" t="n">
-        <v>2093.199405143157</v>
+        <v>2093.199405143158</v>
       </c>
     </row>
     <row r="30">
@@ -6540,19 +6540,19 @@
         <v>69.88760064527843</v>
       </c>
       <c r="J30" t="n">
-        <v>69.88760064527843</v>
+        <v>156.7549771159565</v>
       </c>
       <c r="K30" t="n">
-        <v>344.8644020616755</v>
+        <v>431.7317785323535</v>
       </c>
       <c r="L30" t="n">
-        <v>771.8481221707214</v>
+        <v>858.7154986413994</v>
       </c>
       <c r="M30" t="n">
-        <v>1328.254498915409</v>
+        <v>1415.121875386087</v>
       </c>
       <c r="N30" t="n">
-        <v>1912.78219982095</v>
+        <v>1542.379690969723</v>
       </c>
       <c r="O30" t="n">
         <v>2001.600108975612</v>
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>434.1873717463963</v>
+        <v>434.1873717463961</v>
       </c>
       <c r="C31" t="n">
-        <v>368.2491010207041</v>
+        <v>368.249101020704</v>
       </c>
       <c r="D31" t="n">
-        <v>318.8549066610943</v>
+        <v>318.8549066610942</v>
       </c>
       <c r="E31" t="n">
         <v>270.5235912350406</v>
@@ -6622,13 +6622,13 @@
         <v>129.336298920195</v>
       </c>
       <c r="K31" t="n">
-        <v>291.9921247617372</v>
+        <v>291.9921247617373</v>
       </c>
       <c r="L31" t="n">
-        <v>529.3237911245885</v>
+        <v>529.3237911245886</v>
       </c>
       <c r="M31" t="n">
-        <v>785.9504604715254</v>
+        <v>785.9504604715257</v>
       </c>
       <c r="N31" t="n">
         <v>1042.125744669635</v>
@@ -6661,10 +6661,10 @@
         <v>759.9972669052406</v>
       </c>
       <c r="X31" t="n">
-        <v>632.422501613244</v>
+        <v>632.4225016132439</v>
       </c>
       <c r="Y31" t="n">
-        <v>514.0650416181486</v>
+        <v>514.0650416181485</v>
       </c>
     </row>
     <row r="32">
@@ -6680,16 +6680,16 @@
         <v>1508.081553948929</v>
       </c>
       <c r="D32" t="n">
-        <v>1241.55115071072</v>
+        <v>1241.551150710719</v>
       </c>
       <c r="E32" t="n">
-        <v>953.0589923513936</v>
+        <v>953.0589923513933</v>
       </c>
       <c r="F32" t="n">
-        <v>645.2013631961308</v>
+        <v>645.2013631961304</v>
       </c>
       <c r="G32" t="n">
-        <v>335.9280987378172</v>
+        <v>335.9280987378171</v>
       </c>
       <c r="H32" t="n">
         <v>114.9015813824002</v>
@@ -6698,28 +6698,28 @@
         <v>69.08682634264392</v>
       </c>
       <c r="J32" t="n">
-        <v>284.3833638460081</v>
+        <v>289.9472632282856</v>
       </c>
       <c r="K32" t="n">
-        <v>591.4928287256853</v>
+        <v>701.2350477679918</v>
       </c>
       <c r="L32" t="n">
-        <v>1126.637602944616</v>
+        <v>1236.379821986922</v>
       </c>
       <c r="M32" t="n">
-        <v>1716.498800008113</v>
+        <v>1722.06269939039</v>
       </c>
       <c r="N32" t="n">
-        <v>2292.948025399575</v>
+        <v>2298.511924781852</v>
       </c>
       <c r="O32" t="n">
-        <v>2790.835379993885</v>
+        <v>2742.420707344007</v>
       </c>
       <c r="P32" t="n">
-        <v>3198.87779232882</v>
+        <v>3150.463119678942</v>
       </c>
       <c r="Q32" t="n">
-        <v>3454.341317132196</v>
+        <v>3405.926644482318</v>
       </c>
       <c r="R32" t="n">
         <v>3454.341317132196</v>
@@ -6734,7 +6734,7 @@
         <v>3121.383683075866</v>
       </c>
       <c r="V32" t="n">
-        <v>2890.697970506375</v>
+        <v>2890.697970506374</v>
       </c>
       <c r="W32" t="n">
         <v>2634.456601898542</v>
@@ -6777,16 +6777,16 @@
         <v>69.08682634264392</v>
       </c>
       <c r="J33" t="n">
-        <v>155.954202813322</v>
+        <v>69.08682634264392</v>
       </c>
       <c r="K33" t="n">
-        <v>430.9310042297191</v>
+        <v>344.063627759041</v>
       </c>
       <c r="L33" t="n">
-        <v>857.9147243387649</v>
+        <v>771.0473478680869</v>
       </c>
       <c r="M33" t="n">
-        <v>957.051215761548</v>
+        <v>1327.453724612775</v>
       </c>
       <c r="N33" t="n">
         <v>1541.578916667089</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>415.0755583901859</v>
+        <v>415.0755583901855</v>
       </c>
       <c r="C34" t="n">
-        <v>351.7531503864331</v>
+        <v>351.7531503864328</v>
       </c>
       <c r="D34" t="n">
-        <v>304.9748187487627</v>
+        <v>304.9748187487625</v>
       </c>
       <c r="E34" t="n">
-        <v>259.2593660446485</v>
+        <v>259.2593660446482</v>
       </c>
       <c r="F34" t="n">
-        <v>213.0722726049925</v>
+        <v>213.0722726049923</v>
       </c>
       <c r="G34" t="n">
-        <v>150.6870372390418</v>
+        <v>150.6870372390417</v>
       </c>
       <c r="H34" t="n">
-        <v>99.75023349412396</v>
+        <v>99.7502334941239</v>
       </c>
       <c r="I34" t="n">
         <v>69.08682634264392</v>
       </c>
       <c r="J34" t="n">
-        <v>69.08682634264392</v>
+        <v>131.0993316713334</v>
       </c>
       <c r="K34" t="n">
-        <v>233.9547045854349</v>
+        <v>296.3189645666484</v>
       </c>
       <c r="L34" t="n">
-        <v>473.8501780020591</v>
+        <v>536.2144379832727</v>
       </c>
       <c r="M34" t="n">
-        <v>733.040654402769</v>
+        <v>795.4049143839825</v>
       </c>
       <c r="N34" t="n">
-        <v>991.7797456546509</v>
+        <v>1054.144005635864</v>
       </c>
       <c r="O34" t="n">
-        <v>1227.801400944056</v>
+        <v>1227.801400944055</v>
       </c>
       <c r="P34" t="n">
-        <v>1423.51029490558</v>
+        <v>1423.510294905579</v>
       </c>
       <c r="Q34" t="n">
-        <v>1509.693077336684</v>
+        <v>1509.693077336683</v>
       </c>
       <c r="R34" t="n">
-        <v>1477.29892352794</v>
+        <v>1477.298923527939</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.081854007462</v>
+        <v>1374.081854007461</v>
       </c>
       <c r="T34" t="n">
         <v>1248.225983392864</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.342448238257</v>
+        <v>1067.342448238256</v>
       </c>
       <c r="V34" t="n">
-        <v>912.9007053312462</v>
+        <v>912.9007053312456</v>
       </c>
       <c r="W34" t="n">
-        <v>733.0378653832122</v>
+        <v>733.0378653832116</v>
       </c>
       <c r="X34" t="n">
-        <v>608.0789628131548</v>
+        <v>608.0789628131544</v>
       </c>
       <c r="Y34" t="n">
-        <v>492.3373655399988</v>
+        <v>492.3373655399984</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1432.622392258136</v>
+        <v>1432.622392258135</v>
       </c>
       <c r="C35" t="n">
-        <v>1205.401451068237</v>
+        <v>1205.401451068236</v>
       </c>
       <c r="D35" t="n">
-        <v>987.2903037727538</v>
+        <v>987.2903037727531</v>
       </c>
       <c r="E35" t="n">
-        <v>747.2174013561538</v>
+        <v>747.2174013561532</v>
       </c>
       <c r="F35" t="n">
-        <v>487.7790281436173</v>
+        <v>487.7790281436169</v>
       </c>
       <c r="G35" t="n">
-        <v>226.92501962803</v>
+        <v>226.9250196280299</v>
       </c>
       <c r="H35" t="n">
-        <v>54.31775821533932</v>
+        <v>54.31775821533929</v>
       </c>
       <c r="I35" t="n">
-        <v>54.31775821533932</v>
+        <v>54.31775821533929</v>
       </c>
       <c r="J35" t="n">
-        <v>170.9998754409526</v>
+        <v>170.9998754409519</v>
       </c>
       <c r="K35" t="n">
-        <v>478.1093403206296</v>
+        <v>478.109340320629</v>
       </c>
       <c r="L35" t="n">
-        <v>909.0757948795308</v>
+        <v>909.0757948795302</v>
       </c>
       <c r="M35" t="n">
-        <v>1394.758672282999</v>
+        <v>1394.758672282998</v>
       </c>
       <c r="N35" t="n">
         <v>1867.029578014432</v>
       </c>
       <c r="O35" t="n">
-        <v>2260.738612948714</v>
+        <v>2260.738612948713</v>
       </c>
       <c r="P35" t="n">
-        <v>2564.602705623619</v>
+        <v>2564.602705623618</v>
       </c>
       <c r="Q35" t="n">
-        <v>2715.887910766966</v>
+        <v>2715.887910766965</v>
       </c>
       <c r="R35" t="n">
-        <v>2715.887910766966</v>
+        <v>2715.887910766965</v>
       </c>
       <c r="S35" t="n">
-        <v>2695.612298974534</v>
+        <v>2695.612298974532</v>
       </c>
       <c r="T35" t="n">
-        <v>2628.317590503294</v>
+        <v>2628.317590503293</v>
       </c>
       <c r="U35" t="n">
-        <v>2528.188044538816</v>
+        <v>2528.188044538814</v>
       </c>
       <c r="V35" t="n">
-        <v>2345.92158791205</v>
+        <v>2345.921587912049</v>
       </c>
       <c r="W35" t="n">
-        <v>2138.099475246945</v>
+        <v>2138.099475246943</v>
       </c>
       <c r="X35" t="n">
-        <v>1910.782152245731</v>
+        <v>1910.78215224573</v>
       </c>
       <c r="Y35" t="n">
-        <v>1671.953114298862</v>
+        <v>1671.953114298861</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>112.8046973252606</v>
       </c>
       <c r="I36" t="n">
-        <v>54.31775821533932</v>
+        <v>54.31775821533929</v>
       </c>
       <c r="J36" t="n">
-        <v>54.31775821533932</v>
+        <v>141.1851346860173</v>
       </c>
       <c r="K36" t="n">
-        <v>329.2945596317364</v>
+        <v>416.1619361024144</v>
       </c>
       <c r="L36" t="n">
-        <v>756.2782797407823</v>
+        <v>843.1456562114604</v>
       </c>
       <c r="M36" t="n">
-        <v>1312.68465648547</v>
+        <v>1399.552032956148</v>
       </c>
       <c r="N36" t="n">
-        <v>1526.809848539784</v>
+        <v>1984.079733861689</v>
       </c>
       <c r="O36" t="n">
-        <v>1986.030266545673</v>
+        <v>2443.300151867577</v>
       </c>
       <c r="P36" t="n">
-        <v>2341.916019395578</v>
+        <v>2535.64472843019</v>
       </c>
       <c r="Q36" t="n">
         <v>2535.64472843019</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>85.70443750178174</v>
+        <v>85.70443750178153</v>
       </c>
       <c r="C37" t="n">
-        <v>70.80128544075524</v>
+        <v>70.80128544075508</v>
       </c>
       <c r="D37" t="n">
-        <v>70.80128544075524</v>
+        <v>70.80128544075508</v>
       </c>
       <c r="E37" t="n">
-        <v>70.80128544075524</v>
+        <v>70.80128544075508</v>
       </c>
       <c r="F37" t="n">
-        <v>70.80128544075524</v>
+        <v>70.80128544075508</v>
       </c>
       <c r="G37" t="n">
-        <v>56.83530601753091</v>
+        <v>56.83530601753082</v>
       </c>
       <c r="H37" t="n">
-        <v>54.31775821533932</v>
+        <v>54.31775821533929</v>
       </c>
       <c r="I37" t="n">
-        <v>54.31775821533932</v>
+        <v>54.31775821533929</v>
       </c>
       <c r="J37" t="n">
-        <v>54.31775821533932</v>
+        <v>54.31775821533929</v>
       </c>
       <c r="K37" t="n">
-        <v>115.3590714506254</v>
+        <v>115.3590714506253</v>
       </c>
       <c r="L37" t="n">
-        <v>251.0762252072205</v>
+        <v>251.0762252072204</v>
       </c>
       <c r="M37" t="n">
-        <v>406.0883819479013</v>
+        <v>406.0883819479012</v>
       </c>
       <c r="N37" t="n">
-        <v>560.6491535397543</v>
+        <v>560.6491535397541</v>
       </c>
       <c r="O37" t="n">
-        <v>692.4924891691303</v>
+        <v>692.4924891691302</v>
       </c>
       <c r="P37" t="n">
-        <v>784.0230634706256</v>
+        <v>784.0230634706255</v>
       </c>
       <c r="Q37" t="n">
-        <v>784.0230634706256</v>
+        <v>784.0230634706255</v>
       </c>
       <c r="R37" t="n">
-        <v>784.0230634706256</v>
+        <v>784.0230634706255</v>
       </c>
       <c r="S37" t="n">
         <v>729.225249892874</v>
       </c>
       <c r="T37" t="n">
-        <v>628.3393268481025</v>
+        <v>651.788635221003</v>
       </c>
       <c r="U37" t="n">
-        <v>495.875047636221</v>
+        <v>519.3243560091215</v>
       </c>
       <c r="V37" t="n">
-        <v>389.8525606719368</v>
+        <v>413.3018690448374</v>
       </c>
       <c r="W37" t="n">
-        <v>258.4089766666291</v>
+        <v>281.8582850395297</v>
       </c>
       <c r="X37" t="n">
-        <v>181.8693300392981</v>
+        <v>205.3186384121988</v>
       </c>
       <c r="Y37" t="n">
-        <v>114.5469887088684</v>
+        <v>114.5469887088681</v>
       </c>
     </row>
     <row r="38">
@@ -7148,58 +7148,58 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1432.622392258136</v>
+        <v>1432.622392258137</v>
       </c>
       <c r="C38" t="n">
         <v>1205.401451068237</v>
       </c>
       <c r="D38" t="n">
-        <v>987.2903037727538</v>
+        <v>987.290303772754</v>
       </c>
       <c r="E38" t="n">
-        <v>747.2174013561539</v>
+        <v>747.2174013561541</v>
       </c>
       <c r="F38" t="n">
         <v>487.7790281436178</v>
       </c>
       <c r="G38" t="n">
-        <v>226.92501962803</v>
+        <v>226.9250196280299</v>
       </c>
       <c r="H38" t="n">
-        <v>54.31775821533932</v>
+        <v>54.3177582153393</v>
       </c>
       <c r="I38" t="n">
-        <v>54.31775821533932</v>
+        <v>54.3177582153393</v>
       </c>
       <c r="J38" t="n">
-        <v>170.999875440952</v>
+        <v>170.9998754409519</v>
       </c>
       <c r="K38" t="n">
-        <v>478.1093403206291</v>
+        <v>478.109340320629</v>
       </c>
       <c r="L38" t="n">
-        <v>909.075794879531</v>
+        <v>909.0757948795302</v>
       </c>
       <c r="M38" t="n">
-        <v>1394.758672282999</v>
+        <v>1394.758672282998</v>
       </c>
       <c r="N38" t="n">
-        <v>1867.029578014432</v>
+        <v>1867.029578014431</v>
       </c>
       <c r="O38" t="n">
-        <v>2260.738612948714</v>
+        <v>2260.738612948712</v>
       </c>
       <c r="P38" t="n">
-        <v>2564.602705623619</v>
+        <v>2564.602705623618</v>
       </c>
       <c r="Q38" t="n">
-        <v>2715.887910766966</v>
+        <v>2715.887910766965</v>
       </c>
       <c r="R38" t="n">
-        <v>2715.887910766966</v>
+        <v>2715.887910766965</v>
       </c>
       <c r="S38" t="n">
-        <v>2695.612298974534</v>
+        <v>2695.612298974533</v>
       </c>
       <c r="T38" t="n">
         <v>2628.317590503294</v>
@@ -7208,16 +7208,16 @@
         <v>2528.188044538816</v>
       </c>
       <c r="V38" t="n">
-        <v>2345.92158791205</v>
+        <v>2345.921587912051</v>
       </c>
       <c r="W38" t="n">
         <v>2138.099475246945</v>
       </c>
       <c r="X38" t="n">
-        <v>1910.782152245731</v>
+        <v>1910.782152245732</v>
       </c>
       <c r="Y38" t="n">
-        <v>1671.953114298862</v>
+        <v>1671.953114298863</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>112.8046973252606</v>
       </c>
       <c r="I39" t="n">
-        <v>54.31775821533932</v>
+        <v>54.3177582153393</v>
       </c>
       <c r="J39" t="n">
-        <v>54.31775821533932</v>
+        <v>141.1851346860173</v>
       </c>
       <c r="K39" t="n">
-        <v>329.2945596317364</v>
+        <v>416.1619361024144</v>
       </c>
       <c r="L39" t="n">
-        <v>756.2782797407823</v>
+        <v>843.1456562114604</v>
       </c>
       <c r="M39" t="n">
-        <v>1312.68465648547</v>
+        <v>1399.552032956148</v>
       </c>
       <c r="N39" t="n">
-        <v>1897.212357391011</v>
+        <v>1984.079733861689</v>
       </c>
       <c r="O39" t="n">
-        <v>2179.758975580285</v>
+        <v>1986.030266545673</v>
       </c>
       <c r="P39" t="n">
-        <v>2535.64472843019</v>
+        <v>2341.916019395578</v>
       </c>
       <c r="Q39" t="n">
         <v>2535.64472843019</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>109.1537458746821</v>
+        <v>85.70443750178154</v>
       </c>
       <c r="C40" t="n">
-        <v>94.25059381365564</v>
+        <v>70.80128544075509</v>
       </c>
       <c r="D40" t="n">
-        <v>94.25059381365564</v>
+        <v>70.80128544075509</v>
       </c>
       <c r="E40" t="n">
-        <v>94.25059381365564</v>
+        <v>70.80128544075509</v>
       </c>
       <c r="F40" t="n">
-        <v>94.25059381365564</v>
+        <v>70.80128544075509</v>
       </c>
       <c r="G40" t="n">
-        <v>56.83530601753091</v>
+        <v>56.83530601753083</v>
       </c>
       <c r="H40" t="n">
-        <v>54.31775821533932</v>
+        <v>54.3177582153393</v>
       </c>
       <c r="I40" t="n">
-        <v>54.31775821533932</v>
+        <v>54.3177582153393</v>
       </c>
       <c r="J40" t="n">
-        <v>54.31775821533932</v>
+        <v>54.3177582153393</v>
       </c>
       <c r="K40" t="n">
-        <v>115.3590714506254</v>
+        <v>115.3590714506253</v>
       </c>
       <c r="L40" t="n">
         <v>251.0762252072205</v>
       </c>
       <c r="M40" t="n">
-        <v>406.0883819479013</v>
+        <v>406.0883819479012</v>
       </c>
       <c r="N40" t="n">
-        <v>560.6491535397543</v>
+        <v>560.6491535397541</v>
       </c>
       <c r="O40" t="n">
-        <v>692.4924891691303</v>
+        <v>692.4924891691302</v>
       </c>
       <c r="P40" t="n">
-        <v>784.0230634706256</v>
+        <v>784.0230634706255</v>
       </c>
       <c r="Q40" t="n">
-        <v>784.0230634706256</v>
+        <v>765.6621439431023</v>
       </c>
       <c r="R40" t="n">
-        <v>784.0230634706256</v>
+        <v>765.6621439431023</v>
       </c>
       <c r="S40" t="n">
-        <v>729.225249892874</v>
+        <v>710.8643303653507</v>
       </c>
       <c r="T40" t="n">
-        <v>651.7886352210029</v>
+        <v>628.339326848102</v>
       </c>
       <c r="U40" t="n">
-        <v>519.3243560091214</v>
+        <v>495.8750476362205</v>
       </c>
       <c r="V40" t="n">
-        <v>413.3018690448372</v>
+        <v>389.8525606719364</v>
       </c>
       <c r="W40" t="n">
-        <v>281.8582850395295</v>
+        <v>258.4089766666287</v>
       </c>
       <c r="X40" t="n">
-        <v>205.3186384121985</v>
+        <v>181.8693300392978</v>
       </c>
       <c r="Y40" t="n">
-        <v>137.9962970817688</v>
+        <v>114.5469887088681</v>
       </c>
     </row>
     <row r="41">
@@ -7385,64 +7385,64 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1263.331040724513</v>
+        <v>1263.331040724514</v>
       </c>
       <c r="C41" t="n">
-        <v>1263.331040724513</v>
+        <v>1014.948680592911</v>
       </c>
       <c r="D41" t="n">
-        <v>1024.058474487327</v>
+        <v>775.6761143557253</v>
       </c>
       <c r="E41" t="n">
-        <v>762.8241531290239</v>
+        <v>514.4417929974226</v>
       </c>
       <c r="F41" t="n">
-        <v>530.1018660270237</v>
+        <v>248.0864385697328</v>
       </c>
       <c r="G41" t="n">
-        <v>248.0864385697331</v>
+        <v>248.0864385697328</v>
       </c>
       <c r="H41" t="n">
-        <v>54.31775821533932</v>
+        <v>54.31775821533931</v>
       </c>
       <c r="I41" t="n">
-        <v>54.31775821533932</v>
+        <v>54.31775821533931</v>
       </c>
       <c r="J41" t="n">
-        <v>170.9998754409526</v>
+        <v>170.9998754409521</v>
       </c>
       <c r="K41" t="n">
-        <v>478.1093403206298</v>
+        <v>478.1093403206291</v>
       </c>
       <c r="L41" t="n">
-        <v>909.075794879531</v>
+        <v>909.0757948795303</v>
       </c>
       <c r="M41" t="n">
-        <v>1394.758672282999</v>
+        <v>1394.758672282998</v>
       </c>
       <c r="N41" t="n">
         <v>1867.029578014432</v>
       </c>
       <c r="O41" t="n">
-        <v>2260.738612948714</v>
+        <v>2260.738612948713</v>
       </c>
       <c r="P41" t="n">
-        <v>2564.602705623619</v>
+        <v>2564.602705623618</v>
       </c>
       <c r="Q41" t="n">
-        <v>2715.887910766966</v>
+        <v>2715.887910766965</v>
       </c>
       <c r="R41" t="n">
-        <v>2715.887910766966</v>
+        <v>2715.887910766965</v>
       </c>
       <c r="S41" t="n">
-        <v>2674.450880032831</v>
+        <v>2674.45088003283</v>
       </c>
       <c r="T41" t="n">
         <v>2585.994752619888</v>
       </c>
       <c r="U41" t="n">
-        <v>2464.703787713708</v>
+        <v>2464.703787713707</v>
       </c>
       <c r="V41" t="n">
         <v>2261.275912145239</v>
@@ -7485,28 +7485,28 @@
         <v>112.8046973252606</v>
       </c>
       <c r="I42" t="n">
-        <v>54.31775821533932</v>
+        <v>54.31775821533931</v>
       </c>
       <c r="J42" t="n">
-        <v>54.31775821533932</v>
+        <v>141.1851346860174</v>
       </c>
       <c r="K42" t="n">
-        <v>329.2945596317364</v>
+        <v>416.1619361024144</v>
       </c>
       <c r="L42" t="n">
-        <v>756.2782797407823</v>
+        <v>843.1456562114604</v>
       </c>
       <c r="M42" t="n">
-        <v>1136.010856668855</v>
+        <v>1399.552032956148</v>
       </c>
       <c r="N42" t="n">
-        <v>1720.538557574396</v>
+        <v>1984.079733861689</v>
       </c>
       <c r="O42" t="n">
-        <v>2179.758975580285</v>
+        <v>1986.030266545673</v>
       </c>
       <c r="P42" t="n">
-        <v>2535.64472843019</v>
+        <v>2341.916019395578</v>
       </c>
       <c r="Q42" t="n">
         <v>2535.64472843019</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>209.5016312557185</v>
+        <v>209.5016312557165</v>
       </c>
       <c r="C43" t="n">
-        <v>173.4370602529889</v>
+        <v>173.4370602529872</v>
       </c>
       <c r="D43" t="n">
-        <v>153.9165656163418</v>
+        <v>153.9165656163404</v>
       </c>
       <c r="E43" t="n">
-        <v>135.4589499132508</v>
+        <v>135.4589499132497</v>
       </c>
       <c r="F43" t="n">
-        <v>116.5296934746181</v>
+        <v>116.5296934746172</v>
       </c>
       <c r="G43" t="n">
-        <v>81.40229510969073</v>
+        <v>81.40229510969016</v>
       </c>
       <c r="H43" t="n">
-        <v>57.7233283657961</v>
+        <v>57.72332836579581</v>
       </c>
       <c r="I43" t="n">
-        <v>54.31775821533932</v>
+        <v>54.31775821533931</v>
       </c>
       <c r="J43" t="n">
-        <v>54.31775821533932</v>
+        <v>54.31775821533931</v>
       </c>
       <c r="K43" t="n">
-        <v>115.3590714506254</v>
+        <v>115.3590714506253</v>
       </c>
       <c r="L43" t="n">
         <v>251.0762252072205</v>
       </c>
       <c r="M43" t="n">
-        <v>536.9821076526332</v>
+        <v>437.0720214897399</v>
       </c>
       <c r="N43" t="n">
-        <v>704.5309815574042</v>
+        <v>591.6327930815928</v>
       </c>
       <c r="O43" t="n">
-        <v>836.3743171867802</v>
+        <v>723.4761287109689</v>
       </c>
       <c r="P43" t="n">
-        <v>1058.798617193007</v>
+        <v>945.9004287171963</v>
       </c>
       <c r="Q43" t="n">
-        <v>1058.798617193007</v>
+        <v>1058.798617193003</v>
       </c>
       <c r="R43" t="n">
-        <v>1053.662300385286</v>
+        <v>1053.662300385282</v>
       </c>
       <c r="S43" t="n">
-        <v>977.7030678658317</v>
+        <v>977.7030678658277</v>
       </c>
       <c r="T43" t="n">
-        <v>879.1050342522576</v>
+        <v>879.1050342522539</v>
       </c>
       <c r="U43" t="n">
-        <v>725.479336098673</v>
+        <v>725.4793360986696</v>
       </c>
       <c r="V43" t="n">
-        <v>598.2954301926858</v>
+        <v>598.2954301926826</v>
       </c>
       <c r="W43" t="n">
-        <v>445.690427245675</v>
+        <v>445.6904272456721</v>
       </c>
       <c r="X43" t="n">
-        <v>347.989361676641</v>
+        <v>347.9893616766383</v>
       </c>
       <c r="Y43" t="n">
-        <v>259.5056014045082</v>
+        <v>259.5056014045059</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1514.515163777771</v>
+        <v>1263.331040724514</v>
       </c>
       <c r="C44" t="n">
-        <v>1311.208545776753</v>
+        <v>1014.948680592911</v>
       </c>
       <c r="D44" t="n">
-        <v>1071.935979539566</v>
+        <v>775.6761143557253</v>
       </c>
       <c r="E44" t="n">
-        <v>810.7016581812633</v>
+        <v>528.686230723972</v>
       </c>
       <c r="F44" t="n">
-        <v>530.1018660270238</v>
+        <v>248.0864385697327</v>
       </c>
       <c r="G44" t="n">
-        <v>248.086438569733</v>
+        <v>248.0864385697327</v>
       </c>
       <c r="H44" t="n">
-        <v>54.31775821533932</v>
+        <v>54.3177582153393</v>
       </c>
       <c r="I44" t="n">
-        <v>54.31775821533932</v>
+        <v>54.3177582153393</v>
       </c>
       <c r="J44" t="n">
-        <v>170.9998754409526</v>
+        <v>170.9998754409519</v>
       </c>
       <c r="K44" t="n">
-        <v>478.1093403206298</v>
+        <v>478.109340320629</v>
       </c>
       <c r="L44" t="n">
-        <v>909.075794879531</v>
+        <v>909.0757948795302</v>
       </c>
       <c r="M44" t="n">
-        <v>1394.758672282999</v>
+        <v>1394.758672282998</v>
       </c>
       <c r="N44" t="n">
-        <v>1867.029578014432</v>
+        <v>1867.029578014431</v>
       </c>
       <c r="O44" t="n">
-        <v>2260.738612948714</v>
+        <v>2260.738612948712</v>
       </c>
       <c r="P44" t="n">
-        <v>2564.602705623619</v>
+        <v>2564.602705623618</v>
       </c>
       <c r="Q44" t="n">
-        <v>2715.887910766966</v>
+        <v>2715.887910766965</v>
       </c>
       <c r="R44" t="n">
-        <v>2715.887910766966</v>
+        <v>2715.887910766965</v>
       </c>
       <c r="S44" t="n">
-        <v>2715.887910766966</v>
+        <v>2674.450880032829</v>
       </c>
       <c r="T44" t="n">
-        <v>2715.887910766966</v>
+        <v>2585.994752619888</v>
       </c>
       <c r="U44" t="n">
-        <v>2715.887910766966</v>
+        <v>2464.703787713707</v>
       </c>
       <c r="V44" t="n">
-        <v>2512.460035198498</v>
+        <v>2261.275912145239</v>
       </c>
       <c r="W44" t="n">
-        <v>2283.476503591689</v>
+        <v>2032.29238053843</v>
       </c>
       <c r="X44" t="n">
-        <v>2034.997761648772</v>
+        <v>1783.813638595514</v>
       </c>
       <c r="Y44" t="n">
-        <v>1775.0073047602</v>
+        <v>1523.823181706942</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>112.8046973252606</v>
       </c>
       <c r="I45" t="n">
-        <v>54.31775821533932</v>
+        <v>54.3177582153393</v>
       </c>
       <c r="J45" t="n">
-        <v>54.31775821533932</v>
+        <v>110.8989694731587</v>
       </c>
       <c r="K45" t="n">
-        <v>152.620759815122</v>
+        <v>385.8757708895557</v>
       </c>
       <c r="L45" t="n">
-        <v>579.6044799241679</v>
+        <v>385.8757708895557</v>
       </c>
       <c r="M45" t="n">
-        <v>1136.010856668855</v>
+        <v>942.2821476342433</v>
       </c>
       <c r="N45" t="n">
-        <v>1720.538557574396</v>
+        <v>1526.809848539784</v>
       </c>
       <c r="O45" t="n">
-        <v>2179.758975580285</v>
+        <v>1986.030266545673</v>
       </c>
       <c r="P45" t="n">
-        <v>2535.64472843019</v>
+        <v>2341.916019395578</v>
       </c>
       <c r="Q45" t="n">
         <v>2535.64472843019</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>209.5016312557185</v>
+        <v>209.5016312557165</v>
       </c>
       <c r="C46" t="n">
-        <v>173.4370602529889</v>
+        <v>173.4370602529872</v>
       </c>
       <c r="D46" t="n">
-        <v>153.9165656163418</v>
+        <v>153.9165656163404</v>
       </c>
       <c r="E46" t="n">
-        <v>135.4589499132508</v>
+        <v>135.4589499132497</v>
       </c>
       <c r="F46" t="n">
-        <v>116.5296934746181</v>
+        <v>116.5296934746172</v>
       </c>
       <c r="G46" t="n">
-        <v>81.40229510969073</v>
+        <v>81.40229510969014</v>
       </c>
       <c r="H46" t="n">
-        <v>57.7233283657961</v>
+        <v>57.7233283657958</v>
       </c>
       <c r="I46" t="n">
-        <v>54.31775821533932</v>
+        <v>54.3177582153393</v>
       </c>
       <c r="J46" t="n">
-        <v>143.0456695887316</v>
+        <v>54.3177582153393</v>
       </c>
       <c r="K46" t="n">
-        <v>277.2364366972008</v>
+        <v>246.2527971553575</v>
       </c>
       <c r="L46" t="n">
-        <v>412.953590453796</v>
+        <v>381.9699509119527</v>
       </c>
       <c r="M46" t="n">
-        <v>567.9657471944768</v>
+        <v>667.8758333573657</v>
       </c>
       <c r="N46" t="n">
-        <v>722.5265187863297</v>
+        <v>822.4366049492186</v>
       </c>
       <c r="O46" t="n">
-        <v>854.3698544157057</v>
+        <v>954.2799405785946</v>
       </c>
       <c r="P46" t="n">
-        <v>945.9004287172011</v>
+        <v>1045.81051488009</v>
       </c>
       <c r="Q46" t="n">
-        <v>1058.798617193007</v>
+        <v>1058.798617193003</v>
       </c>
       <c r="R46" t="n">
-        <v>1053.662300385286</v>
+        <v>1053.662300385282</v>
       </c>
       <c r="S46" t="n">
-        <v>977.7030678658317</v>
+        <v>977.7030678658277</v>
       </c>
       <c r="T46" t="n">
-        <v>879.1050342522576</v>
+        <v>879.1050342522539</v>
       </c>
       <c r="U46" t="n">
-        <v>725.479336098673</v>
+        <v>725.4793360986696</v>
       </c>
       <c r="V46" t="n">
-        <v>598.2954301926858</v>
+        <v>598.2954301926826</v>
       </c>
       <c r="W46" t="n">
-        <v>445.690427245675</v>
+        <v>445.6904272456721</v>
       </c>
       <c r="X46" t="n">
-        <v>347.989361676641</v>
+        <v>347.9893616766383</v>
       </c>
       <c r="Y46" t="n">
-        <v>259.5056014045082</v>
+        <v>259.5056014045059</v>
       </c>
     </row>
   </sheetData>
@@ -8453,7 +8453,7 @@
         <v>157.109476210864</v>
       </c>
       <c r="K8" t="n">
-        <v>188.4282512910011</v>
+        <v>188.8326827569781</v>
       </c>
       <c r="L8" t="n">
         <v>191.5602121631146</v>
@@ -8465,13 +8465,13 @@
         <v>186.3981141722301</v>
       </c>
       <c r="O8" t="n">
-        <v>186.9547967801205</v>
+        <v>196.9644755630518</v>
       </c>
       <c r="P8" t="n">
-        <v>197.8864878340879</v>
+        <v>197.4820563681108</v>
       </c>
       <c r="Q8" t="n">
-        <v>190.6330518059216</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R8" t="n">
         <v>85.43134583487716</v>
@@ -8529,25 +8529,25 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>113.0652504495981</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K9" t="n">
         <v>122.005847949598</v>
       </c>
       <c r="L9" t="n">
-        <v>122.1806808881021</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M9" t="n">
         <v>115.4839025616399</v>
       </c>
       <c r="N9" t="n">
-        <v>106.7151410677083</v>
+        <v>116.7248198506397</v>
       </c>
       <c r="O9" t="n">
         <v>125.8691273940425</v>
       </c>
       <c r="P9" t="n">
-        <v>108.8542060241433</v>
+        <v>118.4594533410977</v>
       </c>
       <c r="Q9" t="n">
         <v>113.7351914448925</v>
@@ -8611,7 +8611,7 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K10" t="n">
-        <v>114.8329510464913</v>
+        <v>104.82327226356</v>
       </c>
       <c r="L10" t="n">
         <v>119.6034782614375</v>
@@ -8623,7 +8623,7 @@
         <v>103.744504878002</v>
       </c>
       <c r="O10" t="n">
-        <v>112.4959374921223</v>
+        <v>122.5056162750536</v>
       </c>
       <c r="P10" t="n">
         <v>121.9136820728638</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>219.8255997236959</v>
+        <v>101.9648752533801</v>
       </c>
       <c r="K11" t="n">
         <v>421.3890363425141</v>
@@ -8696,7 +8696,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M11" t="n">
-        <v>402.3037729984857</v>
+        <v>520.1644974688014</v>
       </c>
       <c r="N11" t="n">
         <v>568.5510017355793</v>
@@ -8769,7 +8769,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
-        <v>343.8048081163522</v>
+        <v>241.3965934981714</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
@@ -8781,10 +8781,10 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O12" t="n">
-        <v>50.1322420073197</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
-        <v>414.0015992319183</v>
+        <v>54.52104079767105</v>
       </c>
       <c r="Q12" t="n">
         <v>273.1004740566038</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>101.9648752533801</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K14" t="n">
         <v>421.3890363425141</v>
@@ -8942,7 +8942,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P14" t="n">
-        <v>354.1352245510453</v>
+        <v>236.2745000807281</v>
       </c>
       <c r="Q14" t="n">
         <v>276.0094878578761</v>
@@ -9003,7 +9003,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>76.17352122467486</v>
+        <v>76.17352122467489</v>
       </c>
       <c r="K15" t="n">
         <v>343.8048081163522</v>
@@ -9012,10 +9012,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>605.4165828749999</v>
+        <v>231.2726345404276</v>
       </c>
       <c r="N15" t="n">
-        <v>249.001138312047</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>101.9648752533801</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K17" t="n">
         <v>421.3890363425141</v>
@@ -9173,13 +9173,13 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N17" t="n">
-        <v>568.5510017355793</v>
+        <v>386.4871811933798</v>
       </c>
       <c r="O17" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P17" t="n">
-        <v>354.1352245510463</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q17" t="n">
         <v>276.0094878578761</v>
@@ -9249,10 +9249,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M18" t="n">
-        <v>143.527809822571</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>623.1450866466196</v>
+        <v>161.2563135941906</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
@@ -9407,7 +9407,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M20" t="n">
-        <v>402.3037729984852</v>
+        <v>402.3037729984829</v>
       </c>
       <c r="N20" t="n">
         <v>568.5510017355793</v>
@@ -9486,10 +9486,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
-        <v>605.4165828749999</v>
+        <v>143.527809822571</v>
       </c>
       <c r="N21" t="n">
-        <v>356.9418782756171</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9498,7 +9498,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>77.41490937517756</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>101.9648752533801</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K23" t="n">
-        <v>357.1859402706332</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L23" t="n">
         <v>542.9595789155856</v>
@@ -9647,7 +9647,7 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N23" t="n">
-        <v>568.5510017355793</v>
+        <v>386.4871811933798</v>
       </c>
       <c r="O23" t="n">
         <v>495.0402356415689</v>
@@ -9726,7 +9726,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>161.2563135941915</v>
+        <v>161.2563135941906</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -9960,10 +9960,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M27" t="n">
-        <v>143.5278098225711</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>623.1450866466196</v>
+        <v>161.2563135941907</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
@@ -10188,7 +10188,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>76.17352122467486</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K30" t="n">
         <v>343.8048081163522</v>
@@ -10200,10 +10200,10 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>623.1450866466196</v>
+        <v>161.2563135941908</v>
       </c>
       <c r="O30" t="n">
-        <v>137.8770667251761</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P30" t="n">
         <v>414.0015992319183</v>
@@ -10425,7 +10425,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>163.9183459425315</v>
+        <v>76.17352122467489</v>
       </c>
       <c r="K33" t="n">
         <v>343.8048081163522</v>
@@ -10434,10 +10434,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M33" t="n">
-        <v>143.527809822571</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>623.1450866466196</v>
+        <v>249.0011383120474</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
@@ -10604,7 +10604,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q35" t="n">
-        <v>276.0094878578761</v>
+        <v>276.0094878578751</v>
       </c>
       <c r="R35" t="n">
         <v>85.43134583487716</v>
@@ -10662,7 +10662,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>76.17352122467486</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
         <v>343.8048081163522</v>
@@ -10674,16 +10674,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>249.0011383120471</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
-        <v>414.0015992319183</v>
+        <v>147.798390860916</v>
       </c>
       <c r="Q36" t="n">
-        <v>273.1004740566038</v>
+        <v>77.41490937517756</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10826,10 +10826,10 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L38" t="n">
-        <v>542.9595789155862</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M38" t="n">
-        <v>584.3675935406823</v>
+        <v>584.3675935406819</v>
       </c>
       <c r="N38" t="n">
         <v>568.5510017355793</v>
@@ -10899,7 +10899,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>76.17352122467486</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
         <v>343.8048081163522</v>
@@ -10914,13 +10914,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O39" t="n">
-        <v>333.5626314066021</v>
+        <v>50.13224200731943</v>
       </c>
       <c r="P39" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>77.41490937517753</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>219.8255997236965</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K41" t="n">
         <v>421.3890363425141</v>
@@ -11136,7 +11136,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>76.17352122467486</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
         <v>343.8048081163522</v>
@@ -11145,19 +11145,19 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M42" t="n">
-        <v>426.958199221854</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
         <v>623.1450866466196</v>
       </c>
       <c r="O42" t="n">
-        <v>512.0210150597484</v>
+        <v>50.13224200731943</v>
       </c>
       <c r="P42" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>77.41490937517753</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>219.8255997236965</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K44" t="n">
         <v>421.3890363425141</v>
@@ -11306,7 +11306,7 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N44" t="n">
-        <v>568.5510017355793</v>
+        <v>568.5510017355788</v>
       </c>
       <c r="O44" t="n">
         <v>495.0402356415689</v>
@@ -11373,13 +11373,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>76.17352122467486</v>
+        <v>133.3262598689369</v>
       </c>
       <c r="K45" t="n">
-        <v>165.3464244632063</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
-        <v>482.0924488944969</v>
+        <v>50.79576191566269</v>
       </c>
       <c r="M45" t="n">
         <v>605.4165828749999</v>
@@ -11394,7 +11394,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>77.41490937517753</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23258,10 +23258,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>115.3606737342673</v>
       </c>
       <c r="D11" t="n">
-        <v>266.4548033005475</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>288.196940870453</v>
@@ -23270,10 +23270,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>308.7702359084508</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>221.4059562765828</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23318,10 +23318,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>256.2686590164737</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>122.8134036022793</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23495,25 +23495,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>275.4734992560195</v>
       </c>
       <c r="D14" t="n">
-        <v>266.4548033005474</v>
+        <v>47.77956365501838</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>307.3687569584301</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>308.7702359084508</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>47.94631158407874</v>
+        <v>47.94631158407879</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>3.193699038246691</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,10 +23558,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>275.5689172492204</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>286.9655150454191</v>
       </c>
     </row>
     <row r="15">
@@ -25628,7 +25628,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>245.8985365302864</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25637,16 +25637,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>47.3987300017169</v>
+        <v>14.10199334928382</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>279.1952731827175</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>18.37134885834571</v>
+        <v>18.37134885834544</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25865,25 +25865,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>44.62498470927721</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>14.10199334928404</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>279.1952731827175</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>18.37134885834571</v>
+        <v>18.37134885834544</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,13 +25913,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>41.02266042679439</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>87.57156613881284</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>120.0780552571195</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>699725.9461472308</v>
+        <v>699725.9461472307</v>
       </c>
     </row>
     <row r="7">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>762762.5897312753</v>
+        <v>762762.5897312752</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>762762.5897312753</v>
+        <v>762762.5897312752</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>743535.7528478447</v>
+        <v>743535.752847845</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>743535.752847845</v>
+        <v>743535.7528478449</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>746729.7157196215</v>
+        <v>746729.7157196214</v>
       </c>
       <c r="C2" t="n">
-        <v>746729.7157196216</v>
+        <v>746729.715719622</v>
       </c>
       <c r="D2" t="n">
-        <v>748283.4180603084</v>
+        <v>748283.4180603083</v>
       </c>
       <c r="E2" t="n">
-        <v>675966.3782368738</v>
+        <v>675966.3782368741</v>
       </c>
       <c r="F2" t="n">
-        <v>675966.3782368738</v>
+        <v>675966.3782368733</v>
       </c>
       <c r="G2" t="n">
-        <v>748433.458981827</v>
+        <v>748433.4589818268</v>
       </c>
       <c r="H2" t="n">
         <v>748433.4589818269</v>
       </c>
       <c r="I2" t="n">
-        <v>748433.458981827</v>
+        <v>748433.4589818269</v>
       </c>
       <c r="J2" t="n">
-        <v>748433.4589818254</v>
+        <v>748433.4589818257</v>
       </c>
       <c r="K2" t="n">
-        <v>748433.4589818259</v>
+        <v>748433.4589818255</v>
       </c>
       <c r="L2" t="n">
         <v>748433.4589818257</v>
       </c>
       <c r="M2" t="n">
-        <v>748433.4589818273</v>
+        <v>748433.4589818286</v>
       </c>
       <c r="N2" t="n">
-        <v>748433.4589818275</v>
+        <v>748433.4589818284</v>
       </c>
       <c r="O2" t="n">
-        <v>724244.8577413814</v>
+        <v>724244.857741383</v>
       </c>
       <c r="P2" t="n">
-        <v>724244.8577413815</v>
+        <v>724244.8577413833</v>
       </c>
     </row>
     <row r="3">
@@ -26375,10 +26375,10 @@
         <v>374397.5836627405</v>
       </c>
       <c r="F3" t="n">
-        <v>1.483606662566599e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>50616.42829746721</v>
+        <v>50616.42829746729</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94448.75405589236</v>
+        <v>94448.75405589247</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>52688.19157324322</v>
+        <v>52688.19157324334</v>
       </c>
       <c r="M3" t="n">
-        <v>147591.2452609263</v>
+        <v>147591.2452609262</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>14736.46536030498</v>
+        <v>14736.46536030506</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26445,19 +26445,19 @@
         <v>309745.1728663463</v>
       </c>
       <c r="L4" t="n">
-        <v>309691.5599886816</v>
+        <v>309691.5599886817</v>
       </c>
       <c r="M4" t="n">
         <v>308721.7754218913</v>
       </c>
       <c r="N4" t="n">
-        <v>308721.7754218913</v>
+        <v>308721.7754218914</v>
       </c>
       <c r="O4" t="n">
-        <v>294647.3685653064</v>
+        <v>294647.3685653065</v>
       </c>
       <c r="P4" t="n">
-        <v>294647.3685653064</v>
+        <v>294647.3685653065</v>
       </c>
     </row>
     <row r="5">
@@ -26476,19 +26476,19 @@
         <v>34236.18847000223</v>
       </c>
       <c r="E5" t="n">
-        <v>49998.56587267924</v>
+        <v>49998.56587267925</v>
       </c>
       <c r="F5" t="n">
-        <v>49998.56587267924</v>
+        <v>49998.5658726792</v>
       </c>
       <c r="G5" t="n">
-        <v>55317.65651085395</v>
+        <v>55317.65651085392</v>
       </c>
       <c r="H5" t="n">
-        <v>55317.65651085395</v>
+        <v>55317.65651085392</v>
       </c>
       <c r="I5" t="n">
-        <v>55317.65651085396</v>
+        <v>55317.65651085392</v>
       </c>
       <c r="J5" t="n">
         <v>64627.25466179928</v>
@@ -26500,13 +26500,13 @@
         <v>64236.38002533607</v>
       </c>
       <c r="M5" t="n">
-        <v>57041.74109215515</v>
+        <v>57041.74109215512</v>
       </c>
       <c r="N5" t="n">
-        <v>57041.74109215515</v>
+        <v>57041.74109215513</v>
       </c>
       <c r="O5" t="n">
-        <v>55280.51195643521</v>
+        <v>55280.51195643522</v>
       </c>
       <c r="P5" t="n">
         <v>55280.51195643521</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>311494.7093053138</v>
+        <v>311490.3407328465</v>
       </c>
       <c r="C6" t="n">
-        <v>311494.7093053139</v>
+        <v>311490.3407328471</v>
       </c>
       <c r="D6" t="n">
-        <v>309479.3971127726</v>
+        <v>309479.012392461</v>
       </c>
       <c r="E6" t="n">
-        <v>-17614.57443730417</v>
+        <v>-17800.38746485499</v>
       </c>
       <c r="F6" t="n">
-        <v>356783.0092254364</v>
+        <v>356597.1961978851</v>
       </c>
       <c r="G6" t="n">
-        <v>331126.8330304865</v>
+        <v>331126.8330304863</v>
       </c>
       <c r="H6" t="n">
-        <v>381743.2613279536</v>
+        <v>381743.2613279537</v>
       </c>
       <c r="I6" t="n">
         <v>381743.2613279537</v>
       </c>
       <c r="J6" t="n">
-        <v>279612.2773977874</v>
+        <v>279612.2773977877</v>
       </c>
       <c r="K6" t="n">
-        <v>374061.0314536802</v>
+        <v>374061.0314536799</v>
       </c>
       <c r="L6" t="n">
-        <v>321817.3273945649</v>
+        <v>321817.3273945646</v>
       </c>
       <c r="M6" t="n">
-        <v>235078.6972068545</v>
+        <v>235078.697206856</v>
       </c>
       <c r="N6" t="n">
-        <v>382669.942467781</v>
+        <v>382669.9424677819</v>
       </c>
       <c r="O6" t="n">
-        <v>359580.5118593348</v>
+        <v>359518.4898048735</v>
       </c>
       <c r="P6" t="n">
-        <v>374316.9772196399</v>
+        <v>374254.9551651788</v>
       </c>
     </row>
   </sheetData>
@@ -26698,13 +26698,13 @@
         <v>102.6409218245012</v>
       </c>
       <c r="G2" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963353</v>
       </c>
       <c r="H2" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963353</v>
       </c>
       <c r="I2" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963353</v>
       </c>
       <c r="J2" t="n">
         <v>102.6409218245012</v>
@@ -26713,7 +26713,7 @@
         <v>102.6409218245012</v>
       </c>
       <c r="L2" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="M2" t="n">
         <v>153.1656893025203</v>
@@ -26722,10 +26722,10 @@
         <v>153.1656893025203</v>
       </c>
       <c r="O2" t="n">
-        <v>132.2158845502343</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="P2" t="n">
-        <v>132.2158845502343</v>
+        <v>132.2158845502345</v>
       </c>
     </row>
     <row r="3">
@@ -26744,10 +26744,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>132.2825006662239</v>
+        <v>132.282500666224</v>
       </c>
       <c r="F3" t="n">
-        <v>132.2825006662241</v>
+        <v>132.282500666224</v>
       </c>
       <c r="G3" t="n">
         <v>132.282500666224</v>
@@ -26762,22 +26762,22 @@
         <v>132.2825006662241</v>
       </c>
       <c r="K3" t="n">
-        <v>132.2825006662241</v>
+        <v>132.282500666224</v>
       </c>
       <c r="L3" t="n">
-        <v>132.2825006662241</v>
+        <v>132.282500666224</v>
       </c>
       <c r="M3" t="n">
-        <v>132.2825006662241</v>
+        <v>132.282500666224</v>
       </c>
       <c r="N3" t="n">
-        <v>132.2825006662241</v>
+        <v>132.282500666224</v>
       </c>
       <c r="O3" t="n">
-        <v>132.2825006662241</v>
+        <v>132.282500666224</v>
       </c>
       <c r="P3" t="n">
-        <v>132.2825006662241</v>
+        <v>132.282500666224</v>
       </c>
     </row>
     <row r="4">
@@ -26799,19 +26799,19 @@
         <v>632.9915740344009</v>
       </c>
       <c r="F4" t="n">
-        <v>632.9915740344007</v>
+        <v>632.9915740344002</v>
       </c>
       <c r="G4" t="n">
-        <v>632.9915740344007</v>
+        <v>632.9915740344002</v>
       </c>
       <c r="H4" t="n">
-        <v>632.9915740344007</v>
+        <v>632.9915740344002</v>
       </c>
       <c r="I4" t="n">
-        <v>632.9915740344009</v>
+        <v>632.9915740344002</v>
       </c>
       <c r="J4" t="n">
-        <v>873.5950080659803</v>
+        <v>873.5950080659804</v>
       </c>
       <c r="K4" t="n">
         <v>873.5950080659803</v>
@@ -26820,16 +26820,16 @@
         <v>863.585329283049</v>
       </c>
       <c r="M4" t="n">
-        <v>678.9719776917416</v>
+        <v>678.9719776917411</v>
       </c>
       <c r="N4" t="n">
-        <v>678.9719776917416</v>
+        <v>678.9719776917412</v>
       </c>
       <c r="O4" t="n">
-        <v>678.9719776917416</v>
+        <v>678.9719776917414</v>
       </c>
       <c r="P4" t="n">
-        <v>678.9719776917416</v>
+        <v>678.9719776917412</v>
       </c>
     </row>
   </sheetData>
@@ -26917,10 +26917,10 @@
         <v>102.6409218245012</v>
       </c>
       <c r="F2" t="n">
-        <v>1.854508328208248e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>63.27053537183401</v>
+        <v>63.27053537183411</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>39.37038645266723</v>
+        <v>39.37038645266711</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>65.86023946655403</v>
+        <v>65.86023946655418</v>
       </c>
       <c r="M2" t="n">
         <v>47.93506338329904</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>18.42058170038122</v>
+        <v>18.42058170038132</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>132.2825006662239</v>
+        <v>132.282500666224</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>240.6034340315795</v>
+        <v>240.6034340315803</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>438.3685436601621</v>
+        <v>438.3685436601617</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>102.6409218245012</v>
       </c>
       <c r="K2" t="n">
-        <v>1.854508328208248e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>63.27053537183401</v>
+        <v>63.27053537183411</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>39.37038645266723</v>
+        <v>39.37038645266711</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>162.272501731286</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>79.72222485617382</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159496</v>
+        <v>175.3470068330182</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>213.298831734293</v>
       </c>
       <c r="U8" t="n">
         <v>252.3364829231459</v>
@@ -27932,7 +27932,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
-        <v>160.0866360314548</v>
+        <v>151.2701109594489</v>
       </c>
       <c r="D9" t="n">
         <v>137.45025063969</v>
@@ -27941,16 +27941,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>123.337181286693</v>
       </c>
       <c r="G9" t="n">
-        <v>118.6246899049423</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>57.68878367390825</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,13 +27977,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.17674743307231</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>141.2618133344558</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>186.7982527956746</v>
+        <v>176.7885740127433</v>
       </c>
       <c r="U9" t="n">
         <v>216.3098444776729</v>
@@ -27995,7 +27995,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X9" t="n">
-        <v>195.9378182409833</v>
+        <v>185.928139458052</v>
       </c>
       <c r="Y9" t="n">
         <v>190.5961130869169</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>181.719814997536</v>
+        <v>171.7101362146047</v>
       </c>
       <c r="C10" t="n">
         <v>167.9198098429365</v>
@@ -28023,7 +28023,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
-        <v>157.2208723628971</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
         <v>157.7789187685189</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.15196793284785</v>
+        <v>28.14228914991649</v>
       </c>
       <c r="R10" t="n">
-        <v>139.2100384997596</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
-        <v>201.5629861874179</v>
+        <v>202.7561398983434</v>
       </c>
       <c r="T10" t="n">
-        <v>220.8374848695466</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
-        <v>284.3183371157911</v>
+        <v>274.3086583328597</v>
       </c>
       <c r="V10" t="n">
         <v>258.1279513971616</v>
@@ -28135,7 +28135,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>56.32691617187025</v>
+        <v>56.32691617187023</v>
       </c>
       <c r="S11" t="n">
         <v>102.6409218245012</v>
@@ -28372,7 +28372,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>56.3269161718702</v>
+        <v>56.32691617187023</v>
       </c>
       <c r="S14" t="n">
         <v>102.6409218245012</v>
@@ -28524,7 +28524,7 @@
         <v>102.6409218245012</v>
       </c>
       <c r="P16" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245018</v>
       </c>
       <c r="Q16" t="n">
         <v>102.6409218245012</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963353</v>
       </c>
       <c r="C17" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963353</v>
       </c>
       <c r="D17" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963353</v>
       </c>
       <c r="E17" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963353</v>
       </c>
       <c r="F17" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963353</v>
       </c>
       <c r="G17" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963353</v>
       </c>
       <c r="H17" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963353</v>
       </c>
       <c r="I17" t="n">
         <v>150.58723340858</v>
@@ -28612,25 +28612,25 @@
         <v>56.32691617187023</v>
       </c>
       <c r="S17" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963353</v>
       </c>
       <c r="T17" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963353</v>
       </c>
       <c r="U17" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963353</v>
       </c>
       <c r="V17" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963353</v>
       </c>
       <c r="W17" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963353</v>
       </c>
       <c r="X17" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963353</v>
       </c>
       <c r="Y17" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963353</v>
       </c>
     </row>
     <row r="18">
@@ -28719,10 +28719,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963353</v>
       </c>
       <c r="C19" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963353</v>
       </c>
       <c r="D19" t="n">
         <v>151.5411742405149</v>
@@ -28734,7 +28734,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>12.74659064484464</v>
+        <v>165.9114571963353</v>
       </c>
       <c r="H19" t="n">
         <v>155.6580616266899</v>
@@ -28770,25 +28770,25 @@
         <v>137.300838189878</v>
       </c>
       <c r="S19" t="n">
-        <v>165.9114571963352</v>
+        <v>12.74659064484388</v>
       </c>
       <c r="T19" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963353</v>
       </c>
       <c r="U19" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963353</v>
       </c>
       <c r="V19" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963353</v>
       </c>
       <c r="W19" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963353</v>
       </c>
       <c r="X19" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963353</v>
       </c>
       <c r="Y19" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963353</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963353</v>
       </c>
       <c r="C20" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963353</v>
       </c>
       <c r="D20" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963353</v>
       </c>
       <c r="E20" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963353</v>
       </c>
       <c r="F20" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963353</v>
       </c>
       <c r="G20" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963353</v>
       </c>
       <c r="H20" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963353</v>
       </c>
       <c r="I20" t="n">
         <v>150.58723340858</v>
@@ -28849,25 +28849,25 @@
         <v>56.32691617187023</v>
       </c>
       <c r="S20" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963353</v>
       </c>
       <c r="T20" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963353</v>
       </c>
       <c r="U20" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963353</v>
       </c>
       <c r="V20" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963353</v>
       </c>
       <c r="W20" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963353</v>
       </c>
       <c r="X20" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963353</v>
       </c>
       <c r="Y20" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963353</v>
       </c>
     </row>
     <row r="21">
@@ -28956,10 +28956,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963353</v>
       </c>
       <c r="C22" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963353</v>
       </c>
       <c r="D22" t="n">
         <v>151.5411742405149</v>
@@ -28971,7 +28971,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>12.74659064484464</v>
+        <v>165.9114571963353</v>
       </c>
       <c r="H22" t="n">
         <v>155.6580616266899</v>
@@ -29007,25 +29007,25 @@
         <v>137.300838189878</v>
       </c>
       <c r="S22" t="n">
-        <v>165.9114571963352</v>
+        <v>12.74659064484388</v>
       </c>
       <c r="T22" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963353</v>
       </c>
       <c r="U22" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963353</v>
       </c>
       <c r="V22" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963353</v>
       </c>
       <c r="W22" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963353</v>
       </c>
       <c r="X22" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963353</v>
       </c>
       <c r="Y22" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963353</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963353</v>
       </c>
       <c r="C23" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963353</v>
       </c>
       <c r="D23" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963353</v>
       </c>
       <c r="E23" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963353</v>
       </c>
       <c r="F23" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963353</v>
       </c>
       <c r="G23" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963353</v>
       </c>
       <c r="H23" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963353</v>
       </c>
       <c r="I23" t="n">
         <v>150.58723340858</v>
@@ -29086,25 +29086,25 @@
         <v>56.32691617187023</v>
       </c>
       <c r="S23" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963353</v>
       </c>
       <c r="T23" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963353</v>
       </c>
       <c r="U23" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963353</v>
       </c>
       <c r="V23" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963353</v>
       </c>
       <c r="W23" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963353</v>
       </c>
       <c r="X23" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963353</v>
       </c>
       <c r="Y23" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963353</v>
       </c>
     </row>
     <row r="24">
@@ -29193,10 +29193,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963353</v>
       </c>
       <c r="C25" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963353</v>
       </c>
       <c r="D25" t="n">
         <v>151.5411742405149</v>
@@ -29208,7 +29208,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963353</v>
       </c>
       <c r="H25" t="n">
         <v>155.6580616266899</v>
@@ -29244,25 +29244,25 @@
         <v>137.300838189878</v>
       </c>
       <c r="S25" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963353</v>
       </c>
       <c r="T25" t="n">
-        <v>12.74659064484484</v>
+        <v>165.9114571963353</v>
       </c>
       <c r="U25" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963353</v>
       </c>
       <c r="V25" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963353</v>
       </c>
       <c r="W25" t="n">
-        <v>165.9114571963352</v>
+        <v>12.74659064484388</v>
       </c>
       <c r="X25" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963353</v>
       </c>
       <c r="Y25" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963353</v>
       </c>
     </row>
     <row r="26">
@@ -29296,13 +29296,13 @@
         <v>102.6409218245012</v>
       </c>
       <c r="J26" t="n">
-        <v>102.6409218245012</v>
+        <v>5.828106290018724</v>
       </c>
       <c r="K26" t="n">
         <v>102.6409218245012</v>
       </c>
       <c r="L26" t="n">
-        <v>5.828106290018582</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="M26" t="n">
         <v>102.6409218245012</v>
@@ -29542,7 +29542,7 @@
         <v>102.6409218245012</v>
       </c>
       <c r="M29" t="n">
-        <v>102.6409218245012</v>
+        <v>5.828106290019321</v>
       </c>
       <c r="N29" t="n">
         <v>102.6409218245012</v>
@@ -29554,7 +29554,7 @@
         <v>102.6409218245012</v>
       </c>
       <c r="Q29" t="n">
-        <v>5.828106290018468</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="R29" t="n">
         <v>102.6409218245012</v>
@@ -29703,7 +29703,7 @@
         <v>102.6409218245012</v>
       </c>
       <c r="N31" t="n">
-        <v>102.6409218245012</v>
+        <v>102.6409218245009</v>
       </c>
       <c r="O31" t="n">
         <v>102.6409218245012</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="C32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="D32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="E32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="F32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="G32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="H32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="I32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="J32" t="n">
-        <v>99.61052553308235</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="L32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="M32" t="n">
-        <v>105.2306259192212</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="O32" t="n">
-        <v>105.2306259192212</v>
+        <v>50.70681578573164</v>
       </c>
       <c r="P32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="Q32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="R32" t="n">
-        <v>56.3269161718702</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="S32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="T32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="U32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="V32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="W32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="X32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="Y32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="C34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="D34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="E34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="F34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="G34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="H34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="I34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="J34" t="n">
-        <v>42.59173164781777</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="K34" t="n">
-        <v>104.875318189399</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="L34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="M34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="N34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="O34" t="n">
-        <v>105.2306259192212</v>
+        <v>42.23642391799459</v>
       </c>
       <c r="P34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="Q34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="R34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="S34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="T34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="U34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="V34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="W34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="X34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="Y34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
     </row>
     <row r="35">
@@ -30004,7 +30004,7 @@
         <v>153.1656893025203</v>
       </c>
       <c r="I35" t="n">
-        <v>150.5872334085799</v>
+        <v>150.58723340858</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30031,7 +30031,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>56.3269161718702</v>
+        <v>56.32691617187023</v>
       </c>
       <c r="S35" t="n">
         <v>153.1656893025203</v>
@@ -30165,7 +30165,7 @@
         <v>135.5873989991865</v>
       </c>
       <c r="J37" t="n">
-        <v>42.59173164781777</v>
+        <v>42.59173164781779</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>18.17731033224801</v>
+        <v>18.17731033224803</v>
       </c>
       <c r="R37" t="n">
         <v>137.300838189878</v>
@@ -30195,7 +30195,7 @@
         <v>153.1656893025203</v>
       </c>
       <c r="T37" t="n">
-        <v>129.9508740133488</v>
+        <v>153.1656893025203</v>
       </c>
       <c r="U37" t="n">
         <v>153.1656893025203</v>
@@ -30210,7 +30210,7 @@
         <v>153.1656893025203</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.1656893025203</v>
+        <v>129.9508740133483</v>
       </c>
     </row>
     <row r="38">
@@ -30241,7 +30241,7 @@
         <v>153.1656893025203</v>
       </c>
       <c r="I38" t="n">
-        <v>150.5872334085799</v>
+        <v>150.58723340858</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30268,7 +30268,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>56.3269161718702</v>
+        <v>56.32691617187023</v>
       </c>
       <c r="S38" t="n">
         <v>153.1656893025203</v>
@@ -30393,7 +30393,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>129.9508740133489</v>
+        <v>153.1656893025203</v>
       </c>
       <c r="H40" t="n">
         <v>153.1656893025203</v>
@@ -30402,7 +30402,7 @@
         <v>135.5873989991865</v>
       </c>
       <c r="J40" t="n">
-        <v>42.59173164781777</v>
+        <v>42.59173164781779</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.17731033224801</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>137.300838189878</v>
@@ -30432,7 +30432,7 @@
         <v>153.1656893025203</v>
       </c>
       <c r="T40" t="n">
-        <v>153.1656893025203</v>
+        <v>148.1281843455964</v>
       </c>
       <c r="U40" t="n">
         <v>153.1656893025203</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>132.2158845502343</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="C41" t="n">
-        <v>132.2158845502343</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="D41" t="n">
-        <v>132.2158845502343</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="E41" t="n">
-        <v>132.2158845502343</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="F41" t="n">
-        <v>132.2158845502343</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="G41" t="n">
-        <v>132.2158845502343</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="H41" t="n">
-        <v>132.2158845502343</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="I41" t="n">
-        <v>132.2158845502343</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30505,28 +30505,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>56.3269161718702</v>
+        <v>56.32691617187023</v>
       </c>
       <c r="S41" t="n">
-        <v>132.2158845502343</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="T41" t="n">
-        <v>132.2158845502343</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="U41" t="n">
-        <v>132.2158845502343</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="V41" t="n">
-        <v>132.2158845502343</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="W41" t="n">
-        <v>132.2158845502343</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="X41" t="n">
-        <v>132.2158845502343</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="Y41" t="n">
-        <v>132.2158845502343</v>
+        <v>132.2158845502345</v>
       </c>
     </row>
     <row r="42">
@@ -30615,31 +30615,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.2158845502343</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="C43" t="n">
-        <v>132.2158845502343</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="D43" t="n">
-        <v>132.2158845502343</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="E43" t="n">
-        <v>132.2158845502343</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="F43" t="n">
-        <v>132.2158845502343</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="G43" t="n">
-        <v>132.2158845502343</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="H43" t="n">
-        <v>132.2158845502343</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="I43" t="n">
-        <v>132.2158845502343</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="J43" t="n">
-        <v>42.59173164781777</v>
+        <v>42.59173164781779</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30648,43 +30648,43 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>132.2158845502343</v>
+        <v>31.29660559781681</v>
       </c>
       <c r="N43" t="n">
-        <v>13.11929526557378</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>132.2158845502343</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="Q43" t="n">
-        <v>18.17731033224801</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="R43" t="n">
-        <v>132.2158845502343</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="S43" t="n">
-        <v>132.2158845502343</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="T43" t="n">
-        <v>132.2158845502343</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="U43" t="n">
-        <v>132.2158845502343</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="V43" t="n">
-        <v>132.2158845502343</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="W43" t="n">
-        <v>132.2158845502343</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="X43" t="n">
-        <v>132.2158845502343</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="Y43" t="n">
-        <v>132.2158845502343</v>
+        <v>132.2158845502345</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>132.2158845502343</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="C44" t="n">
-        <v>132.2158845502343</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="D44" t="n">
-        <v>132.2158845502343</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="E44" t="n">
-        <v>132.2158845502343</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="F44" t="n">
-        <v>132.2158845502343</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="G44" t="n">
-        <v>132.2158845502343</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="H44" t="n">
-        <v>132.2158845502343</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="I44" t="n">
-        <v>132.2158845502343</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30742,28 +30742,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>56.3269161718702</v>
+        <v>56.32691617187023</v>
       </c>
       <c r="S44" t="n">
-        <v>132.2158845502343</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="T44" t="n">
-        <v>132.2158845502343</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="U44" t="n">
-        <v>132.2158845502343</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="V44" t="n">
-        <v>132.2158845502343</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="W44" t="n">
-        <v>132.2158845502343</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="X44" t="n">
-        <v>132.2158845502343</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="Y44" t="n">
-        <v>132.2158845502343</v>
+        <v>132.2158845502345</v>
       </c>
     </row>
     <row r="45">
@@ -30852,40 +30852,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.2158845502343</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="C46" t="n">
-        <v>132.2158845502343</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="D46" t="n">
-        <v>132.2158845502343</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="E46" t="n">
-        <v>132.2158845502343</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="F46" t="n">
-        <v>132.2158845502343</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="G46" t="n">
-        <v>132.2158845502343</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="H46" t="n">
-        <v>132.2158845502343</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="I46" t="n">
-        <v>132.2158845502343</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="J46" t="n">
-        <v>132.2158845502343</v>
+        <v>42.59173164781779</v>
       </c>
       <c r="K46" t="n">
-        <v>73.88833724563952</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -30897,31 +30897,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>132.2158845502343</v>
+        <v>31.29660559781676</v>
       </c>
       <c r="R46" t="n">
-        <v>132.2158845502343</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="S46" t="n">
-        <v>132.2158845502343</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="T46" t="n">
-        <v>132.2158845502343</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="U46" t="n">
-        <v>132.2158845502343</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="V46" t="n">
-        <v>132.2158845502343</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="W46" t="n">
-        <v>132.2158845502343</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="X46" t="n">
-        <v>132.2158845502343</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="Y46" t="n">
-        <v>132.2158845502343</v>
+        <v>132.2158845502345</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5317889474019047</v>
+        <v>0.5317889474019051</v>
       </c>
       <c r="H11" t="n">
-        <v>5.446183557579759</v>
+        <v>5.446183557579762</v>
       </c>
       <c r="I11" t="n">
-        <v>20.50179339471195</v>
+        <v>20.50179339471197</v>
       </c>
       <c r="J11" t="n">
-        <v>45.13492217455246</v>
+        <v>45.13492217455249</v>
       </c>
       <c r="K11" t="n">
-        <v>67.6455483180751</v>
+        <v>67.64554831807514</v>
       </c>
       <c r="L11" t="n">
-        <v>83.92028431712616</v>
+        <v>83.92028431712622</v>
       </c>
       <c r="M11" t="n">
-        <v>93.37748601048477</v>
+        <v>93.37748601048484</v>
       </c>
       <c r="N11" t="n">
-        <v>94.88843135729044</v>
+        <v>94.88843135729051</v>
       </c>
       <c r="O11" t="n">
-        <v>89.60045501156276</v>
+        <v>89.60045501156281</v>
       </c>
       <c r="P11" t="n">
-        <v>76.47191537257821</v>
+        <v>76.47191537257827</v>
       </c>
       <c r="Q11" t="n">
-        <v>57.42722369374749</v>
+        <v>57.42722369374752</v>
       </c>
       <c r="R11" t="n">
-        <v>33.40498746723493</v>
+        <v>33.40498746723495</v>
       </c>
       <c r="S11" t="n">
-        <v>12.11814063892092</v>
+        <v>12.11814063892093</v>
       </c>
       <c r="T11" t="n">
-        <v>2.327906117251839</v>
+        <v>2.327906117251841</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04254311579215237</v>
+        <v>0.0425431157921524</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2845321712443307</v>
+        <v>0.2845321712443309</v>
       </c>
       <c r="H12" t="n">
-        <v>2.747981759122879</v>
+        <v>2.74798175912288</v>
       </c>
       <c r="I12" t="n">
-        <v>9.796392738017527</v>
+        <v>9.796392738017532</v>
       </c>
       <c r="J12" t="n">
-        <v>26.88205044199179</v>
+        <v>26.88205044199181</v>
       </c>
       <c r="K12" t="n">
-        <v>45.94570591536194</v>
+        <v>45.94570591536198</v>
       </c>
       <c r="L12" t="n">
-        <v>61.77967165548505</v>
+        <v>61.77967165548509</v>
       </c>
       <c r="M12" t="n">
-        <v>72.09396286309202</v>
+        <v>72.09396286309207</v>
       </c>
       <c r="N12" t="n">
-        <v>74.00207553779634</v>
+        <v>74.00207553779639</v>
       </c>
       <c r="O12" t="n">
-        <v>67.69744163811933</v>
+        <v>67.69744163811937</v>
       </c>
       <c r="P12" t="n">
-        <v>54.33316522647224</v>
+        <v>54.33316522647227</v>
       </c>
       <c r="Q12" t="n">
-        <v>36.32028206971491</v>
+        <v>36.32028206971494</v>
       </c>
       <c r="R12" t="n">
-        <v>17.66595357953836</v>
+        <v>17.66595357953837</v>
       </c>
       <c r="S12" t="n">
-        <v>5.28506028605149</v>
+        <v>5.285060286051493</v>
       </c>
       <c r="T12" t="n">
-        <v>1.146864321813771</v>
+        <v>1.146864321813772</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01871922179239018</v>
+        <v>0.0187192217923902</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2385422143161414</v>
+        <v>0.2385422143161416</v>
       </c>
       <c r="H13" t="n">
-        <v>2.120857141828968</v>
+        <v>2.120857141828969</v>
       </c>
       <c r="I13" t="n">
-        <v>7.173614954161783</v>
+        <v>7.173614954161788</v>
       </c>
       <c r="J13" t="n">
-        <v>16.8649345521512</v>
+        <v>16.86493455215121</v>
       </c>
       <c r="K13" t="n">
-        <v>27.71426817236625</v>
+        <v>27.71426817236626</v>
       </c>
       <c r="L13" t="n">
-        <v>35.46472157205616</v>
+        <v>35.46472157205618</v>
       </c>
       <c r="M13" t="n">
-        <v>37.39257637684752</v>
+        <v>37.39257637684754</v>
       </c>
       <c r="N13" t="n">
-        <v>36.50346448712374</v>
+        <v>36.50346448712376</v>
       </c>
       <c r="O13" t="n">
-        <v>33.71685771079426</v>
+        <v>33.71685771079428</v>
       </c>
       <c r="P13" t="n">
-        <v>28.85059653874495</v>
+        <v>28.85059653874497</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.97465760059981</v>
+        <v>19.97465760059982</v>
       </c>
       <c r="R13" t="n">
-        <v>10.72572538188759</v>
+        <v>10.7257253818876</v>
       </c>
       <c r="S13" t="n">
-        <v>4.157140225854937</v>
+        <v>4.157140225854939</v>
       </c>
       <c r="T13" t="n">
-        <v>1.019225824805331</v>
+        <v>1.019225824805332</v>
       </c>
       <c r="U13" t="n">
         <v>0.01301139350815319</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5317889474019056</v>
+        <v>0.5317889474019051</v>
       </c>
       <c r="H14" t="n">
-        <v>5.446183557579768</v>
+        <v>5.446183557579762</v>
       </c>
       <c r="I14" t="n">
-        <v>20.50179339471199</v>
+        <v>20.50179339471197</v>
       </c>
       <c r="J14" t="n">
-        <v>45.13492217455254</v>
+        <v>45.13492217455249</v>
       </c>
       <c r="K14" t="n">
-        <v>67.64554831807521</v>
+        <v>67.64554831807514</v>
       </c>
       <c r="L14" t="n">
-        <v>83.9202843171263</v>
+        <v>83.92028431712622</v>
       </c>
       <c r="M14" t="n">
-        <v>93.37748601048494</v>
+        <v>93.37748601048484</v>
       </c>
       <c r="N14" t="n">
-        <v>94.88843135729061</v>
+        <v>94.88843135729051</v>
       </c>
       <c r="O14" t="n">
-        <v>89.6004550115629</v>
+        <v>89.60045501156281</v>
       </c>
       <c r="P14" t="n">
-        <v>76.47191537257835</v>
+        <v>76.47191537257827</v>
       </c>
       <c r="Q14" t="n">
-        <v>57.42722369374759</v>
+        <v>57.42722369374752</v>
       </c>
       <c r="R14" t="n">
-        <v>33.40498746723499</v>
+        <v>33.40498746723495</v>
       </c>
       <c r="S14" t="n">
-        <v>12.11814063892094</v>
+        <v>12.11814063892093</v>
       </c>
       <c r="T14" t="n">
-        <v>2.327906117251843</v>
+        <v>2.327906117251841</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04254311579215245</v>
+        <v>0.0425431157921524</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2845321712443312</v>
+        <v>0.2845321712443309</v>
       </c>
       <c r="H15" t="n">
-        <v>2.747981759122883</v>
+        <v>2.74798175912288</v>
       </c>
       <c r="I15" t="n">
-        <v>9.796392738017543</v>
+        <v>9.796392738017532</v>
       </c>
       <c r="J15" t="n">
-        <v>26.88205044199184</v>
+        <v>26.88205044199181</v>
       </c>
       <c r="K15" t="n">
-        <v>45.94570591536203</v>
+        <v>45.94570591536198</v>
       </c>
       <c r="L15" t="n">
-        <v>61.77967165548516</v>
+        <v>61.77967165548509</v>
       </c>
       <c r="M15" t="n">
-        <v>72.09396286309214</v>
+        <v>72.09396286309207</v>
       </c>
       <c r="N15" t="n">
-        <v>74.00207553779647</v>
+        <v>74.00207553779639</v>
       </c>
       <c r="O15" t="n">
-        <v>67.69744163811944</v>
+        <v>67.69744163811937</v>
       </c>
       <c r="P15" t="n">
-        <v>54.33316522647233</v>
+        <v>54.33316522647227</v>
       </c>
       <c r="Q15" t="n">
-        <v>36.32028206971498</v>
+        <v>36.32028206971494</v>
       </c>
       <c r="R15" t="n">
-        <v>17.66595357953839</v>
+        <v>17.66595357953837</v>
       </c>
       <c r="S15" t="n">
-        <v>5.285060286051499</v>
+        <v>5.285060286051493</v>
       </c>
       <c r="T15" t="n">
-        <v>1.146864321813773</v>
+        <v>1.146864321813772</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01871922179239022</v>
+        <v>0.0187192217923902</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2385422143161419</v>
+        <v>0.2385422143161416</v>
       </c>
       <c r="H16" t="n">
-        <v>2.120857141828972</v>
+        <v>2.120857141828969</v>
       </c>
       <c r="I16" t="n">
-        <v>7.173614954161796</v>
+        <v>7.173614954161788</v>
       </c>
       <c r="J16" t="n">
-        <v>16.86493455215123</v>
+        <v>16.86493455215121</v>
       </c>
       <c r="K16" t="n">
-        <v>27.71426817236629</v>
+        <v>27.71426817236626</v>
       </c>
       <c r="L16" t="n">
-        <v>35.46472157205623</v>
+        <v>35.46472157205618</v>
       </c>
       <c r="M16" t="n">
-        <v>37.39257637684758</v>
+        <v>37.39257637684754</v>
       </c>
       <c r="N16" t="n">
-        <v>36.50346448712381</v>
+        <v>36.50346448712376</v>
       </c>
       <c r="O16" t="n">
-        <v>33.71685771079432</v>
+        <v>33.71685771079428</v>
       </c>
       <c r="P16" t="n">
-        <v>28.850596538745</v>
+        <v>28.85059653874497</v>
       </c>
       <c r="Q16" t="n">
-        <v>19.97465760059984</v>
+        <v>19.97465760059982</v>
       </c>
       <c r="R16" t="n">
-        <v>10.72572538188761</v>
+        <v>10.7257253818876</v>
       </c>
       <c r="S16" t="n">
-        <v>4.157140225854944</v>
+        <v>4.157140225854939</v>
       </c>
       <c r="T16" t="n">
-        <v>1.019225824805333</v>
+        <v>1.019225824805332</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01301139350815321</v>
+        <v>0.01301139350815319</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32935,40 +32935,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5317889474019055</v>
+        <v>0.5317889474019056</v>
       </c>
       <c r="H26" t="n">
-        <v>5.446183557579767</v>
+        <v>5.446183557579768</v>
       </c>
       <c r="I26" t="n">
         <v>20.50179339471199</v>
       </c>
       <c r="J26" t="n">
-        <v>45.13492217455252</v>
+        <v>45.13492217455254</v>
       </c>
       <c r="K26" t="n">
-        <v>67.6455483180752</v>
+        <v>67.64554831807521</v>
       </c>
       <c r="L26" t="n">
-        <v>83.92028431712629</v>
+        <v>83.9202843171263</v>
       </c>
       <c r="M26" t="n">
-        <v>93.37748601048492</v>
+        <v>93.37748601048494</v>
       </c>
       <c r="N26" t="n">
-        <v>94.88843135729059</v>
+        <v>94.88843135729061</v>
       </c>
       <c r="O26" t="n">
-        <v>89.60045501156289</v>
+        <v>89.6004550115629</v>
       </c>
       <c r="P26" t="n">
-        <v>76.47191537257834</v>
+        <v>76.47191537257835</v>
       </c>
       <c r="Q26" t="n">
-        <v>57.42722369374757</v>
+        <v>57.42722369374759</v>
       </c>
       <c r="R26" t="n">
-        <v>33.40498746723498</v>
+        <v>33.40498746723499</v>
       </c>
       <c r="S26" t="n">
         <v>12.11814063892094</v>
@@ -32977,7 +32977,7 @@
         <v>2.327906117251843</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04254311579215243</v>
+        <v>0.04254311579215245</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2845321712443311</v>
+        <v>0.2845321712443312</v>
       </c>
       <c r="H27" t="n">
         <v>2.747981759122883</v>
       </c>
       <c r="I27" t="n">
-        <v>9.796392738017541</v>
+        <v>9.796392738017543</v>
       </c>
       <c r="J27" t="n">
-        <v>26.88205044199183</v>
+        <v>26.88205044199184</v>
       </c>
       <c r="K27" t="n">
-        <v>45.94570591536201</v>
+        <v>45.94570591536203</v>
       </c>
       <c r="L27" t="n">
-        <v>61.77967165548515</v>
+        <v>61.77967165548516</v>
       </c>
       <c r="M27" t="n">
-        <v>72.09396286309213</v>
+        <v>72.09396286309214</v>
       </c>
       <c r="N27" t="n">
-        <v>74.00207553779646</v>
+        <v>74.00207553779647</v>
       </c>
       <c r="O27" t="n">
-        <v>67.69744163811943</v>
+        <v>67.69744163811944</v>
       </c>
       <c r="P27" t="n">
-        <v>54.33316522647232</v>
+        <v>54.33316522647233</v>
       </c>
       <c r="Q27" t="n">
-        <v>36.32028206971497</v>
+        <v>36.32028206971498</v>
       </c>
       <c r="R27" t="n">
         <v>17.66595357953839</v>
       </c>
       <c r="S27" t="n">
-        <v>5.285060286051498</v>
+        <v>5.285060286051499</v>
       </c>
       <c r="T27" t="n">
         <v>1.146864321813773</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01871922179239021</v>
+        <v>0.01871922179239022</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2385422143161418</v>
+        <v>0.2385422143161419</v>
       </c>
       <c r="H28" t="n">
         <v>2.120857141828972</v>
       </c>
       <c r="I28" t="n">
-        <v>7.173614954161794</v>
+        <v>7.173614954161796</v>
       </c>
       <c r="J28" t="n">
         <v>16.86493455215123</v>
@@ -33108,19 +33108,19 @@
         <v>27.71426817236629</v>
       </c>
       <c r="L28" t="n">
-        <v>35.46472157205622</v>
+        <v>35.46472157205623</v>
       </c>
       <c r="M28" t="n">
-        <v>37.39257637684757</v>
+        <v>37.39257637684758</v>
       </c>
       <c r="N28" t="n">
-        <v>36.5034644871238</v>
+        <v>36.50346448712381</v>
       </c>
       <c r="O28" t="n">
         <v>33.71685771079432</v>
       </c>
       <c r="P28" t="n">
-        <v>28.85059653874499</v>
+        <v>28.850596538745</v>
       </c>
       <c r="Q28" t="n">
         <v>19.97465760059984</v>
@@ -33129,13 +33129,13 @@
         <v>10.72572538188761</v>
       </c>
       <c r="S28" t="n">
-        <v>4.157140225854943</v>
+        <v>4.157140225854944</v>
       </c>
       <c r="T28" t="n">
         <v>1.019225824805333</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0130113935081532</v>
+        <v>0.01301139350815321</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5317889474019055</v>
+        <v>0.5317889474019051</v>
       </c>
       <c r="H29" t="n">
-        <v>5.446183557579767</v>
+        <v>5.446183557579762</v>
       </c>
       <c r="I29" t="n">
-        <v>20.50179339471199</v>
+        <v>20.50179339471197</v>
       </c>
       <c r="J29" t="n">
-        <v>45.13492217455252</v>
+        <v>45.13492217455249</v>
       </c>
       <c r="K29" t="n">
-        <v>67.6455483180752</v>
+        <v>67.64554831807514</v>
       </c>
       <c r="L29" t="n">
-        <v>83.92028431712629</v>
+        <v>83.92028431712622</v>
       </c>
       <c r="M29" t="n">
-        <v>93.37748601048492</v>
+        <v>93.37748601048484</v>
       </c>
       <c r="N29" t="n">
-        <v>94.88843135729059</v>
+        <v>94.88843135729051</v>
       </c>
       <c r="O29" t="n">
-        <v>89.60045501156289</v>
+        <v>89.60045501156281</v>
       </c>
       <c r="P29" t="n">
-        <v>76.47191537257834</v>
+        <v>76.47191537257827</v>
       </c>
       <c r="Q29" t="n">
-        <v>57.42722369374757</v>
+        <v>57.42722369374752</v>
       </c>
       <c r="R29" t="n">
-        <v>33.40498746723498</v>
+        <v>33.40498746723495</v>
       </c>
       <c r="S29" t="n">
-        <v>12.11814063892094</v>
+        <v>12.11814063892093</v>
       </c>
       <c r="T29" t="n">
-        <v>2.327906117251843</v>
+        <v>2.327906117251841</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04254311579215243</v>
+        <v>0.0425431157921524</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2845321712443311</v>
+        <v>0.2845321712443309</v>
       </c>
       <c r="H30" t="n">
-        <v>2.747981759122883</v>
+        <v>2.74798175912288</v>
       </c>
       <c r="I30" t="n">
-        <v>9.796392738017541</v>
+        <v>9.796392738017532</v>
       </c>
       <c r="J30" t="n">
-        <v>26.88205044199183</v>
+        <v>26.88205044199181</v>
       </c>
       <c r="K30" t="n">
-        <v>45.94570591536201</v>
+        <v>45.94570591536198</v>
       </c>
       <c r="L30" t="n">
-        <v>61.77967165548515</v>
+        <v>61.77967165548509</v>
       </c>
       <c r="M30" t="n">
-        <v>72.09396286309213</v>
+        <v>72.09396286309207</v>
       </c>
       <c r="N30" t="n">
-        <v>74.00207553779646</v>
+        <v>74.00207553779639</v>
       </c>
       <c r="O30" t="n">
-        <v>67.69744163811943</v>
+        <v>67.69744163811937</v>
       </c>
       <c r="P30" t="n">
-        <v>54.33316522647232</v>
+        <v>54.33316522647227</v>
       </c>
       <c r="Q30" t="n">
-        <v>36.32028206971497</v>
+        <v>36.32028206971494</v>
       </c>
       <c r="R30" t="n">
-        <v>17.66595357953839</v>
+        <v>17.66595357953837</v>
       </c>
       <c r="S30" t="n">
-        <v>5.285060286051498</v>
+        <v>5.285060286051493</v>
       </c>
       <c r="T30" t="n">
-        <v>1.146864321813773</v>
+        <v>1.146864321813772</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01871922179239021</v>
+        <v>0.0187192217923902</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2385422143161418</v>
+        <v>0.2385422143161416</v>
       </c>
       <c r="H31" t="n">
-        <v>2.120857141828972</v>
+        <v>2.120857141828969</v>
       </c>
       <c r="I31" t="n">
-        <v>7.173614954161794</v>
+        <v>7.173614954161788</v>
       </c>
       <c r="J31" t="n">
-        <v>16.86493455215123</v>
+        <v>16.86493455215121</v>
       </c>
       <c r="K31" t="n">
-        <v>27.71426817236629</v>
+        <v>27.71426817236626</v>
       </c>
       <c r="L31" t="n">
-        <v>35.46472157205622</v>
+        <v>35.46472157205618</v>
       </c>
       <c r="M31" t="n">
-        <v>37.39257637684757</v>
+        <v>37.39257637684754</v>
       </c>
       <c r="N31" t="n">
-        <v>36.5034644871238</v>
+        <v>36.50346448712376</v>
       </c>
       <c r="O31" t="n">
-        <v>33.71685771079432</v>
+        <v>33.71685771079428</v>
       </c>
       <c r="P31" t="n">
-        <v>28.85059653874499</v>
+        <v>28.85059653874497</v>
       </c>
       <c r="Q31" t="n">
-        <v>19.97465760059984</v>
+        <v>19.97465760059982</v>
       </c>
       <c r="R31" t="n">
-        <v>10.72572538188761</v>
+        <v>10.7257253818876</v>
       </c>
       <c r="S31" t="n">
-        <v>4.157140225854943</v>
+        <v>4.157140225854939</v>
       </c>
       <c r="T31" t="n">
-        <v>1.019225824805333</v>
+        <v>1.019225824805332</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0130113935081532</v>
+        <v>0.01301139350815319</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5317889474019055</v>
+        <v>0.5317889474019051</v>
       </c>
       <c r="H32" t="n">
-        <v>5.446183557579767</v>
+        <v>5.446183557579762</v>
       </c>
       <c r="I32" t="n">
-        <v>20.50179339471199</v>
+        <v>20.50179339471197</v>
       </c>
       <c r="J32" t="n">
-        <v>45.13492217455252</v>
+        <v>45.13492217455249</v>
       </c>
       <c r="K32" t="n">
-        <v>67.6455483180752</v>
+        <v>67.64554831807514</v>
       </c>
       <c r="L32" t="n">
-        <v>83.92028431712629</v>
+        <v>83.92028431712622</v>
       </c>
       <c r="M32" t="n">
-        <v>93.37748601048492</v>
+        <v>93.37748601048484</v>
       </c>
       <c r="N32" t="n">
-        <v>94.88843135729059</v>
+        <v>94.88843135729051</v>
       </c>
       <c r="O32" t="n">
-        <v>89.60045501156289</v>
+        <v>89.60045501156281</v>
       </c>
       <c r="P32" t="n">
-        <v>76.47191537257834</v>
+        <v>76.47191537257827</v>
       </c>
       <c r="Q32" t="n">
-        <v>57.42722369374757</v>
+        <v>57.42722369374752</v>
       </c>
       <c r="R32" t="n">
-        <v>33.40498746723498</v>
+        <v>33.40498746723495</v>
       </c>
       <c r="S32" t="n">
-        <v>12.11814063892094</v>
+        <v>12.11814063892093</v>
       </c>
       <c r="T32" t="n">
-        <v>2.327906117251843</v>
+        <v>2.327906117251841</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04254311579215243</v>
+        <v>0.0425431157921524</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2845321712443311</v>
+        <v>0.2845321712443309</v>
       </c>
       <c r="H33" t="n">
-        <v>2.747981759122883</v>
+        <v>2.74798175912288</v>
       </c>
       <c r="I33" t="n">
-        <v>9.796392738017541</v>
+        <v>9.796392738017532</v>
       </c>
       <c r="J33" t="n">
-        <v>26.88205044199183</v>
+        <v>26.88205044199181</v>
       </c>
       <c r="K33" t="n">
-        <v>45.94570591536201</v>
+        <v>45.94570591536198</v>
       </c>
       <c r="L33" t="n">
-        <v>61.77967165548515</v>
+        <v>61.77967165548509</v>
       </c>
       <c r="M33" t="n">
-        <v>72.09396286309213</v>
+        <v>72.09396286309207</v>
       </c>
       <c r="N33" t="n">
-        <v>74.00207553779646</v>
+        <v>74.00207553779639</v>
       </c>
       <c r="O33" t="n">
-        <v>67.69744163811943</v>
+        <v>67.69744163811937</v>
       </c>
       <c r="P33" t="n">
-        <v>54.33316522647232</v>
+        <v>54.33316522647227</v>
       </c>
       <c r="Q33" t="n">
-        <v>36.32028206971497</v>
+        <v>36.32028206971494</v>
       </c>
       <c r="R33" t="n">
-        <v>17.66595357953839</v>
+        <v>17.66595357953837</v>
       </c>
       <c r="S33" t="n">
-        <v>5.285060286051498</v>
+        <v>5.285060286051493</v>
       </c>
       <c r="T33" t="n">
-        <v>1.146864321813773</v>
+        <v>1.146864321813772</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01871922179239021</v>
+        <v>0.0187192217923902</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2385422143161418</v>
+        <v>0.2385422143161416</v>
       </c>
       <c r="H34" t="n">
-        <v>2.120857141828972</v>
+        <v>2.120857141828969</v>
       </c>
       <c r="I34" t="n">
-        <v>7.173614954161794</v>
+        <v>7.173614954161788</v>
       </c>
       <c r="J34" t="n">
-        <v>16.86493455215123</v>
+        <v>16.86493455215121</v>
       </c>
       <c r="K34" t="n">
-        <v>27.71426817236629</v>
+        <v>27.71426817236626</v>
       </c>
       <c r="L34" t="n">
-        <v>35.46472157205622</v>
+        <v>35.46472157205618</v>
       </c>
       <c r="M34" t="n">
-        <v>37.39257637684757</v>
+        <v>37.39257637684754</v>
       </c>
       <c r="N34" t="n">
-        <v>36.5034644871238</v>
+        <v>36.50346448712376</v>
       </c>
       <c r="O34" t="n">
-        <v>33.71685771079432</v>
+        <v>33.71685771079428</v>
       </c>
       <c r="P34" t="n">
-        <v>28.85059653874499</v>
+        <v>28.85059653874497</v>
       </c>
       <c r="Q34" t="n">
-        <v>19.97465760059984</v>
+        <v>19.97465760059982</v>
       </c>
       <c r="R34" t="n">
-        <v>10.72572538188761</v>
+        <v>10.7257253818876</v>
       </c>
       <c r="S34" t="n">
-        <v>4.157140225854943</v>
+        <v>4.157140225854939</v>
       </c>
       <c r="T34" t="n">
-        <v>1.019225824805333</v>
+        <v>1.019225824805332</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0130113935081532</v>
+        <v>0.01301139350815319</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5317889474019055</v>
+        <v>0.5317889474019051</v>
       </c>
       <c r="H35" t="n">
-        <v>5.446183557579767</v>
+        <v>5.446183557579762</v>
       </c>
       <c r="I35" t="n">
-        <v>20.50179339471199</v>
+        <v>20.50179339471197</v>
       </c>
       <c r="J35" t="n">
-        <v>45.13492217455252</v>
+        <v>45.13492217455249</v>
       </c>
       <c r="K35" t="n">
-        <v>67.6455483180752</v>
+        <v>67.64554831807514</v>
       </c>
       <c r="L35" t="n">
-        <v>83.92028431712629</v>
+        <v>83.92028431712622</v>
       </c>
       <c r="M35" t="n">
-        <v>93.37748601048492</v>
+        <v>93.37748601048484</v>
       </c>
       <c r="N35" t="n">
-        <v>94.88843135729059</v>
+        <v>94.88843135729051</v>
       </c>
       <c r="O35" t="n">
-        <v>89.60045501156289</v>
+        <v>89.60045501156281</v>
       </c>
       <c r="P35" t="n">
-        <v>76.47191537257834</v>
+        <v>76.47191537257827</v>
       </c>
       <c r="Q35" t="n">
-        <v>57.42722369374757</v>
+        <v>57.42722369374752</v>
       </c>
       <c r="R35" t="n">
-        <v>33.40498746723498</v>
+        <v>33.40498746723495</v>
       </c>
       <c r="S35" t="n">
-        <v>12.11814063892094</v>
+        <v>12.11814063892093</v>
       </c>
       <c r="T35" t="n">
-        <v>2.327906117251843</v>
+        <v>2.327906117251841</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04254311579215243</v>
+        <v>0.0425431157921524</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2845321712443311</v>
+        <v>0.2845321712443309</v>
       </c>
       <c r="H36" t="n">
-        <v>2.747981759122883</v>
+        <v>2.74798175912288</v>
       </c>
       <c r="I36" t="n">
-        <v>9.796392738017541</v>
+        <v>9.796392738017532</v>
       </c>
       <c r="J36" t="n">
-        <v>26.88205044199183</v>
+        <v>26.88205044199181</v>
       </c>
       <c r="K36" t="n">
-        <v>45.94570591536201</v>
+        <v>45.94570591536198</v>
       </c>
       <c r="L36" t="n">
-        <v>61.77967165548515</v>
+        <v>61.77967165548509</v>
       </c>
       <c r="M36" t="n">
-        <v>72.09396286309213</v>
+        <v>72.09396286309207</v>
       </c>
       <c r="N36" t="n">
-        <v>74.00207553779646</v>
+        <v>74.00207553779639</v>
       </c>
       <c r="O36" t="n">
-        <v>67.69744163811943</v>
+        <v>67.69744163811937</v>
       </c>
       <c r="P36" t="n">
-        <v>54.33316522647232</v>
+        <v>54.33316522647227</v>
       </c>
       <c r="Q36" t="n">
-        <v>36.32028206971497</v>
+        <v>36.32028206971494</v>
       </c>
       <c r="R36" t="n">
-        <v>17.66595357953839</v>
+        <v>17.66595357953837</v>
       </c>
       <c r="S36" t="n">
-        <v>5.285060286051498</v>
+        <v>5.285060286051493</v>
       </c>
       <c r="T36" t="n">
-        <v>1.146864321813773</v>
+        <v>1.146864321813772</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01871922179239021</v>
+        <v>0.0187192217923902</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2385422143161418</v>
+        <v>0.2385422143161416</v>
       </c>
       <c r="H37" t="n">
-        <v>2.120857141828972</v>
+        <v>2.120857141828969</v>
       </c>
       <c r="I37" t="n">
-        <v>7.173614954161794</v>
+        <v>7.173614954161788</v>
       </c>
       <c r="J37" t="n">
-        <v>16.86493455215123</v>
+        <v>16.86493455215121</v>
       </c>
       <c r="K37" t="n">
-        <v>27.71426817236629</v>
+        <v>27.71426817236626</v>
       </c>
       <c r="L37" t="n">
-        <v>35.46472157205622</v>
+        <v>35.46472157205618</v>
       </c>
       <c r="M37" t="n">
-        <v>37.39257637684757</v>
+        <v>37.39257637684754</v>
       </c>
       <c r="N37" t="n">
-        <v>36.5034644871238</v>
+        <v>36.50346448712376</v>
       </c>
       <c r="O37" t="n">
-        <v>33.71685771079432</v>
+        <v>33.71685771079428</v>
       </c>
       <c r="P37" t="n">
-        <v>28.85059653874499</v>
+        <v>28.85059653874497</v>
       </c>
       <c r="Q37" t="n">
-        <v>19.97465760059984</v>
+        <v>19.97465760059982</v>
       </c>
       <c r="R37" t="n">
-        <v>10.72572538188761</v>
+        <v>10.7257253818876</v>
       </c>
       <c r="S37" t="n">
-        <v>4.157140225854943</v>
+        <v>4.157140225854939</v>
       </c>
       <c r="T37" t="n">
-        <v>1.019225824805333</v>
+        <v>1.019225824805332</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0130113935081532</v>
+        <v>0.01301139350815319</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5317889474019055</v>
+        <v>0.5317889474019051</v>
       </c>
       <c r="H38" t="n">
-        <v>5.446183557579767</v>
+        <v>5.446183557579762</v>
       </c>
       <c r="I38" t="n">
-        <v>20.50179339471199</v>
+        <v>20.50179339471197</v>
       </c>
       <c r="J38" t="n">
-        <v>45.13492217455252</v>
+        <v>45.13492217455249</v>
       </c>
       <c r="K38" t="n">
-        <v>67.6455483180752</v>
+        <v>67.64554831807514</v>
       </c>
       <c r="L38" t="n">
-        <v>83.92028431712629</v>
+        <v>83.92028431712622</v>
       </c>
       <c r="M38" t="n">
-        <v>93.37748601048492</v>
+        <v>93.37748601048484</v>
       </c>
       <c r="N38" t="n">
-        <v>94.88843135729059</v>
+        <v>94.88843135729051</v>
       </c>
       <c r="O38" t="n">
-        <v>89.60045501156289</v>
+        <v>89.60045501156281</v>
       </c>
       <c r="P38" t="n">
-        <v>76.47191537257834</v>
+        <v>76.47191537257827</v>
       </c>
       <c r="Q38" t="n">
-        <v>57.42722369374757</v>
+        <v>57.42722369374752</v>
       </c>
       <c r="R38" t="n">
-        <v>33.40498746723498</v>
+        <v>33.40498746723495</v>
       </c>
       <c r="S38" t="n">
-        <v>12.11814063892094</v>
+        <v>12.11814063892093</v>
       </c>
       <c r="T38" t="n">
-        <v>2.327906117251843</v>
+        <v>2.327906117251841</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04254311579215243</v>
+        <v>0.0425431157921524</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2845321712443311</v>
+        <v>0.2845321712443309</v>
       </c>
       <c r="H39" t="n">
-        <v>2.747981759122883</v>
+        <v>2.74798175912288</v>
       </c>
       <c r="I39" t="n">
-        <v>9.796392738017541</v>
+        <v>9.796392738017532</v>
       </c>
       <c r="J39" t="n">
-        <v>26.88205044199183</v>
+        <v>26.88205044199181</v>
       </c>
       <c r="K39" t="n">
-        <v>45.94570591536201</v>
+        <v>45.94570591536198</v>
       </c>
       <c r="L39" t="n">
-        <v>61.77967165548515</v>
+        <v>61.77967165548509</v>
       </c>
       <c r="M39" t="n">
-        <v>72.09396286309213</v>
+        <v>72.09396286309207</v>
       </c>
       <c r="N39" t="n">
-        <v>74.00207553779646</v>
+        <v>74.00207553779639</v>
       </c>
       <c r="O39" t="n">
-        <v>67.69744163811943</v>
+        <v>67.69744163811937</v>
       </c>
       <c r="P39" t="n">
-        <v>54.33316522647232</v>
+        <v>54.33316522647227</v>
       </c>
       <c r="Q39" t="n">
-        <v>36.32028206971497</v>
+        <v>36.32028206971494</v>
       </c>
       <c r="R39" t="n">
-        <v>17.66595357953839</v>
+        <v>17.66595357953837</v>
       </c>
       <c r="S39" t="n">
-        <v>5.285060286051498</v>
+        <v>5.285060286051493</v>
       </c>
       <c r="T39" t="n">
-        <v>1.146864321813773</v>
+        <v>1.146864321813772</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01871922179239021</v>
+        <v>0.0187192217923902</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2385422143161418</v>
+        <v>0.2385422143161416</v>
       </c>
       <c r="H40" t="n">
-        <v>2.120857141828972</v>
+        <v>2.120857141828969</v>
       </c>
       <c r="I40" t="n">
-        <v>7.173614954161794</v>
+        <v>7.173614954161788</v>
       </c>
       <c r="J40" t="n">
-        <v>16.86493455215123</v>
+        <v>16.86493455215121</v>
       </c>
       <c r="K40" t="n">
-        <v>27.71426817236629</v>
+        <v>27.71426817236626</v>
       </c>
       <c r="L40" t="n">
-        <v>35.46472157205622</v>
+        <v>35.46472157205618</v>
       </c>
       <c r="M40" t="n">
-        <v>37.39257637684757</v>
+        <v>37.39257637684754</v>
       </c>
       <c r="N40" t="n">
-        <v>36.5034644871238</v>
+        <v>36.50346448712376</v>
       </c>
       <c r="O40" t="n">
-        <v>33.71685771079432</v>
+        <v>33.71685771079428</v>
       </c>
       <c r="P40" t="n">
-        <v>28.85059653874499</v>
+        <v>28.85059653874497</v>
       </c>
       <c r="Q40" t="n">
-        <v>19.97465760059984</v>
+        <v>19.97465760059982</v>
       </c>
       <c r="R40" t="n">
-        <v>10.72572538188761</v>
+        <v>10.7257253818876</v>
       </c>
       <c r="S40" t="n">
-        <v>4.157140225854943</v>
+        <v>4.157140225854939</v>
       </c>
       <c r="T40" t="n">
-        <v>1.019225824805333</v>
+        <v>1.019225824805332</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0130113935081532</v>
+        <v>0.01301139350815319</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5317889474019055</v>
+        <v>0.5317889474019051</v>
       </c>
       <c r="H41" t="n">
-        <v>5.446183557579767</v>
+        <v>5.446183557579762</v>
       </c>
       <c r="I41" t="n">
-        <v>20.50179339471199</v>
+        <v>20.50179339471197</v>
       </c>
       <c r="J41" t="n">
-        <v>45.13492217455252</v>
+        <v>45.13492217455249</v>
       </c>
       <c r="K41" t="n">
-        <v>67.6455483180752</v>
+        <v>67.64554831807514</v>
       </c>
       <c r="L41" t="n">
-        <v>83.92028431712629</v>
+        <v>83.92028431712622</v>
       </c>
       <c r="M41" t="n">
-        <v>93.37748601048492</v>
+        <v>93.37748601048484</v>
       </c>
       <c r="N41" t="n">
-        <v>94.88843135729059</v>
+        <v>94.88843135729051</v>
       </c>
       <c r="O41" t="n">
-        <v>89.60045501156289</v>
+        <v>89.60045501156281</v>
       </c>
       <c r="P41" t="n">
-        <v>76.47191537257834</v>
+        <v>76.47191537257827</v>
       </c>
       <c r="Q41" t="n">
-        <v>57.42722369374757</v>
+        <v>57.42722369374752</v>
       </c>
       <c r="R41" t="n">
-        <v>33.40498746723498</v>
+        <v>33.40498746723495</v>
       </c>
       <c r="S41" t="n">
-        <v>12.11814063892094</v>
+        <v>12.11814063892093</v>
       </c>
       <c r="T41" t="n">
-        <v>2.327906117251843</v>
+        <v>2.327906117251841</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04254311579215243</v>
+        <v>0.0425431157921524</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2845321712443311</v>
+        <v>0.2845321712443309</v>
       </c>
       <c r="H42" t="n">
-        <v>2.747981759122883</v>
+        <v>2.74798175912288</v>
       </c>
       <c r="I42" t="n">
-        <v>9.796392738017541</v>
+        <v>9.796392738017532</v>
       </c>
       <c r="J42" t="n">
-        <v>26.88205044199183</v>
+        <v>26.88205044199181</v>
       </c>
       <c r="K42" t="n">
-        <v>45.94570591536201</v>
+        <v>45.94570591536198</v>
       </c>
       <c r="L42" t="n">
-        <v>61.77967165548515</v>
+        <v>61.77967165548509</v>
       </c>
       <c r="M42" t="n">
-        <v>72.09396286309213</v>
+        <v>72.09396286309207</v>
       </c>
       <c r="N42" t="n">
-        <v>74.00207553779646</v>
+        <v>74.00207553779639</v>
       </c>
       <c r="O42" t="n">
-        <v>67.69744163811943</v>
+        <v>67.69744163811937</v>
       </c>
       <c r="P42" t="n">
-        <v>54.33316522647232</v>
+        <v>54.33316522647227</v>
       </c>
       <c r="Q42" t="n">
-        <v>36.32028206971497</v>
+        <v>36.32028206971494</v>
       </c>
       <c r="R42" t="n">
-        <v>17.66595357953839</v>
+        <v>17.66595357953837</v>
       </c>
       <c r="S42" t="n">
-        <v>5.285060286051498</v>
+        <v>5.285060286051493</v>
       </c>
       <c r="T42" t="n">
-        <v>1.146864321813773</v>
+        <v>1.146864321813772</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01871922179239021</v>
+        <v>0.0187192217923902</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2385422143161418</v>
+        <v>0.2385422143161416</v>
       </c>
       <c r="H43" t="n">
-        <v>2.120857141828972</v>
+        <v>2.120857141828969</v>
       </c>
       <c r="I43" t="n">
-        <v>7.173614954161794</v>
+        <v>7.173614954161788</v>
       </c>
       <c r="J43" t="n">
-        <v>16.86493455215123</v>
+        <v>16.86493455215121</v>
       </c>
       <c r="K43" t="n">
-        <v>27.71426817236629</v>
+        <v>27.71426817236626</v>
       </c>
       <c r="L43" t="n">
-        <v>35.46472157205622</v>
+        <v>35.46472157205618</v>
       </c>
       <c r="M43" t="n">
-        <v>37.39257637684757</v>
+        <v>37.39257637684754</v>
       </c>
       <c r="N43" t="n">
-        <v>36.5034644871238</v>
+        <v>36.50346448712376</v>
       </c>
       <c r="O43" t="n">
-        <v>33.71685771079432</v>
+        <v>33.71685771079428</v>
       </c>
       <c r="P43" t="n">
-        <v>28.85059653874499</v>
+        <v>28.85059653874497</v>
       </c>
       <c r="Q43" t="n">
-        <v>19.97465760059984</v>
+        <v>19.97465760059982</v>
       </c>
       <c r="R43" t="n">
-        <v>10.72572538188761</v>
+        <v>10.7257253818876</v>
       </c>
       <c r="S43" t="n">
-        <v>4.157140225854943</v>
+        <v>4.157140225854939</v>
       </c>
       <c r="T43" t="n">
-        <v>1.019225824805333</v>
+        <v>1.019225824805332</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0130113935081532</v>
+        <v>0.01301139350815319</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5317889474019055</v>
+        <v>0.5317889474019051</v>
       </c>
       <c r="H44" t="n">
-        <v>5.446183557579767</v>
+        <v>5.446183557579762</v>
       </c>
       <c r="I44" t="n">
-        <v>20.50179339471199</v>
+        <v>20.50179339471197</v>
       </c>
       <c r="J44" t="n">
-        <v>45.13492217455252</v>
+        <v>45.13492217455249</v>
       </c>
       <c r="K44" t="n">
-        <v>67.6455483180752</v>
+        <v>67.64554831807514</v>
       </c>
       <c r="L44" t="n">
-        <v>83.92028431712629</v>
+        <v>83.92028431712622</v>
       </c>
       <c r="M44" t="n">
-        <v>93.37748601048492</v>
+        <v>93.37748601048484</v>
       </c>
       <c r="N44" t="n">
-        <v>94.88843135729059</v>
+        <v>94.88843135729051</v>
       </c>
       <c r="O44" t="n">
-        <v>89.60045501156289</v>
+        <v>89.60045501156281</v>
       </c>
       <c r="P44" t="n">
-        <v>76.47191537257834</v>
+        <v>76.47191537257827</v>
       </c>
       <c r="Q44" t="n">
-        <v>57.42722369374757</v>
+        <v>57.42722369374752</v>
       </c>
       <c r="R44" t="n">
-        <v>33.40498746723498</v>
+        <v>33.40498746723495</v>
       </c>
       <c r="S44" t="n">
-        <v>12.11814063892094</v>
+        <v>12.11814063892093</v>
       </c>
       <c r="T44" t="n">
-        <v>2.327906117251843</v>
+        <v>2.327906117251841</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04254311579215243</v>
+        <v>0.0425431157921524</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2845321712443311</v>
+        <v>0.2845321712443309</v>
       </c>
       <c r="H45" t="n">
-        <v>2.747981759122883</v>
+        <v>2.74798175912288</v>
       </c>
       <c r="I45" t="n">
-        <v>9.796392738017541</v>
+        <v>9.796392738017532</v>
       </c>
       <c r="J45" t="n">
-        <v>26.88205044199183</v>
+        <v>26.88205044199181</v>
       </c>
       <c r="K45" t="n">
-        <v>45.94570591536201</v>
+        <v>45.94570591536198</v>
       </c>
       <c r="L45" t="n">
-        <v>61.77967165548515</v>
+        <v>61.77967165548509</v>
       </c>
       <c r="M45" t="n">
-        <v>72.09396286309213</v>
+        <v>72.09396286309207</v>
       </c>
       <c r="N45" t="n">
-        <v>74.00207553779646</v>
+        <v>74.00207553779639</v>
       </c>
       <c r="O45" t="n">
-        <v>67.69744163811943</v>
+        <v>67.69744163811937</v>
       </c>
       <c r="P45" t="n">
-        <v>54.33316522647232</v>
+        <v>54.33316522647227</v>
       </c>
       <c r="Q45" t="n">
-        <v>36.32028206971497</v>
+        <v>36.32028206971494</v>
       </c>
       <c r="R45" t="n">
-        <v>17.66595357953839</v>
+        <v>17.66595357953837</v>
       </c>
       <c r="S45" t="n">
-        <v>5.285060286051498</v>
+        <v>5.285060286051493</v>
       </c>
       <c r="T45" t="n">
-        <v>1.146864321813773</v>
+        <v>1.146864321813772</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01871922179239021</v>
+        <v>0.0187192217923902</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2385422143161418</v>
+        <v>0.2385422143161416</v>
       </c>
       <c r="H46" t="n">
-        <v>2.120857141828972</v>
+        <v>2.120857141828969</v>
       </c>
       <c r="I46" t="n">
-        <v>7.173614954161794</v>
+        <v>7.173614954161788</v>
       </c>
       <c r="J46" t="n">
-        <v>16.86493455215123</v>
+        <v>16.86493455215121</v>
       </c>
       <c r="K46" t="n">
-        <v>27.71426817236629</v>
+        <v>27.71426817236626</v>
       </c>
       <c r="L46" t="n">
-        <v>35.46472157205622</v>
+        <v>35.46472157205618</v>
       </c>
       <c r="M46" t="n">
-        <v>37.39257637684757</v>
+        <v>37.39257637684754</v>
       </c>
       <c r="N46" t="n">
-        <v>36.5034644871238</v>
+        <v>36.50346448712376</v>
       </c>
       <c r="O46" t="n">
-        <v>33.71685771079432</v>
+        <v>33.71685771079428</v>
       </c>
       <c r="P46" t="n">
-        <v>28.85059653874499</v>
+        <v>28.85059653874497</v>
       </c>
       <c r="Q46" t="n">
-        <v>19.97465760059984</v>
+        <v>19.97465760059982</v>
       </c>
       <c r="R46" t="n">
-        <v>10.72572538188761</v>
+        <v>10.7257253818876</v>
       </c>
       <c r="S46" t="n">
-        <v>4.157140225854943</v>
+        <v>4.157140225854939</v>
       </c>
       <c r="T46" t="n">
-        <v>1.019225824805333</v>
+        <v>1.019225824805332</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0130113935081532</v>
+        <v>0.01301139350815319</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35173,7 +35173,7 @@
         <v>10.00967878293136</v>
       </c>
       <c r="K8" t="n">
-        <v>9.605247316954339</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="P8" t="n">
-        <v>10.00967878293136</v>
+        <v>9.605247316954333</v>
       </c>
       <c r="Q8" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="L9" t="n">
-        <v>9.605247316954337</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="O9" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>9.605247316954333</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35331,19 +35331,19 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="M10" t="n">
-        <v>9.605247316954337</v>
+        <v>9.605247316954339</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="P10" t="n">
         <v>10.00967878293136</v>
@@ -35407,22 +35407,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>117.8607244703157</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>310.2115806865426</v>
       </c>
       <c r="L11" t="n">
-        <v>435.3196510695971</v>
+        <v>435.3196510695972</v>
       </c>
       <c r="M11" t="n">
-        <v>308.5249445118114</v>
+        <v>426.3856689821272</v>
       </c>
       <c r="N11" t="n">
-        <v>477.0413189206397</v>
+        <v>477.0413189206398</v>
       </c>
       <c r="O11" t="n">
-        <v>397.6858938730112</v>
+        <v>397.6858938730113</v>
       </c>
       <c r="P11" t="n">
         <v>306.9334269443492</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>87.74482471785659</v>
+        <v>87.7448247178566</v>
       </c>
       <c r="K12" t="n">
-        <v>277.7543448650475</v>
+        <v>175.3461302468667</v>
       </c>
       <c r="L12" t="n">
-        <v>431.2966869788342</v>
+        <v>431.2966869788343</v>
       </c>
       <c r="M12" t="n">
-        <v>562.026643176452</v>
+        <v>562.0266431764521</v>
       </c>
       <c r="N12" t="n">
         <v>590.4320211167076</v>
       </c>
       <c r="O12" t="n">
-        <v>1.970235034327927</v>
+        <v>463.8590080867566</v>
       </c>
       <c r="P12" t="n">
-        <v>359.4805584342473</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>195.6855646814263</v>
@@ -35577,7 +35577,7 @@
         <v>259.218857926199</v>
       </c>
       <c r="N13" t="n">
-        <v>258.7629133314232</v>
+        <v>258.7629133314233</v>
       </c>
       <c r="O13" t="n">
         <v>235.8160083188204</v>
@@ -35586,7 +35586,7 @@
         <v>195.0960473815672</v>
       </c>
       <c r="Q13" t="n">
-        <v>84.46361149225315</v>
+        <v>84.46361149225316</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,16 +35644,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>117.8607244703158</v>
       </c>
       <c r="K14" t="n">
-        <v>310.2115806865427</v>
+        <v>310.2115806865426</v>
       </c>
       <c r="L14" t="n">
         <v>435.3196510695972</v>
       </c>
       <c r="M14" t="n">
-        <v>490.5887650540081</v>
+        <v>490.588765054008</v>
       </c>
       <c r="N14" t="n">
         <v>477.0413189206398</v>
@@ -35662,7 +35662,7 @@
         <v>397.6858938730113</v>
       </c>
       <c r="P14" t="n">
-        <v>242.7303308724672</v>
+        <v>124.8696064021499</v>
       </c>
       <c r="Q14" t="n">
         <v>152.8133385286334</v>
@@ -35732,13 +35732,13 @@
         <v>431.2966869788343</v>
       </c>
       <c r="M15" t="n">
-        <v>562.0266431764521</v>
+        <v>187.8826948418798</v>
       </c>
       <c r="N15" t="n">
-        <v>216.2880727821352</v>
+        <v>590.4320211167076</v>
       </c>
       <c r="O15" t="n">
-        <v>463.8590080867567</v>
+        <v>463.8590080867566</v>
       </c>
       <c r="P15" t="n">
         <v>359.4805584342473</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>60.04919017668344</v>
+        <v>60.0491901766834</v>
       </c>
       <c r="K16" t="n">
         <v>164.2988139813558</v>
       </c>
       <c r="L16" t="n">
-        <v>239.7289559220721</v>
+        <v>239.728955922072</v>
       </c>
       <c r="M16" t="n">
         <v>259.218857926199</v>
       </c>
       <c r="N16" t="n">
-        <v>258.7629133314234</v>
+        <v>258.7629133314233</v>
       </c>
       <c r="O16" t="n">
-        <v>235.8160083188205</v>
+        <v>235.8160083188204</v>
       </c>
       <c r="P16" t="n">
-        <v>195.0960473815672</v>
+        <v>195.0960473815678</v>
       </c>
       <c r="Q16" t="n">
-        <v>84.46361149225319</v>
+        <v>84.46361149225316</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>117.8607244703158</v>
       </c>
       <c r="K17" t="n">
         <v>310.2115806865426</v>
@@ -35893,13 +35893,13 @@
         <v>490.588765054008</v>
       </c>
       <c r="N17" t="n">
-        <v>477.0413189206398</v>
+        <v>294.9774983784402</v>
       </c>
       <c r="O17" t="n">
         <v>397.6858938730113</v>
       </c>
       <c r="P17" t="n">
-        <v>242.7303308724681</v>
+        <v>306.9334269443492</v>
       </c>
       <c r="Q17" t="n">
         <v>152.8133385286334</v>
@@ -35969,10 +35969,10 @@
         <v>431.2966869788343</v>
       </c>
       <c r="M18" t="n">
-        <v>100.1378701240231</v>
+        <v>562.0266431764521</v>
       </c>
       <c r="N18" t="n">
-        <v>590.4320211167076</v>
+        <v>128.5432480642787</v>
       </c>
       <c r="O18" t="n">
         <v>463.8590080867566</v>
@@ -36127,7 +36127,7 @@
         <v>435.3196510695972</v>
       </c>
       <c r="M20" t="n">
-        <v>308.5249445118109</v>
+        <v>308.5249445118087</v>
       </c>
       <c r="N20" t="n">
         <v>477.0413189206398</v>
@@ -36206,10 +36206,10 @@
         <v>431.2966869788343</v>
       </c>
       <c r="M21" t="n">
-        <v>562.0266431764521</v>
+        <v>100.1378701240231</v>
       </c>
       <c r="N21" t="n">
-        <v>324.2288127457051</v>
+        <v>590.4320211167076</v>
       </c>
       <c r="O21" t="n">
         <v>463.8590080867566</v>
@@ -36218,7 +36218,7 @@
         <v>359.4805584342473</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>195.6855646814263</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>117.8607244703158</v>
       </c>
       <c r="K23" t="n">
-        <v>246.0084846146617</v>
+        <v>310.2115806865426</v>
       </c>
       <c r="L23" t="n">
         <v>435.3196510695972</v>
@@ -36367,7 +36367,7 @@
         <v>490.588765054008</v>
       </c>
       <c r="N23" t="n">
-        <v>477.0413189206398</v>
+        <v>294.9774983784402</v>
       </c>
       <c r="O23" t="n">
         <v>397.6858938730113</v>
@@ -36446,7 +36446,7 @@
         <v>562.0266431764521</v>
       </c>
       <c r="N24" t="n">
-        <v>128.5432480642796</v>
+        <v>128.5432480642787</v>
       </c>
       <c r="O24" t="n">
         <v>463.8590080867566</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>220.501646294817</v>
+        <v>123.6888307603346</v>
       </c>
       <c r="K26" t="n">
-        <v>412.8525025110439</v>
+        <v>412.8525025110438</v>
       </c>
       <c r="L26" t="n">
-        <v>441.1477573596158</v>
+        <v>537.9605728940985</v>
       </c>
       <c r="M26" t="n">
-        <v>593.2296868785093</v>
+        <v>593.2296868785094</v>
       </c>
       <c r="N26" t="n">
         <v>579.682240745141</v>
@@ -36616,7 +36616,7 @@
         <v>255.4542603531347</v>
       </c>
       <c r="R26" t="n">
-        <v>46.31400565263103</v>
+        <v>46.31400565263102</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,10 +36680,10 @@
         <v>431.2966869788343</v>
       </c>
       <c r="M27" t="n">
-        <v>100.1378701240234</v>
+        <v>562.0266431764521</v>
       </c>
       <c r="N27" t="n">
-        <v>590.4320211167077</v>
+        <v>128.5432480642789</v>
       </c>
       <c r="O27" t="n">
         <v>463.8590080867567</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.04919017668346</v>
+        <v>60.04919017668345</v>
       </c>
       <c r="K28" t="n">
         <v>164.2988139813558</v>
@@ -36771,7 +36771,7 @@
         <v>195.0960473815672</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.46361149225322</v>
+        <v>84.46361149225321</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36835,25 @@
         <v>412.8525025110438</v>
       </c>
       <c r="L29" t="n">
-        <v>537.9605728940985</v>
+        <v>537.9605728940984</v>
       </c>
       <c r="M29" t="n">
-        <v>593.2296868785093</v>
+        <v>496.4168713440274</v>
       </c>
       <c r="N29" t="n">
-        <v>579.682240745141</v>
+        <v>579.6822407451409</v>
       </c>
       <c r="O29" t="n">
         <v>500.3268156975125</v>
       </c>
       <c r="P29" t="n">
-        <v>409.5743487688505</v>
+        <v>409.5743487688504</v>
       </c>
       <c r="Q29" t="n">
-        <v>158.6414448186519</v>
+        <v>255.4542603531346</v>
       </c>
       <c r="R29" t="n">
-        <v>46.314005652631</v>
+        <v>46.31400565263099</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>87.7448247178566</v>
       </c>
       <c r="K30" t="n">
         <v>277.7543448650475</v>
@@ -36920,10 +36920,10 @@
         <v>562.0266431764521</v>
       </c>
       <c r="N30" t="n">
-        <v>590.4320211167077</v>
+        <v>128.5432480642789</v>
       </c>
       <c r="O30" t="n">
-        <v>89.71505975218447</v>
+        <v>463.8590080867566</v>
       </c>
       <c r="P30" t="n">
         <v>359.4805584342473</v>
@@ -36999,10 +36999,10 @@
         <v>259.218857926199</v>
       </c>
       <c r="N31" t="n">
-        <v>258.7629133314234</v>
+        <v>258.762913331423</v>
       </c>
       <c r="O31" t="n">
-        <v>235.8160083188205</v>
+        <v>235.8160083188204</v>
       </c>
       <c r="P31" t="n">
         <v>195.0960473815672</v>
@@ -37066,22 +37066,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>217.4712500033982</v>
+        <v>223.091350389537</v>
       </c>
       <c r="K32" t="n">
-        <v>310.2115806865426</v>
+        <v>415.4422066057639</v>
       </c>
       <c r="L32" t="n">
-        <v>540.5502769888185</v>
+        <v>540.5502769888184</v>
       </c>
       <c r="M32" t="n">
-        <v>595.8193909732292</v>
+        <v>490.588765054008</v>
       </c>
       <c r="N32" t="n">
         <v>582.271944839861</v>
       </c>
       <c r="O32" t="n">
-        <v>502.9165197922325</v>
+        <v>448.3927096587429</v>
       </c>
       <c r="P32" t="n">
         <v>412.1640528635705</v>
@@ -37090,7 +37090,7 @@
         <v>258.0439644478546</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>48.90370974735105</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>87.74482471785663</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>277.7543448650475</v>
@@ -37154,13 +37154,13 @@
         <v>431.2966869788343</v>
       </c>
       <c r="M33" t="n">
-        <v>100.1378701240233</v>
+        <v>562.0266431764521</v>
       </c>
       <c r="N33" t="n">
-        <v>590.4320211167077</v>
+        <v>216.2880727821354</v>
       </c>
       <c r="O33" t="n">
-        <v>463.8590080867567</v>
+        <v>463.8590080867566</v>
       </c>
       <c r="P33" t="n">
         <v>359.4805584342473</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>62.63889427140349</v>
       </c>
       <c r="K34" t="n">
-        <v>166.5332103462536</v>
+        <v>166.8885180760759</v>
       </c>
       <c r="L34" t="n">
         <v>242.3186600167921</v>
       </c>
       <c r="M34" t="n">
-        <v>261.808562020919</v>
+        <v>261.8085620209191</v>
       </c>
       <c r="N34" t="n">
         <v>261.3526174261434</v>
       </c>
       <c r="O34" t="n">
-        <v>238.4057124135405</v>
+        <v>175.4115104123138</v>
       </c>
       <c r="P34" t="n">
-        <v>197.6857514762872</v>
+        <v>197.6857514762873</v>
       </c>
       <c r="Q34" t="n">
-        <v>87.05331558697321</v>
+        <v>87.05331558697326</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>435.3196510695972</v>
       </c>
       <c r="M35" t="n">
-        <v>490.5887650540081</v>
+        <v>490.588765054008</v>
       </c>
       <c r="N35" t="n">
         <v>477.0413189206398</v>
@@ -37321,10 +37321,10 @@
         <v>397.6858938730113</v>
       </c>
       <c r="P35" t="n">
-        <v>306.9334269443493</v>
+        <v>306.9334269443492</v>
       </c>
       <c r="Q35" t="n">
-        <v>152.8133385286334</v>
+        <v>152.8133385286324</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>87.7448247178566</v>
       </c>
       <c r="K36" t="n">
         <v>277.7543448650475</v>
@@ -37394,16 +37394,16 @@
         <v>562.0266431764521</v>
       </c>
       <c r="N36" t="n">
-        <v>216.2880727821352</v>
+        <v>590.4320211167076</v>
       </c>
       <c r="O36" t="n">
-        <v>463.8590080867567</v>
+        <v>463.8590080867566</v>
       </c>
       <c r="P36" t="n">
-        <v>359.4805584342473</v>
+        <v>93.27735006324492</v>
       </c>
       <c r="Q36" t="n">
-        <v>195.6855646814263</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>61.65789215685459</v>
+        <v>61.65789215685456</v>
       </c>
       <c r="L37" t="n">
-        <v>137.0880340975709</v>
+        <v>137.0880340975708</v>
       </c>
       <c r="M37" t="n">
         <v>156.5779361016978</v>
@@ -37476,10 +37476,10 @@
         <v>156.1219915069221</v>
       </c>
       <c r="O37" t="n">
-        <v>133.1750864943193</v>
+        <v>133.1750864943192</v>
       </c>
       <c r="P37" t="n">
-        <v>92.455125557066</v>
+        <v>92.45512555706597</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37546,10 +37546,10 @@
         <v>310.2115806865426</v>
       </c>
       <c r="L38" t="n">
-        <v>435.3196510695979</v>
+        <v>435.3196510695972</v>
       </c>
       <c r="M38" t="n">
-        <v>490.5887650540081</v>
+        <v>490.5887650540077</v>
       </c>
       <c r="N38" t="n">
         <v>477.0413189206398</v>
@@ -37558,7 +37558,7 @@
         <v>397.6858938730113</v>
       </c>
       <c r="P38" t="n">
-        <v>306.9334269443493</v>
+        <v>306.9334269443492</v>
       </c>
       <c r="Q38" t="n">
         <v>152.8133385286334</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>87.7448247178566</v>
       </c>
       <c r="K39" t="n">
         <v>277.7543448650475</v>
@@ -37631,16 +37631,16 @@
         <v>562.0266431764521</v>
       </c>
       <c r="N39" t="n">
-        <v>590.4320211167077</v>
+        <v>590.4320211167076</v>
       </c>
       <c r="O39" t="n">
-        <v>285.4006244336105</v>
+        <v>1.970235034327697</v>
       </c>
       <c r="P39" t="n">
         <v>359.4805584342473</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>195.6855646814263</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>61.65789215685459</v>
+        <v>61.65789215685456</v>
       </c>
       <c r="L40" t="n">
-        <v>137.0880340975709</v>
+        <v>137.0880340975708</v>
       </c>
       <c r="M40" t="n">
         <v>156.5779361016978</v>
@@ -37713,10 +37713,10 @@
         <v>156.1219915069221</v>
       </c>
       <c r="O40" t="n">
-        <v>133.1750864943193</v>
+        <v>133.1750864943192</v>
       </c>
       <c r="P40" t="n">
-        <v>92.455125557066</v>
+        <v>92.45512555706597</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>117.8607244703164</v>
+        <v>117.8607244703158</v>
       </c>
       <c r="K41" t="n">
         <v>310.2115806865426</v>
@@ -37786,7 +37786,7 @@
         <v>435.3196510695972</v>
       </c>
       <c r="M41" t="n">
-        <v>490.5887650540081</v>
+        <v>490.588765054008</v>
       </c>
       <c r="N41" t="n">
         <v>477.0413189206398</v>
@@ -37795,7 +37795,7 @@
         <v>397.6858938730113</v>
       </c>
       <c r="P41" t="n">
-        <v>306.9334269443493</v>
+        <v>306.9334269443492</v>
       </c>
       <c r="Q41" t="n">
         <v>152.8133385286334</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>87.7448247178566</v>
       </c>
       <c r="K42" t="n">
         <v>277.7543448650475</v>
@@ -37865,19 +37865,19 @@
         <v>431.2966869788343</v>
       </c>
       <c r="M42" t="n">
-        <v>383.5682595233062</v>
+        <v>562.0266431764521</v>
       </c>
       <c r="N42" t="n">
-        <v>590.4320211167077</v>
+        <v>590.4320211167076</v>
       </c>
       <c r="O42" t="n">
-        <v>463.8590080867567</v>
+        <v>1.970235034327697</v>
       </c>
       <c r="P42" t="n">
         <v>359.4805584342473</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>195.6855646814263</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>61.65789215685459</v>
+        <v>61.65789215685456</v>
       </c>
       <c r="L43" t="n">
-        <v>137.0880340975709</v>
+        <v>137.0880340975708</v>
       </c>
       <c r="M43" t="n">
-        <v>288.793820651932</v>
+        <v>187.8745416995146</v>
       </c>
       <c r="N43" t="n">
-        <v>169.2412867724959</v>
+        <v>156.1219915069221</v>
       </c>
       <c r="O43" t="n">
-        <v>133.1750864943193</v>
+        <v>133.1750864943192</v>
       </c>
       <c r="P43" t="n">
-        <v>224.6710101073002</v>
+        <v>224.6710101073005</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>114.0385742179865</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>117.8607244703164</v>
+        <v>117.8607244703158</v>
       </c>
       <c r="K44" t="n">
         <v>310.2115806865426</v>
@@ -38023,16 +38023,16 @@
         <v>435.3196510695972</v>
       </c>
       <c r="M44" t="n">
-        <v>490.5887650540081</v>
+        <v>490.588765054008</v>
       </c>
       <c r="N44" t="n">
-        <v>477.0413189206398</v>
+        <v>477.0413189206392</v>
       </c>
       <c r="O44" t="n">
         <v>397.6858938730113</v>
       </c>
       <c r="P44" t="n">
-        <v>306.9334269443493</v>
+        <v>306.9334269443492</v>
       </c>
       <c r="Q44" t="n">
         <v>152.8133385286334</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>57.15273864426199</v>
       </c>
       <c r="K45" t="n">
-        <v>99.29596121190167</v>
+        <v>277.7543448650475</v>
       </c>
       <c r="L45" t="n">
-        <v>431.2966869788343</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>562.0266431764521</v>
       </c>
       <c r="N45" t="n">
-        <v>590.4320211167077</v>
+        <v>590.4320211167076</v>
       </c>
       <c r="O45" t="n">
-        <v>463.8590080867567</v>
+        <v>463.8590080867566</v>
       </c>
       <c r="P45" t="n">
         <v>359.4805584342473</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>195.6855646814263</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>89.62415290241648</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>135.5462294024941</v>
+        <v>193.8737767070891</v>
       </c>
       <c r="L46" t="n">
-        <v>137.0880340975709</v>
+        <v>137.0880340975708</v>
       </c>
       <c r="M46" t="n">
-        <v>156.5779361016978</v>
+        <v>288.7938206519323</v>
       </c>
       <c r="N46" t="n">
         <v>156.1219915069221</v>
       </c>
       <c r="O46" t="n">
-        <v>133.1750864943193</v>
+        <v>133.1750864943192</v>
       </c>
       <c r="P46" t="n">
-        <v>92.455125557066</v>
+        <v>92.45512555706597</v>
       </c>
       <c r="Q46" t="n">
-        <v>114.0385742179862</v>
+        <v>13.11929526556873</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
